--- a/Ressources/LaSorciereDesNeiges/Story.xlsx
+++ b/Ressources/LaSorciereDesNeiges/Story.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="500">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -259,16 +259,19 @@
     <t xml:space="preserve">En vous aidant autant qu'ils le peuvent, vos amis essayent de pousser votre main contre la porte. La pointe de la dague pénètre dans le bois, et bientôt vous pouvez en lâcher le manche. En poussant un soupir de soulagement, vous ouvrez la porte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous sortez le bâton de votre Sac à Dos, et vous en placez une extrémité sur la poitrine de la Sorcière des Neiges. Si votre total d'HABILETÉ est supérieur à 10, rendez-vous au 4. Si ce même total est égal ou inférieur à 10, rendez-vous au 380.</t>
+    <t xml:space="preserve">Vous sortez le bâton de votre Sac à Dos, et vous en placez une extrémité sur la poitrine de la Sorcière des Neiges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF:Hero.Current.Ability&gt;10;CHOICE:4;CHOICE:380</t>
   </si>
   <si>
     <t xml:space="preserve">Vous reprenez rapidement vos esprits, et vous vous souvenez qu'un Vampire ne peut être tué que si on lui enfonce un pieu dans le cœur. Si vous possédez un bâton gravé de caractères runiques, rendez-vous au 7. Sinon, rendez-vous au 121.</t>
   </si>
   <si>
-    <t xml:space="preserve">Avec un bruit sourd, la flèche se plante dans le flanc de la barque. Vous ramez aussi vite que vous le pouvez vers la rive opposée, mais vous êtes encore à portée des flèches de l'Elfe Noir, et vous le voyez qui bande son arc de nouveau. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 32. Si vous êtes Malchanceux, rendez-vous au 239.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO </t>
+    <t xml:space="preserve">Avec un bruit sourd, la flèche se plante dans le flanc de la barque. Vous ramez aussi vite que vous le pouvez vers la rive opposée, mais vous êtes encore à portée des flèches de l'Elfe Noir, et vous le voyez qui bande son arc de nouveau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:32;CHOICE:239</t>
   </si>
   <si>
     <t xml:space="preserve">La terreur vous saisit lorsque vous constatez que vous ne possédez aucune des armes qui vous permettraient de tuer un Vampire. Lentement, la Sorcière des Neiges surmonte la peur qu'elle a ressentie à la vue de la gousse d'ail et, peu à peu, elle prend possession de votre volonté, vous obligeant à lui tendre votre cou dénudé afin qu'elle puisse boire votre sang. Dorénavant, vous serez son esclave dans l'univers des morts vivants.</t>
@@ -322,7 +325,13 @@
     <t xml:space="preserve">Le Guérisseur est derrière vous, et vous presse afin que vous traversiez la grotte le plus rapidement possible. Vous marchez en silence, et vous finissez par apercevoir un rayon de soleil qui pénètre par une fissure, au fond de la grotte. Cette fissure est suffisamment large pour que vous puissiez vous y glisser. « Qu'allons nous faire maintenant ? » demandez-vous au Guérisseur. Avec calme, il vous répond : « Je vous ai conduit aussi loin que je le pouvais. Maintenant, vous seul devez mener votre épreuve à son terme. Sans quitter votre masque, vous devez atteindre le sommet de la Montagne de Feu avant l'aube, afin de voir le soleil se lever. Vous devrez vous asseoir les jambes croisées, en faisant face à l'est, et vous serez complètement guéri lorsque les premiers rayons du soleil éclaireront l'horizon. Si vous avez un objet en argent, nous pouvons attirer un CHEVAL VOLANT ici ; il vous mènera alors au sommet de la Montagne ». Si vous possédez un objet en argent, rendez-vous au 328. Si vous n'en possédez pas, rendez-vous au 206.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le tunnel aboutit bientôt à une intersection, et alors que vous allez vous y engager, vous vous heurtez presque à une espèce de primate revêtu de fourrure, et tenant dans sa main une massue de pierre. Vous saisissez votre épée et, après avoir ordonné à Meynaf et à Stubb de disparaître rapidement dans le tunnel de droite, vous vous préparez à combattre un HOMME DES CAVERNES. HOMME DES CAVERNES HABILETÉ: 8 ENDURANCE: 8 Si vous êtes vainqueur, rendez-vous au 141. Mais vous pouvez prendre la Fuite après le deuxième Assaut, en vous précipitant dans le tunnel à la suite de vos deux compagnons (rendez-vous au 365).</t>
+    <t xml:space="preserve">Le tunnel aboutit bientôt à une intersection, et alors que vous allez vous y engager, vous vous heurtez presque à une espèce de primate revêtu de fourrure, et tenant dans sa main une massue de pierre. Vous saisissez votre épée et, après avoir ordonné à Meynaf et à Stubb de disparaître rapidement dans le tunnel de droite, vous vous préparez à combattre un HOMME DES CAVERNES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:HOMME DES CAVERNES,8,8:2,Vous précipiter dans le tunnel à la suite de vos deux compagnons:;
+;
+CHOICE:141;
+CHOICE:365</t>
   </si>
   <si>
     <t xml:space="preserve">Vous portez maintenant un anneau magique qui vous permettra de résister au froid le plus aigu. Ajoutez pour cela 1 point à votre total de CHANCE. Si vous ne l'avez déjà fait, vous pouvez maintenant glisser à votre doigt l'anneau d'argent (rendez-vous au 159) ou l'anneau en cuivre (rendez-vous au 130). Mais vous pouvez également vous diriger vers le tunnel (rendez-vous au 338).</t>
@@ -337,13 +346,22 @@
     <t xml:space="preserve">Une expression de surprise et de dépit apparaît sur le visage de la Sorcière des Neiges. Brusquement, elle vous dit : « Nous allons jouer aux Disques. Vous allez perdre, cela ne fait aucun doute, mais pour le cas bien improbable où je perdrais moi-même, je vous donnerai la possibilité de vous enfuir de ce lieu. J'espère que vous avez vos disques avec vous. Sinon, vous avez déjà perdu ! ». Cette dernière règle qu'elle vient d'inventer la fait éclater d'un rire sardonique. Mais vous ne pouvez faire autrement que de jouer selon ses propres directives. Si vous possédez des disques de métal, rendez-vous au 113. Sinon, rendez-vous au 40.</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO equipement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le liquide vous réchauffe merveilleusement. Vous avez bu une potion préparée par la Sorcière des Neiges pour ses créatures, afin qu'elles ne ressentent pas le froid. Vous ajoutez 3 points à votre total d'ENDURANCE. Cette potion guérit aussi les gelures, aussi vous pouvez annuler tous les points d'habileté que vous avez pu perdre si vous en avez souffert. Avec un regain d'énergie vous sortez de la grotte.</t>
   </si>
   <si>
-    <t xml:space="preserve">La neige a cessé de tomber, et le ciel est maintenant clair et bleu. L'air est vif, et la neige crisse sous vos pieds. Lentement, vous progressez en direction du sommet de la montagne, en cherchant l'entrée de la grotte qui porte sur son côté gauche le signe du trappeur. Soudain, vous entendez un grondement sourd provenant d'au-dessus de l'endroit où vous vous trouvez : le vacarme terrifiant d'une avalanche. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 163. Si vous êtes Malchanceux, rendez-vous au 109.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous montez dans la barque que vous éloignez de la rive, et vous vous trouvez à peu près à mi-chemin de la berge opposée, lorsque vous entendez derrière vous des cris de colère. En vous retournant, vous constatez que l'irascible propriétaire de votre embarcation est un ELFE NOIR, revêtu de son habituel manteau noir. Il saisit une flèche de son carquois, bande son arc, et, après vous avoir soigneusement visé, lâche sa flèche. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 9. Si vous êtes Malchanceux, rendez-vous au 227.</t>
+    <t xml:space="preserve">La neige a cessé de tomber, et le ciel est maintenant clair et bleu. L'air est vif, et la neige crisse sous vos pieds. Lentement, vous progressez en direction du sommet de la montagne, en cherchant l'entrée de la grotte qui porte sur son côté gauche le signe du trappeur. Soudain, vous entendez un grondement sourd provenant d'au-dessus de l'endroit où vous vous trouvez : le vacarme terrifiant d'une avalanche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:163;CHOICE:109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous montez dans la barque que vous éloignez de la rive, et vous vous trouvez à peu près à mi-chemin de la berge opposée, lorsque vous entendez derrière vous des cris de colère. En vous retournant, vous constatez que l'irascible propriétaire de votre embarcation est un ELFE NOIR, revêtu de son habituel manteau noir. Il saisit une flèche de son carquois, bande son arc, et, après vous avoir soigneusement visé, lâche sa flèche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:9;CHOICE:227</t>
   </si>
   <si>
     <t xml:space="preserve">Lorsque vous avez atteint la hutte, vous vous ruez sur la porte, et vous pénétrez dans la pièce, l'épée à la main. Malheureusement pour vous, l'endroit est désert. L'herboriste a dû empaqueter quelques affaires en hâte, avant de filer avec votre or. Vous perdez 1 point de CHANCE. Vous reprenez le chemin dans la direction de la rivière, en priant le ciel pour qu'il mette cet herboriste de malheur un jour ou l'autre sur votre chemin.</t>
@@ -362,16 +380,21 @@
 385:Traverser la rivière en empruntant le pont de cordes qui se trouve devant vous, puis marcher vers le sud, au pied des collines.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 295. Si vous êtes Malchanceux votre mensonge est découvert, et ils se précipitent sur vous (rendez-vous au 143).</t>
+    <t xml:space="preserve">LUCK;CHOICE:295;CHOICE:143:Votre Mensonge est découvert, et ils se précipitent sur vous.</t>
   </si>
   <si>
     <t xml:space="preserve">La flèche passe au-dessus de votre tête, et vous atteignez la rive avant que l'Elfe Noir n'ait eu le temps de bander son arc une nouvelle fois. Vous sautez hors de la barque et, après avoir adressé un geste narquois à l'Elfe, vous vous mettez en route dans la direction du sud, en traversant la Plaine des Païens vers Pont de Pierre.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans la meute qui vous poursuit, vous pouvez reconnaître des Gobelins, des Orques et des Néanderthaliens. Alors que vous vous mettez à courir pour leur échapper, les deux créatures les plus proches de vous essayent de vous arrêter. L'une d'elles vous jette son fouet dans les jambes, en espérant vous faire trébucher, alors que l'autre lance sa dague vers vous. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 226. Si vous êtes Malchanceux, rendez-vous au 340.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous sortez le bâton de votre Sac à Dos, et vous en placez une extrémité sur la poitrine de la Sorcière des Neiges. Si votre total d'HABILETÉ est supérieur à 10, rendez-vous au 4. Si ce même total est égal ou inférieur à 10, rendez-vous au 123.</t>
+    <t xml:space="preserve">Dans la meute qui vous poursuit, vous pouvez reconnaître des Gobelins, des Orques et des Néanderthaliens. Alors que vous vous mettez à courir pour leur échapper, les deux créatures les plus proches de vous essayent de vous arrêter. L'une d'elles vous jette son fouet dans les jambes, en espérant vous faire trébucher, alors que l'autre lance sa dague vers vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:226;CHOICE:340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF:Hero.Current.Ability&gt;10;
+CHOICE:4;
+CHOICE:380</t>
   </si>
   <si>
     <t xml:space="preserve">Une fois encore, vos amis essayent de venir à bout du pouvoir de la dague. Mais vous voyez avec horreur votre bras se lever, puis plonger la dague dans votre propre poitrine. Votre aventure se termine ici.</t>
@@ -384,16 +407,34 @@
 192:Quitter la cabane, et poursuivre votre chemin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le personnage qui vous fait face avance encore de quelques pas. Il tient une lanterne et c'est seulement lorsque vous pouvez presque le toucher que vous vous rendez compte de son aspect épouvantable. Son visage ridé est d'une couleur de cendre, et ses yeux ne sont que deux plis de peau enfoncés profondément dans leurs orbites. Vous avez pénétré dans le domaine obscur d'un SPECTRE DE LA NUIT, et vous allez devoir le combattre. SPECTRE DE LA NUIT HABILETÉ: 11 ENDURANCE: 8 Pendant tout le temps que durera le combat, vous devrez soustraire à chaque Assaut 2 points de votre Force d'Attaque, pour la maladresse qui est la vôtre à combattre dans l'obscurité. Si vous êtes vainqueur, rendez-vous au 306.</t>
+    <t xml:space="preserve">Le personnage qui vous fait face avance encore de quelques pas. Il tient une lanterne et c'est seulement lorsque vous pouvez presque le toucher que vous vous rendez compte de son aspect épouvantable. Son visage ridé est d'une couleur de cendre, et ses yeux ne sont que deux plis de peau enfoncés profondément dans leurs orbites. Vous avez pénétré dans le domaine obscur d'un SPECTRE DE LA NUIT, et vous allez devoir le combattre.
+Pendant tout le temps que durera le combat, vous devrez soustraire à chaque Assaut 2 points de votre Force d'Attaque, pour la maladresse qui est la vôtre à combattre dans l'obscurité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Ability:-2;
+COMBAT:SPECTRE DE LA NUIT,11,8:-1:;
+;
+CHOICE:37POST;
+;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Ability lost for obscurity during fight at 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Ability:2;
+GOTO:306</t>
   </si>
   <si>
     <t xml:space="preserve">Bien qu'il fasse assez froid, vous commencez à transpirer, et vous êtes sujet à des étourdissements. Vous jetez un coup d'œil vers Meynaf qui ne semble pas, lui non plus, en très grande forme. Son visage est livide, et ses yeux sont profondément enfoncés dans leurs orbites. « Asseyons-nous » murmure Meynaf d'une voix étouffée. Vous vous arrêtez bien volontiers, et vous vous laissez glisser sur l'herbe, vraiment inquiet, cette fois, car votre cœur bat à tout rompre dans votre poitrine. Meynaf se tourne alors vers vous : « Lorsque nous étions dans la montagne, après avoir parcouru nombre de tunnels et de grottes, nous sommes arrivés devant une porte sur laquelle était fixé un morceau de parchemin. Vous vous en souvenez, n'est-ce-pas ? Vous ne pouviez comprendre ce qui était écrit sur le parchemin, et vous m'avez demandé de vous le lire. C'était un Sortilège de Mort. Et nous sommes à présent tous deux en grand danger. Le Sortilège a commencé d'agir plus tôt que je ne l'avais prévu, et il nous faut trouver le plus vite possible le vieil homme des collines, celui que l'on nomme le Guérisseur. Lui seul peut nous sauver, maintenant. Mais j'ai bien peur qu'il ne soit trop tard. Mes jambes sont si faibles qu'il est peu probable qu'elles puissent encore me porter. » Si vous avez bu la Potion de Santé qui appartenait à l'Elfe Noir, rendez-vous au 30. Sinon, rendez-vous au 367.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous lancez avec force votre jambe sur le côté, et vous atteignez le Gobelin le plus proche en plein estomac. Il se plie en deux sous la douleur, et vous en profitez pour lui donner un violent coup de poing sous le menton, ce qui l'expédie à terre totalement inconscient. L'autre Gobelin s'approche alors de vous avec méfiance, et essaye de vous porter un coup de sa dague. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 240. Si vous êtes Malchanceux, rendez-vous au 386.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO chance</t>
+    <t xml:space="preserve">Vous lancez avec force votre jambe sur le côté, et vous atteignez le Gobelin le plus proche en plein estomac. Il se plie en deux sous la douleur, et vous en profitez pour lui donner un violent coup de poing sous le menton, ce qui l'expédie à terre totalement inconscient. L'autre Gobelin s'approche alors de vous avec méfiance, et essaye de vous porter un coup de sa dague.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:240;CHOICE:386</t>
   </si>
   <si>
     <t xml:space="preserve">Furieux d'avoir perdu avant même que le jeu ne commence, vous saisissez votre épée avec l'intention de fracasser le globe de la Sorcière des Neiges.</t>
@@ -402,7 +443,10 @@
     <t xml:space="preserve">Vous marchez avec précaution sur le pont de neige, et vous finissez par atteindre, sain et sauf, l'autre bord de la crevasse. Vous poursuivez alors votre lent cheminement dans la neige.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous retirez la courroie de vos épaules, et vous constatez alors que votre Sac à Dos a disparu dans l'eau. Vous avez perdu tout votre or, tous les objets que vous possédiez ainsi que les quelques provisions qui vous restaient. Vous ôtez 2 points à votre total de CHANCE. Le courant violent vous entraîne, et tout ce que vous pouvez faire est d'essayer de garder la tête hors de l'eau. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 201. Si vous êtes Malchanceux, rendez-vous au 280.</t>
+    <t xml:space="preserve">Vous retirez la courroie de vos épaules, et vous constatez alors que votre Sac à Dos a disparu dans l'eau. Vous avez perdu tout votre or, tous les objets que vous possédiez ainsi que les quelques provisions qui vous restaient. Vous ôtez 2 points à votre total de CHANCE. Le courant violent vous entraîne, et tout ce que vous pouvez faire est d'essayer de garder la tête hors de l'eau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:201;CHOICE:280</t>
   </si>
   <si>
     <t xml:space="preserve">Vous ramassez votre épée, puis vous fouillez les Gobelins. Vous trouvez leurs dagues, du poisson salé, une chandelle ainsi que 2 Pièces d'Or. Vous rangez le tout dans votre sac à dos (n'oubliez pas de noter ces différentes trouvailles sur votre Feuille d'Aventure). Les colliers en métal qu'ils portaient au cou ne brillent plus maintenant, mais il vous est impossible de vous en saisir. En espérant qu'aucun autre traquenard ne vous attend au- delà du puits de glace, vous décidez du chemin à prendre.</t>
@@ -418,7 +462,8 @@
     <t xml:space="preserve">Vous examinez le coffre en bois qui est posé à terre, et vous l'ouvrez de la pointe de votre épée. A l'intérieur, vous trouvez trois anneaux ciselés ainsi qu'un flacon brisé qui laisse échapper une douce odeur aromatique. Vous pouvez glisser un des anneaux à votre doigt, si vous le désirez (rendez-vous au 65). Mais si vous préférez poursuivre votre chemin, vous vous dirigez vers l'autre tunnel.</t>
   </si>
   <si>
-    <t xml:space="preserve">La rivière se rétrécit alors que le chemin devient de plus en plus raide. En le gravissant avec peine, vous ressentez une grande lassitude. Vous perdez 1 point d'ENDURANCE. Vous arrivez à la hauteur d'une grosse souche creuse, et vous lui prêtez une attention distraite jusqu'au moment où vous remarquez une corde, attachée à ses racines. Vous vous approchez de la souche, et vous constatez que la corde disparaît dans les profondeurs obscures d'un puits grossier.</t>
+    <t xml:space="preserve">La rivière se rétrécit alors que le chemin devient de plus en plus raide. En le gravissant avec peine, vous ressentez une grande lassitude.\nVous perdez 1 point d'ENDURANCE.
+Vous arrivez à la hauteur d'une grosse souche creuse, et vous lui prêtez une attention distraite jusqu'au moment où vous remarquez une corde, attachée à ses racines. Vous vous approchez de la souche, et vous constatez que la corde disparaît dans les profondeurs obscures d'un puits grossier.</t>
   </si>
   <si>
     <t xml:space="preserve">312:Tirer la corde.;
@@ -426,6 +471,9 @@
 119:Poursuivre votre route le long de la rivière.</t>
   </si>
   <si>
+    <t xml:space="preserve">ADD:Hero.Current.Strenght:-1;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vous atteignez l'extrémité de la crevasse après une demi-heure d'une marche épuisante. Vous pouvez maintenant poursuivre votre escalade. Mais la pente raide ainsi que la neige tourbillonnante ralentissent votre progression.</t>
   </si>
   <si>
@@ -440,118 +488,207 @@
     <t xml:space="preserve">A peine avez-vous fait quelques pas à l'intérieur du tunnel qu'une grille de fer tombe derrière vous, vous barrant toute retraite. Il serait inutile d'essayer de la soulever, et la seule chose que vous pouvez faire est d'aller voir ce qui se trouve au bout du tunnel. Mais vous arrivez bientôt devant une nouvelle grille qui vous interdit d'aller plus avant. Au-delà de cet obstacle, le tunnel tourne sur la gauche, et, sur le mur qui vous fait face, vous apercevez un bouton qui, sans aucun doute, doit actionner le mécanisme permettant de lever la grille. Malheureusement, ce bouton est hors d'atteinte, même en vous aidant de votre épée. Si vous possédez une ou plusieurs dagues, rendez-vous au 234. Si vous n'avez pas de dague, rendez-vous au 393.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comme vous vous approchez du feu, une délicieuse odeur de canard rôti vient vous chatouiller les narines. Vous tirez votre épée, et vous vous approchez prudemment. Soudain un petit homme musculeux, aux longs cheveux et à la barbe hirsute, jaillit de derrière un rocher, en poussant des cris suraigus. Il est vêtu de peaux d'animaux et brandit une hache de pierre. Il se précipite sur vous, et vous allez devoir combattre ce SAUVAGE DES COLLINES. SAUVAGE DES COLLINES HABILETÉ: 6 ENDURANCE: 5 Si vous êtes vainqueur, rendez-vous au 320. Mais vous pouvez prendre la Fuite après le deuxième Assaut en courant à travers les rochers vers la rive nord de la rivière (rendez-vous au 364).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La décharge d'énergie vous donne un choc si violent que vous êtes projeté à terre. Vous perdez 1 point d'HABILETÉ, et 4 points d'ENDURANCE. Si vous êtes toujours vivant, rendez-vous au 336.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une vieille légende affirmant que seule la poudre de sabot de minotaure peut arrêter les effets d'une Formule de Métamorphose, vous revient à l'esprit. Vous en jetez rapidement quelques pincées sur la créature dont le volume a maintenant plus que doublé, et vous poussez un soupir de soulagement en la voyant reprendre peu à peu sa forme de rat blanc. La légende était donc vraie ! Mais ce sarcophage ouvert vous intrigue, et vous vous dirigez vers lui pour l'examiner. Rendez-vous au 297.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne ne répond à votre appel. Si vous désirez pénétrer dans la grotte, rendez-vous au 246. Mais vous pouvez également revenir dans la gorge (rendez-vous au 355).</t>
+    <t xml:space="preserve">Comme vous vous approchez du feu, une délicieuse odeur de canard rôti vient vous chatouiller les narines. Vous tirez votre épée, et vous vous approchez prudemment. Soudain un petit homme musculeux, aux longs cheveux et à la barbe hirsute, jaillit de derrière un rocher, en poussant des cris suraigus. Il est vêtu de peaux d'animaux et brandit une hache de pierre. Il se précipite sur vous, et vous allez devoir combattre ce SAUVAGE DES COLLINES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:SAUVAGE DES COLLINES,6,5:2,Courrir à travers les rochers vers la rive nord de la rivière:;
+;
+CHOICE:320;
+CHOICE:364;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La décharge d'énergie vous donne un choc si violent que vous êtes projeté à terre.\nVous perdez 1 point d'HABILETÉ, et 4 points d'ENDURANCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Ability:-1;
+ADD:Hero.Current.Strenght:-4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une vieille légende affirmant que seule la poudre de sabot de minotaure peut arrêter les effets d'une Formule de Métamorphose, vous revient à l'esprit. Vous en jetez rapidement quelques pincées sur la créature dont le volume a maintenant plus que doublé, et vous poussez un soupir de soulagement en la voyant reprendre peu à peu sa forme de rat blanc. La légende était donc vraie ! Mais ce sarcophage ouvert vous intrigue, et vous vous dirigez vers lui pour l'examiner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne ne répond à votre appel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246:Pénétrer dans la grotte.;
+355:Revenir dans la gorge.</t>
   </si>
   <si>
     <t xml:space="preserve">Vous allumez la bougie, et vous examinez attentivement le puits. Il mesure environ quinze mètres de large, et la planche qui le traverse vous paraît bien étroite. Le Guérisseur vous demande de le traverser, dès que vous vous sentirez prêt à le faire. Jetez deux dés. Si le nombre obtenu est égal ou inférieur à votre total d'habileté, rendez-vous au 91. Si ce nombre est supérieur à ce même total, rendez-vous au 78.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous arrachez la dague de la porte, et soudain l'arme semble agir de sa propre volonté. Sans que vous puissiez l'en empêcher, votre main plonge l'arme dans votre cuisse. Vous perdez 2 points d'ENDURANCE. Meynaf et Stubb se précipitent alors pour vous aider. Ils saisissent votre poignet et poussent avec effort votre main vers la porte dans le but d'y planter la dague. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 6. Si vous êtes Malchanceux, rendez-1 vous au 236.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous passez devant l'entrée du tunnel, sur votre gauche, et vous poursuivez votre chemin dans le tunnel principal. Rendez-vous au 395.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comme vous vous éloignez, vous entendez le Nain qui vous souhaite toutes les malédictions possibles et imaginables ! Vous perdez 2 points de CHANCE. Vous dépassez la bifurcation, et poursuivez votre chemin le long de l'autre tunnel, les hurlements du Nain toujours présents à vos oreilles. Rendez-vous au 125.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allongé entre les buissons rabougris, vous entendez le bruit fracassant des sabots devenir de plus en plus fort. En écartant quelques branches, vous apercevez quatre CENTAURES en plein galop, chacun portant un arc et un carquois. Vous restez parfaitement immobile jusqu'à ce que leurs piétinements disparaissent au loin, et lorsque vous avez la certitude qu'ils sont hors de vue, vous vous relevez, et vous reprenez votre chemin en direction du sud (rendez-vous au 278).</t>
+    <t xml:space="preserve">TODO need random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous arrachez la dague de la porte, et soudain l'arme semble agir de sa propre volonté. Sans que vous puissiez l'en empêcher, votre main plonge l'arme dans votre cuisse. Vous perdez 2 points d'ENDURANCE. Meynaf et Stubb se précipitent alors pour vous aider. Ils saisissent votre poignet et poussent avec effort votre main vers la porte dans le but d'y planter la dague.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:6;CHOICE:236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous passez devant l'entrée du tunnel, sur votre gauche, et vous poursuivez votre chemin dans le tunnel principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme vous vous éloignez, vous entendez le Nain qui vous souhaite toutes les malédictions possibles et imaginables ! Vous perdez 2 points de CHANCE. Vous dépassez la bifurcation, et poursuivez votre chemin le long de l'autre tunnel, les hurlements du Nain toujours présents à vos oreilles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allongé entre les buissons rabougris, vous entendez le bruit fracassant des sabots devenir de plus en plus fort. En écartant quelques branches, vous apercevez quatre CENTAURES en plein galop, chacun portant un arc et un carquois. Vous restez parfaitement immobile jusqu'à ce que leurs piétinements disparaissent au loin, et lorsque vous avez la certitude qu'ils sont hors de vue, vous vous relevez, et vous reprenez votre chemin en direction du sud.</t>
   </si>
   <si>
     <t xml:space="preserve">Devant vous se tient un GUERRIER DE CRYSTAL. Les Guerriers de Crystal forment la garde personnelle de la Sorcière des Neiges. Ils sont faits de quartz, et la Sorcière leur a donné vie grâce à une formule magique. Les armes habituelles sont impuissantes contre ces guerriers. Aussi, il est inutile de tirer votre épée ! En revanche, si vous possédez une masse d'armes, vous pouvez essayer de fracasser votre ennemi. GUERRIER DE CRYSTAL HABILETÉ: 11 ENDURANCE: 13 Si vous ne possédez pas de masse d'armes, rendez-vous au 2. Si vous êtes vainqueur, rendez-vous au 148.</t>
   </si>
   <si>
+    <t xml:space="preserve">COMBAT + Conditions equipement</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Sorcière des Neiges sort du sarcophage, et s'avance vers vous la bouche grande ouverte. Son regard vous pénètre, et une voix intérieure vous ordonne de lâcher votre épée, et de desserrer votre collier. Jetez deux dés. Si le nombre obtenu est égal ou inférieur à votre total d'habileté, rendez-vous au 8. Si ce nombre est supérieur à ce même total, rendez-vous au 116.</t>
   </si>
   <si>
-    <t xml:space="preserve">« Mon nom est Meynaf, vous déclare l'Elfe, alors que vous poursuivez tous trois votre route, et lui c'est Stubb. Nous nous sommes rencontrés ici, alors que nous étions tous deux les esclaves de la Sorcière. Tout ce que nous désirons maintenant, c'est retourner dans nos villages. Je vis dans les collines de la Pierre de Lune, et Stubb habite Pont de Pierre. Si nous parvenons à nous enfuir de ces grottes infernales, venez avec nous, vous serez le bienvenu. Pont de Pierre est sur la route de mon village, dans les collines. C'est un long voyage. » Meynaf est alors interrompu par Stubb qui vous montre du doigt un globe posé à terre. Il est fait de verre, et à la lueur de votre lampe, il semble rayonner de couleurs irisées. « N'y touchez pas ! vous crie Meynaf, nous n'en avons pas besoin, et il peut s'agir d'un piège. » Vous pouvez ne pas prêter attention à l'avis de Meynaf, et vous saisir du globe (rendez-vous au 48). Mais si vous préférez ne pas vous y intéresser, et poursuivre votre chemin, rendez-vous au 166.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Zombie se saisit d'une massue qui était cachée derrière la porte, et se dirige vers vous d'un pas traînant pour vous combattre. ZOMBIE HABILETÉ: 6 ENDURANCE: 6 Si vous êtes vainqueur, rendez-vous au 200. Mais vous pouvez prendre la Fuite après le deuxième Assaut, en revenant en courant jusqu'à l'intersection, et en continuant tout droit dans le tunnel (rendez-vous au 150).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre soif intense vous affaiblit, et vous ôtez 1 point de votre total d'ENDURANCE. Cependant, vous ne prenez pas le risque de boire de cette eau. Rendez-vous au 96.</t>
+    <t xml:space="preserve">2d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« Mon nom est Meynaf, vous déclare l'Elfe, alors que vous poursuivez tous trois votre route, et lui c'est Stubb. Nous nous sommes rencontrés ici, alors que nous étions tous deux les esclaves de la Sorcière. Tout ce que nous désirons maintenant, c'est retourner dans nos villages. Je vis dans les collines de la Pierre de Lune, et Stubb habite Pont de Pierre. Si nous parvenons à nous enfuir de ces grottes infernales, venez avec nous, vous serez le bienvenu. Pont de Pierre est sur la route de mon village, dans les collines. C'est un long voyage. » Meynaf est alors interrompu par Stubb qui vous montre du doigt un globe posé à terre. Il est fait de verre, et à la lueur de votre lampe, il semble rayonner de couleurs irisées. « N'y touchez pas ! vous crie Meynaf, nous n'en avons pas besoin, et il peut s'agir d'un piège. »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48:Ne pas prêter attention à l'avis de Meynaf, et vous saisir du globe.;
+166:Ne pas s’y intéresser, et poursuivre votre chemin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Zombie se saisit d'une massue qui était cachée derrière la porte, et se dirige vers vous d'un pas traînant pour vous combattre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:ZOMBIE,6,6:2,Revenir en courant jusqu'à l'intersection, et continuer tout droit dans le tunnel:;
+;
+CHOICE:200;CHOICE:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre soif intense vous affaiblit, et vous ôtez 1 point de votre total d'ENDURANCE. Cependant, vous ne prenez pas le risque de boire de cette eau.</t>
   </si>
   <si>
     <t xml:space="preserve">L'avalanche vous entraîne vers le bas de la montagne. Votre tête heurte un rocher, et vous sombrez dans l'inconscience ; dans le même temps, la masse de neige s'entasse dans un passage étroit, et vous ensevelit totalement. Les Pics de Glace ont fait une nouvelle victime.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous effleurez tout d'abord la bouteille du bout des doigts, puis vous les portez à votre nez. En fait, ce flacon ne contenait que du parfum. Maintenant vous examinez les trois anneaux, en vous demandant lequel glisser à votre doigt. Allez-vous : Essayer l'anneau d'or? Rendez-vous au 21 Essayer l'anneau d'argent ? Rendez-vous au 159 Essayer l'anneau en cuivre ? Rendez-vous au 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En prenant le bouclier, vous avez libéré la fureur d'un GÉNIE DE L'AIR. Un vent formidable hurle et tourbillonne à travers le tunnel, et vous vous cramponnez avant qu'il n'arrive sur vous. Quelques secondes plus tard, la bourrasque vous enveloppe, et des débris de toutes sortes vous frappent de tous côtés. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 294. Si vous êtes Malchanceux, rendez-vous au 160.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous vous agenouillez au côté du trappeur que vous tournez sur le dos. Ses yeux sont grands ouverts et un filet de sang coule au coin de sa bouche. Le Yéti l'a profondément blessé à la poitrine ; il n'y a aucun espoir de pouvoir le sauver. Il se redresse au prix d'un grand effort, et, vous saisissant par le cou, il approche sa bouche de votre oreille. Dans un murmure rauque, il vous remercie d'être venu à son secours, et il vous confie son secret. Il a passé la plus grande partie de son existence dans les montagnes, chassant les animaux pour vendre leur fourrure. Mais pendant les cinq années écoulées, il a cherché les légendaires Grottes de Crystal. Ces grottes ont été taillées dans le glacier par les créatures de la Sorcière des Neiges, une magicienne d'une grande beauté qui utilise ses pouvoirs maléfiques dans le seul but de plonger le monde dans une nouvelle ère glaciaire, afin de le dominer. L'entrée des grottes se trouve plus haut, dans la montagne ; mais un sortilège la cache. Ce n'est qu'hier que l'infortuné trappeur a découvert cette entrée, tout à fait par hasard : en apercevant un guerrier de la Sorcière des Neiges qui traversait, apparemment, un mur de glace. Se promettant de revenir le lendemain, il a laissé un morceau de fourrure, accroché près de l'entrée. Malheureusement, le Yéti a mis un terme à ses espoirs, et il vous demande de poursuivre la mission qu'il s'était assignée : pénétrer dans les grottes, et détruire la Sorcière. Il ajoute qu'une légende rapporte que d'immenses trésors reposent dans ces lieux glacés. Si vous les découvrez, vous serez riche pour le restant de vos jours. La main du trappeur se crispe alors sur votre cou, puis tout son corps semble se détendre, et il glisse dans la neige, mort. Vous lui creusez une tombe, en vous demandant ce que vous allez faire. Bien sûr, si vous prouvez à Big Jim que vous avez tué le Yéti, il vous donnera 50 Pièces d'Or. Mais votre tempérament d'aventurier a été excité par le récit du trappeur, lit vous décidez de tenter l'aventure dans les Grottes de Crystal des Pics de Glace. Un sourire aux lèvres, vous vous mettez en route vers l'antre de la Sorcière. Rendez-vous au 25.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre deux hurlements, la Gargouille vous prédit votre mort. La décoction du Guérisseur vous permet cependant de résister à la tentation de saisir votre épée pour la réduire au silence, et vous passez devant elle sans dommages (rendez-vous au 19).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Après avoir soigneusement caché les pièces dans une poche secrète, le vieil homme vous prévient de faire attention à deux choses, si vous faites route vers le sud, en direction de Pont de Pierre. Tout d'abord, le point d'eau le plus proche a été empoisonné. Ensuite, la région est infestée de nombreux Trolls des Collines qui se dirigent vers le village. Il vous souhaite bonne chance et, après avoir pris congé de vous, il s'éloigne. Stubb vous presse de vous mettre en route le plus vite possible, car il redoute une attaque des Trolls des Collines sur Pont de Pierre. Rendez- vous au 348.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Elfe des Montagnes éclate de rire, et vous déclare que, quant à lui, il n'a jamais grossi d'un gramme. Et il ajoute que s'il était en son pouvoir de se débarrasser du collier, il s'enfuirait d'ici sans demander son reste. A ces mots, sa voix se perd en sanglots. Et, saisissant le collier à pleines mains, il essaye en vain de l'arracher, de son cou, en demandant d'une voix aiguë le pardon d'un maître invisible. Puis il cesse de hurler, et glisse sur le sol, le visage trempé de larmes. Vous lui demandez s'il se sent bien, mais il ne vous répond pas. Vous perdez 1 point de CHANCE, et vous décidez de poursuivre votre chemin le long du tunnel en le laissant là. Rendez-vous au 241.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'homme se lève du fauteuil, et vous répond « Oui, c'est moi. Que puis-je faire pour vous, étranger ? » Vous racontez au vieil homme toutes les aventures que vous avez vécues dans les grottes de glace, puis vous lui parlez du Sortilège qui vous détruit lentement. « Un Sortilège de Mort ? dit-il en souriant ; on peut le neutraliser sans difficulté. Vous n'avez besoin que d'une infusion de mon mélange d'herbes ; et je peux vous en préparer un bol contre 50 Pièces d'Or. » Vous êtes surpris de voir que le vieil homme pense à échanger votre vie contre de l'or, mais il paraît inflexible sur ce point. Si vous acceptez de lui donner la somme qu'il demande, rendez-vous au 149. Mais si vous préférez essayer d'effrayer le vieil homme, rendez-vous au 390.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous faites semblant d'abandonner le combat, et vous bondissez sur l'Illusionniste au moment où il s'y attend le moins. Il n'est pas sur ses gardes : aussi vous en profitez pour empoigner le prisme que vous projetez à terre où il se brise en mille morceaux. L'Illusionniste fait alors demi-tour, et disparaît dans la bouche du crâne, en poussant des hurlements suraigus. De la fumée se forme alors au-dessus des morceaux du prisme, et peu à peu, elle prend la forme d'un homme gras et chauve. Un Génie ! En se balançant dans l'air, il s'incline devant vous, et vous remercie de l'avoir libéré. Il ajoute que si vous avez besoin de lui, il pourra vous rendre invisible, mais une fois seulement, pour vous prouver sa reconnaissance. Puis, la fumée se met à frémir, et la vision disparaît. Vous devez maintenant décider du chemin à prendre. Allez-vous : Pénétrer dans le tunnel de gauche ? Rendez-vous au 266 Pénétrer dans le tunnel dont l'entrée s'ouvre dans la bouche du crâne ? Rendez-vous au 288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malheureusement pour vous, vous avez tiré la courte paille, et vous perdez 1 point de CHANCE. A peine avez-vous touché la poignée du coffret, qu'elle prend vie, et un ASPIC s'enroule autour de votre main. Avant même que vous ayez pu faire un geste, il enfonce ses crocs empoisonnés dans votre poignet. Vous perdez 4 points d'ENDURANCE, et 1 point d'HABILETÉ et, si vous êtes toujours vivant, vous poursuivez votre chemin en titubant dans le tunnel. Rendez-vous au 20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous soufflez dans la flûte, et une agréable mélodie s'en échappe sans que vous ayez besoin d'essayer d'en jouer. Vous décidez d'emporter l'instrument avec vous, et vous le rangez dans votre Sac à Dos (n'oubliez pas de le noter sur votre Feuille d'Aventure). Si vous ne l'avez pas encore fait, vous pouvez : Déchiffrer les caractères runiques gravés sur le bâton Rendez- vous au 345 Sentir la rose Rendez-vous au 317 Lire le livre Rendez-vous au 356 Mais vous pouvez également décider de quitter la grotte, et tourner à gauche dans le tunnel (rendez-vous au 198).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En pénétrant dans la grotte, vous constatez qu'elle s'enfonce profondément sous le flanc de la colline. Des torches diffusent une lueur étrange qui illumine des bois gravés et des masques accrochés aux murs. Vous faites quelques pas en avant, et vous finissez par distinguer une silhouette revêtue d'une robe, assise par terre et vous tournant le dos. Sans faire le moindre mouvement, ce curieux personnage vous dit : « Je suis le Guérisseur. Si vous êtes venu afin de vous faire soigner, approchez, venez. » Votre cœur bat plus vite alors que vous le contournez pour lui faire face. L'homme qui est devant vous est horriblement défiguré ; son corps est mutilé, mais il se tient fièrement assis, bien que la douleur se lise sur son visage. Vous lui expliquez que vous êtes sous le pouvoir d'un Sortilège de Mort, et que vous êtes venu le voir pour qu'il le neutralise. Le Guérisseur hoche la tête : « Le pouvoir d'un Sortilège de Mort est difficile à détruire. Je n'ai réussi qu'une seule fois à le faire, et non sans mal. Il faut suivre un rituel auquel vous pouvez ne pas survivre. Mais vous devez essayer, et je vous aiderai de mon mieux. Tout d'abord, vous allez recouvrir votre visage d'un Masque de Vie qui arrêtera la progression du mal. Si vous sortez vainqueur de ce premier affrontement entre la Vie et la Mort, nous passerons alors à la seconde étape du processus de neutralisation. » A ces mots, le Guérisseur décroche du mur un masque étrange, qui a été sculpté de façon à représenter le soleil. Vous le placez sur votre visage, et soudain votre corps semble se déchirer. Jetez un dé, et soustrayez le nombre obtenu de votre total d'ENDURANCE. Si vous êtes toujours vivant, rendez-vous au 258.</t>
+    <t xml:space="preserve">Vous effleurez tout d'abord la bouteille du bout des doigts, puis vous les portez à votre nez. En fait, ce flacon ne contenait que du parfum. Maintenant vous examinez les trois anneaux, en vous demandant lequel glisser à votre doigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:Essayer l'anneau d'or?;
+159:Essayer l'anneau d'argent ?;
+130:Essayer l'anneau en cuivre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En prenant le bouclier, vous avez libéré la fureur d'un GÉNIE DE L'AIR. Un vent formidable hurle et tourbillonne à travers le tunnel, et vous vous cramponnez avant qu'il n'arrive sur vous. Quelques secondes plus tard, la bourrasque vous enveloppe, et des débris de toutes sortes vous frappent de tous côtés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:294;CHOICE:160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous vous agenouillez au côté du trappeur que vous tournez sur le dos. Ses yeux sont grands ouverts et un filet de sang coule au coin de sa bouche. Le Yéti l'a profondément blessé à la poitrine ; il n'y a aucun espoir de pouvoir le sauver. Il se redresse au prix d'un grand effort, et, vous saisissant par le cou, il approche sa bouche de votre oreille. Dans un murmure rauque, il vous remercie d'être venu à son secours, et il vous confie son secret. Il a passé la plus grande partie de son existence dans les montagnes, chassant les animaux pour vendre leur fourrure. Mais pendant les cinq années écoulées, il a cherché les légendaires Grottes de Crystal. Ces grottes ont été taillées dans le glacier par les créatures de la Sorcière des Neiges, une magicienne d'une grande beauté qui utilise ses pouvoirs maléfiques dans le seul but de plonger le monde dans une nouvelle ère glaciaire, afin de le dominer. L'entrée des grottes se trouve plus haut, dans la montagne ; mais un sortilège la cache. Ce n'est qu'hier que l'infortuné trappeur a découvert cette entrée, tout à fait par hasard : en apercevant un guerrier de la Sorcière des Neiges qui traversait, apparemment, un mur de glace. Se promettant de revenir le lendemain, il a laissé un morceau de fourrure, accroché près de l'entrée. Malheureusement, le Yéti a mis un terme à ses espoirs, et il vous demande de poursuivre la mission qu'il s'était assignée : pénétrer dans les grottes, et détruire la Sorcière. Il ajoute qu'une légende rapporte que d'immenses trésors reposent dans ces lieux glacés. Si vous les découvrez, vous serez riche pour le restant de vos jours. La main du trappeur se crispe alors sur votre cou, puis tout son corps semble se détendre, et il glisse dans la neige, mort. Vous lui creusez une tombe, en vous demandant ce que vous allez faire. Bien sûr, si vous prouvez à Big Jim que vous avez tué le Yéti, il vous donnera 50 Pièces d'Or. Mais votre tempérament d'aventurier a été excité par le récit du trappeur, lit vous décidez de tenter l'aventure dans les Grottes de Crystal des Pics de Glace. Un sourire aux lèvres, vous vous mettez en route vers l'antre de la Sorcière.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre deux hurlements, la Gargouille vous prédit votre mort. La décoction du Guérisseur vous permet cependant de résister à la tentation de saisir votre épée pour la réduire au silence, et vous passez devant elle sans dommages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après avoir soigneusement caché les pièces dans une poche secrète, le vieil homme vous prévient de faire attention à deux choses, si vous faites route vers le sud, en direction de Pont de Pierre. Tout d'abord, le point d'eau le plus proche a été empoisonné. Ensuite, la région est infestée de nombreux Trolls des Collines qui se dirigent vers le village. Il vous souhaite bonne chance et, après avoir pris congé de vous, il s'éloigne. Stubb vous presse de vous mettre en route le plus vite possible, car il redoute une attaque des Trolls des Collines sur Pont de Pierre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Elfe des Montagnes éclate de rire, et vous déclare que, quant à lui, il n'a jamais grossi d'un gramme. Et il ajoute que s'il était en son pouvoir de se débarrasser du collier, il s'enfuirait d'ici sans demander son reste. A ces mots, sa voix se perd en sanglots. Et, saisissant le collier à pleines mains, il essaye en vain de l'arracher, de son cou, en demandant d'une voix aiguë le pardon d'un maître invisible. Puis il cesse de hurler, et glisse sur le sol, le visage trempé de larmes. Vous lui demandez s'il se sent bien, mais il ne vous répond pas. Vous perdez 1 point de CHANCE, et vous décidez de poursuivre votre chemin le long du tunnel en le laissant là.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Luck:-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'homme se lève du fauteuil, et vous répond « Oui, c'est moi. Que puis-je faire pour vous, étranger ? » Vous racontez au vieil homme toutes les aventures que vous avez vécues dans les grottes de glace, puis vous lui parlez du Sortilège qui vous détruit lentement. « Un Sortilège de Mort ? dit-il en souriant ; on peut le neutraliser sans difficulté. Vous n'avez besoin que d'une infusion de mon mélange d'herbes ; et je peux vous en préparer un bol contre 50 Pièces d'Or. » Vous êtes surpris de voir que le vieil homme pense à échanger votre vie contre de l'or, mais il paraît inflexible sur ce point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149:Acceptez de lui donner la somme qu'il demande.;
+390:Essayer d'effrayer le vieil homme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous faites semblant d'abandonner le combat, et vous bondissez sur l'Illusionniste au moment où il s'y attend le moins. Il n'est pas sur ses gardes : aussi vous en profitez pour empoigner le prisme que vous projetez à terre où il se brise en mille morceaux. L'Illusionniste fait alors demi-tour, et disparaît dans la bouche du crâne, en poussant des hurlements suraigus. De la fumée se forme alors au-dessus des morceaux du prisme, et peu à peu, elle prend la forme d'un homme gras et chauve. Un Génie ! En se balançant dans l'air, il s'incline devant vous, et vous remercie de l'avoir libéré. Il ajoute que si vous avez besoin de lui, il pourra vous rendre invisible, mais une fois seulement, pour vous prouver sa reconnaissance. Puis, la fumée se met à frémir, et la vision disparaît. Vous devez maintenant décider du chemin à prendre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266:Pénétrer dans le tunnel de gauche ?;
+288:Pénétrer dans le tunnel dont l'entrée s'ouvre dans la bouche du crâne ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malheureusement pour vous, vous avez tiré la courte paille, et vous perdez 1 point de CHANCE. A peine avez-vous touché la poignée du coffret, qu'elle prend vie, et un ASPIC s'enroule autour de votre main. Avant même que vous ayez pu faire un geste, il enfonce ses crocs empoisonnés dans votre poignet. Vous perdez 4 points d'ENDURANCE, et 1 point d'HABILETÉ et, si vous êtes toujours vivant, vous poursuivez votre chemin en titubant dans le tunnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Luck:-1;
+ADD:Hero.Current.Ability:-1;
+ADD:Hero.Current.Strenght:-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous soufflez dans la flûte, et une agréable mélodie s'en échappe sans que vous ayez besoin d'essayer d'en jouer. Vous décidez d'emporter l'instrument avec vous, et vous le rangez dans votre Sac à Dos.
+Si vous ne l'avez pas encore fait, vous pouvez : Déchiffrer les caractères runiques gravés sur le bâton Rendez- vous au 345 Sentir la rose Rendez-vous au 317 Lire le livre Rendez-vous au 356 Mais vous pouvez également décider de quitter la grotte, et tourner à gauche dans le tunnel (rendez-vous au 198).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equip &amp; ifnotalreadydidit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En pénétrant dans la grotte, vous constatez qu'elle s'enfonce profondément sous le flanc de la colline. Des torches diffusent une lueur étrange qui illumine des bois gravés et des masques accrochés aux murs. Vous faites quelques pas en avant, et vous finissez par distinguer une silhouette revêtue d'une robe, assise par terre et vous tournant le dos. Sans faire le moindre mouvement, ce curieux personnage vous dit : « Je suis le Guérisseur. Si vous êtes venu afin de vous faire soigner, approchez, venez. » Votre cœur bat plus vite alors que vous le contournez pour lui faire face. L'homme qui est devant vous est horriblement défiguré ; son corps est mutilé, mais il se tient fièrement assis, bien que la douleur se lise sur son visage. Vous lui expliquez que vous êtes sous le pouvoir d'un Sortilège de Mort, et que vous êtes venu le voir pour qu'il le neutralise. Le Guérisseur hoche la tête : « Le pouvoir d'un Sortilège de Mort est difficile à détruire. Je n'ai réussi qu'une seule fois à le faire, et non sans mal. Il faut suivre un rituel auquel vous pouvez ne pas survivre. Mais vous devez essayer, et je vous aiderai de mon mieux. Tout d'abord, vous allez recouvrir votre visage d'un Masque de Vie qui arrêtera la progression du mal. Si vous sortez vainqueur de ce premier affrontement entre la Vie et la Mort, nous passerons alors à la seconde étape du processus de neutralisation. » A ces mots, le Guérisseur décroche du mur un masque étrange, qui a été sculpté de façon à représenter le soleil. Vous le placez sur votre visage, et soudain votre corps semble se déchirer. Jetez un dé, et soustrayez le nombre obtenu de votre total d'ENDURANCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random</t>
   </si>
   <si>
     <t xml:space="preserve">En constatant la mort de leur chef, les Centaures battent en retraite. Vous empêchez Meynaf et Stubb de se lancer à leur poursuite. Si vous n'avez pas de bouclier, vous pouvez prendre celui qui se trouve sur le sol, près du cadavre du Centaure (notez cette trouvaille sur votre Feuille d'Aventure), et vous ajoutez 1 point à votre total d'HABILETÉ. Si vous désirez maintenant vous coiffer du casque du Centaure, rendez-vous au 362. Mais si vous préférez vous remettre immédiatement en route vers Pont de Pierre, rendez-vous au 278.</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Possédez-vous une lance ? Si oui, rendez-vous au 391. Mais si vous n'en n'avez pas, rendez-vous au 378.</t>
   </si>
   <si>
     <t xml:space="preserve">Alors que vous vous trouvez à mi-chemin, la panique vous gagne, et la planche commence à se balancer d'un côté et de l'autre. Tout à coup, vous perdez l'équilibre, et vous plongez tête la première dans le puits. Après une longue chute, vous vous fracassez sur le sol. Votre mort est immédiate, et votre aventure se termine ici.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'eau paraît sans danger, mais l'idée d'être trempé et d'avoir froid ne vous réjouit pas. Cependant, vous n'avez pas le choix, et vous devez vous engager sous l'averse. Après avoir parcouru quelques mètres, vous remarquez tout à coup que vos vêtements commencent à fumer, comme s'ils se consumaient. Vous vous mettez à courir car vous réalisez soudain que ce n'est pas de l'eau qui tombe, mais de l'acide ; un piège imaginé sans aucun doute par la diabolique Sorcière des Neiges, pour empêcher ses serviteurs et ses esclaves de s'enfuir. La douleur provoquée par l'acide qui attaque votre peau vous fait pousser des hurlements, et vous perdez 4 points d'endurance. Si vous êtes toujours vivant, rendez* vous au 383.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Ménestrel semble étonné de vous voir vous intéresser à sa musique. Il cesse de jouer, et vous dit : « Vous devez être nouveau par ici, car, à l'exception de notre Sorcière bien aimée, la racaille qui végète en ces lieux se soucie peu de ma musique. Les idiots ! S'ils pouvaient seulement comprendre ce que ma musique est capable de leur apporter... Étranger, je peux chanter une chanson qui vous guérira de toutes vos blessures. Écoutez attentivement, et faites attention. » Ensuite, vous pourrez raconter à ces espèces de larves ce qui vous est arrivé ; et peut-être nous respecteront-ils un peu plus, moi et ma musique. » Le Ménestrel commence alors à jouer une douce mélodie, et vous constatez avec étonnement que l'une de vos blessures disparaît. Ajoutez 4 points à votre total d'ENDURANCE. « Revenez me voir un jour pour un autre traitement », vous dit le Ménestrel apparemment très satisfait de lui. Vous le remerciez, et vous quittez la grotte (rendez-vous au 111).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous plongez sous la saillie du rocher, alors que la masse énorme de la neige allait vous balayer. Vous vous pressez contre le mur de glace de votre abri, en attendant que l'avalanche soit passée. Puis, avec un soupir de soulagement, vous repartez à la recherche des Grottes de Crystal. Rendez-vous au 363.</t>
+    <t xml:space="preserve">L'eau paraît sans danger, mais l'idée d'être trempé et d'avoir froid ne vous réjouit pas. Cependant, vous n'avez pas le choix, et vous devez vous engager sous l'averse. Après avoir parcouru quelques mètres, vous remarquez tout à coup que vos vêtements commencent à fumer, comme s'ils se consumaient. Vous vous mettez à courir car vous réalisez soudain que ce n'est pas de l'eau qui tombe, mais de l'acide ; un piège imaginé sans aucun doute par la diabolique Sorcière des Neiges, pour empêcher ses serviteurs et ses esclaves de s'enfuir. La douleur provoquée par l'acide qui attaque votre peau vous fait pousser des hurlements, et vous perdez 4 points d'endurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Strenght:-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Ménestrel semble étonné de vous voir vous intéresser à sa musique. Il cesse de jouer, et vous dit : « Vous devez être nouveau par ici, car, à l'exception de notre Sorcière bien aimée, la racaille qui végète en ces lieux se soucie peu de ma musique. Les idiots ! S'ils pouvaient seulement comprendre ce que ma musique est capable de leur apporter... Étranger, je peux chanter une chanson qui vous guérira de toutes vos blessures. Écoutez attentivement, et faites attention. » Ensuite, vous pourrez raconter à ces espèces de larves ce qui vous est arrivé ; et peut-être nous respecteront-ils un peu plus, moi et ma musique. » Le Ménestrel commence alors à jouer une douce mélodie, et vous constatez avec étonnement que l'une de vos blessures disparaît. Ajoutez 4 points à votre total d'ENDURANCE. « Revenez me voir un jour pour un autre traitement », vous dit le Ménestrel apparemment très satisfait de lui. Vous le remerciez, et vous quittez la grotte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Strenght:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous plongez sous la saillie du rocher, alors que la masse énorme de la neige allait vous balayer. Vous vous pressez contre le mur de glace de votre abri, en attendant que l'avalanche soit passée. Puis, avec un soupir de soulagement, vous repartez à la recherche des Grottes de Crystal.</t>
   </si>
   <si>
     <t xml:space="preserve">Vous arrivez tant bien que mal à garder la tête hors de l'eau, mais il vous est impossible de nager jusqu'à la rive. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 201. Si vous êtes Malchanceux, rendez-vous au 280.</t>
   </si>
   <si>
-    <t xml:space="preserve">Un homme apparaît à la porte. Sa peau desséchée est couleur de cendre, et son regard sans vie ne peut être que celui de l'un de ces êtres sans volonté, un ZOMBIE. Vous pouvez décider de le combattre en vous rendant au 62. Mais si vous voulez revenir en courant jusqu'à l'intersection, puis continuer tout droit dans le tunnel, rendez-vous au 150.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La décharge d'énergie vous frappe en pleine poitrine. Si votre total d'ENDURANCE est égal ou inférieur à 10, rendez-vous au 44. Si ce même total est supérieur à 10, rendez-vous au 51.</t>
+    <t xml:space="preserve">Un homme apparaît à la porte. Sa peau desséchée est couleur de cendre, et son regard sans vie ne peut être que celui de l'un de ces êtres sans volonté, un ZOMBIE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62:Le combattre.;
+150:Revenir en courant jusqu'à l'intersection, puis continuer tout droit dans le tunnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La décharge d'énergie vous frappe en pleine poitrine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF:Hero.Current.Strenght&lt;=10;CHOICE:44;CHOICE:51</t>
   </si>
   <si>
     <t xml:space="preserve">Vous êtes hors d'haleine lorsque vous atteignez le sommet de la colline. Vous perdez 1 point d'ENDURANCE. Vous êtes si épuisé que vous ne prêtez aucune attention à ce qui vous entoure, et c'est seulement en entendant Raym hurler que vous comprenez qu'un FAUCON DE LA MORT fond sur vous pour vous attaquer. Raym décoche une flèche contre l'oiseau. Le total d'HABILETÉ de Raym est de 9. Jetez deux dés. Si le nombre obtenu est égal ou inférieur au total d'HABILETÉ de votre compagnon, rendez-vous au 175. Si ce nombre est supérieur à ce même total, rendez-vous au 238.</t>
   </si>
   <si>
-    <t xml:space="preserve">Les Gobelins laissent tomber la corde et vous regardent du haut du puits en riant du piège dans lequel vous vouliez les prendre. Votre situation est maintenant pire que jamais : prisonnier au fond d'un puits de glace, sans même avoir votre épée avec vous ! Vous perdez 2 points de CHANCE. En soupirant, vous appelez les Gobelins, et vous leur demandez d'attraper la corde que vous lancez vers eux. Ils la saisissent et la tiennent fermement pendant que vous vous hissez hors du puits. Ils sont vêtus de fourrure, et vous remarquez qu'ils portent un collier autour du cou. Sans vous ménager, ils vous poussent dans le tunnel, et vous font presser le pas en vous piquant de la pointe de leurs dagues. Vous comprenez alors que si vous ne trouvez pas le moyen de vous enfuir, vous êtes perdu. Si vous voulez les combattre à mains nues, rendez-vous au 39. Mais si vous préférez essayer de leur fausser compagnie en vous mettant à courir, rendez-vous au 102.</t>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Gobelins laissent tomber la corde et vous regardent du haut du puits en riant du piège dans lequel vous vouliez les prendre. Votre situation est maintenant pire que jamais : prisonnier au fond d'un puits de glace, sans même avoir votre épée avec vous ! Vous perdez 2 points de CHANCE. En soupirant, vous appelez les Gobelins, et vous leur demandez d'attraper la corde que vous lancez vers eux. Ils la saisissent et la tiennent fermement pendant que vous vous hissez hors du puits. Ils sont vêtus de fourrure, et vous remarquez qu'ils portent un collier autour du cou. Sans vous ménager, ils vous poussent dans le tunnel, et vous font presser le pas en vous piquant de la pointe de leurs dagues. Vous comprenez alors que si vous ne trouvez pas le moyen de vous enfuir, vous êtes perdu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39:Les combattre à mains nues.;
+102:Essayer de leur fausser compagnie en vous mettant à courir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Luck:-2;</t>
   </si>
   <si>
     <t xml:space="preserve">Dès que vous avez mis les pieds sur les empreintes de pas noires, vous éprouvez une sensation bizarre. Votre corps se met à vibrer, et vous vous sentez les jambes si faibles que vous pensez être sur le point de perdre connaissance. Vous vous forcez cependant, à marcher plus vite, et lorsque vous avez dépassé la dernière empreinte, vous avez l'impression que votre corps s'est vidé de toute son énergie. Vous perdez 1 point d'HABILETÉ, et 3 points d'ENDURANCE. En maudissant ces grottes du diable, vous continuez votre chemin le long du tunnel. Rendez-vous au 207.</t>
@@ -782,7 +919,7 @@
     <t xml:space="preserve">Vous dérapez sur quelques rochers, mais vous finissez par atteindre la rive opposée sain et sauf. Rendez-vous au 50.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans un grondement sourd, des monceaux de neige dévalent la pente de la montagne. Mais, par chance, l'avalanche suit un chemin parallèle au vôtre. Rendez-vous au 363.</t>
+    <t xml:space="preserve">Dans un grondement sourd, des monceaux de neige dévalent la pente de la montagne. Mais, par chance, l'avalanche suit un chemin parallèle au vôtre.</t>
   </si>
   <si>
     <t xml:space="preserve">L'un des Trolls tient encore dans sa main une épée magnifique. Avec peine, vous desserrez ses doigts et vous saisissez l'arme dont le fil est si aiguisé que vous pouvez trancher sans le moindre effort une branche d'un arbre qui se trouve à proximité. Vous ajoutez 1 point à votre total d'HABILETÉ. Meynaf vous presse alors pour que vous repreniez votre route. Car, peut-être d'autres Trolls se trouvent-ils dans le voisinage. Rendez-vous au 38.</t>
@@ -824,7 +961,7 @@
     <t xml:space="preserve">La porte s'ouvre sur un nouveau tunnel, et vous vous demandez avec inquiétude si vous n'êtes pas condamné à errer à tout jamais dans ce maudit labyrinthe. Avec lassitude, vous vous tournez vers Meynaf et Stubb, mais ils n'ont pas l'air préoccupé. Le tunnel débouche bientôt sur une autre porte et vous remarquez une dague qui est plantée dans un de ses panneaux de chêne. Si vous voulez vous saisir de cette dague, rendez-vous au 55. Mais si vous préférez essayez d'ouvrir la porte, rendez-vous au 285.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous arrachez la dague de votre bras, et vous vous enfuyez à toutes jambes dans le tunnel (rendez-vous au 137).</t>
+    <t xml:space="preserve">Vous arrachez la dague de votre bras, et vous vous enfuyez à toutes jambes dans le tunnel.</t>
   </si>
   <si>
     <t xml:space="preserve">Vous vous écroulez sur le sol, et votre tête heurte un rocher. Si vous portez un casque, rendez-vous au 324. Mais si vous n'en portez pas, rendez-vous au 129.</t>
@@ -890,7 +1027,7 @@
     <t xml:space="preserve">Soudain, vous entendez des chants provenant d'un endroit certainement peu éloigné de celui où vous vous trouvez. Avec précaution, vous continuez à marcher le long du tunnel qui finit par déboucher sur une immense caverne. Là, agenouillés devant une idole à la forme de démon, et le visage pressé contre le sol de glace, se trouvent une dizaine de serviteurs de la Sorcière des Neiges. La caverne possède deux issues : l'une sur votre gauche, et l'autre sur votre droite. Si vous portez un manteau, rendez- vous au 384. Si vous n'en portez pas, rendez-vous au 260.</t>
   </si>
   <si>
-    <t xml:space="preserve">Après l'épreuve que vient de vous faire subir le Loup Garou, il vous est impossible de retrouver le sommeil, et c'est avec plaisir que vous prenez votre tour de garde. Le reste de la nuit s'écoule sans histoire, et le matin venu, vous reprenez votre voyage vers Pont de Pierre (rendez-vous au 13).</t>
+    <t xml:space="preserve">Après l'épreuve que vient de vous faire subir le Loup Garou, il vous est impossible de retrouver le sommeil, et c'est avec plaisir que vous prenez votre tour de garde. Le reste de la nuit s'écoule sans histoire, et le matin venu, vous reprenez votre voyage vers Pont de Pierre.</t>
   </si>
   <si>
     <t xml:space="preserve">Le Zombie avait certainement la charge de garder la réserve à provisions dans laquelle vous pénétrez. Des pots et des bouteilles de formes et de tailles diverses sont alignés contre les murs, alors que des caisses et des barriques sont empilées çà et là sur le sol. Vous examinez rapidement l'ensemble qui ne présente que peu d'intérêt, à l'exception cependant d'un pot de poudre de sabot de Minotaure, de gousses d'ail, d'une boîte pleine de dents, d'un bocal contenant des queues de lézards marinant dans du vinaigre, et de quatre gros œufs de Dragon. Comme votre Sac à Dos est déjà bien encombré, vous ne pouvez emporter que trois de ces trouvailles. Choisissez-les soigneusement, et n'oubliez pas de les noter sur votre Feuille d'Aventure. Puis vous quittez la pièce, et vous revenez jusqu'à l'intersection où vous continuez tout droit (rendez-vous au 150).</t>
@@ -899,7 +1036,7 @@
     <t xml:space="preserve">Vous apercevez une branche pendante que vous saisissez vivement d'une main. Si vous possédez un bouclier, vous ne pouvez pas faire autrement que de le laisser tomber dans la rivière, (vous perdez dans ce cas 1 point d'HABILETÉ), car vous avez besoin de vos deux mains pour vous tirer d'affaire. En faisant appel à toute la force qui vous reste, vous parvenez à mettre pied sur la rive sud. Mais vous êtes complètement épuisé. Vous perdez 2 points d'ENDURANCE. En maudissant la Sorcière des Neiges, vous repartez vers l'est, revenant sur vos pas vers l'endroit où brûlait le feu (rendez-vous au 50).</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous passez à côté des corps des Loups et vous poursuivez votre route dans la neige tourbillonnante. L'escalade devient plus ardue, et votre progression est lente. Rendez-vous au 337.</t>
+    <t xml:space="preserve">Vous passez à côté des corps des Loups et vous poursuivez votre route dans la neige tourbillonnante. L'escalade devient plus ardue, et votre progression est lente.</t>
   </si>
   <si>
     <t xml:space="preserve">Stubb tire la courte paille et éclate d'un rire joyeux. Il enlève ses vieilles bottes, et enfile sans plus attendre les bottes magiques d'Elfe. Puis il se met à faire des bonds, et à chaque fois il retombe silencieusement sur le sol. Impatient de marcher ainsi chaussé, il se remet en route dans le tunnel, Meynaf et vous-même sur ses talons (rendez-vous au 20).</t>
@@ -929,7 +1066,12 @@
     <t xml:space="preserve">Stubb éprouve un tel désir de se venger qu'il se débarrasse en un instant des deux Trolls des Collines. Puis, sans perdre un instant, il va prêter main forte à Meynaf, et bientôt il ne reste plus un seul Troll en vie. Sans prendre le temps de fouiller vos ennemis, vous pénétrez dans le village où Stubb est accueilli en héros par ses amis. Cependant, malgré les cris de joie, vous découvrez vite que le visage des Nains est empreint de désespoir. En effet, bien que sachant que les Trolls des Collines vont les attaquer d'un moment à l'autre, les Nains ont perdu toute volonté de se battre depuis que leur fabuleux marteau de guerre a été volé au roi Gilli-bran. Stubb est atterré de les retrouver ainsi, et il vous entraîne vers l'auberge dans l'espoir d'y trouver son ami Grosmollet. Grosmollet est en effet assis à une table, et il vous raconte qu'un aigle s'est emparé du marteau et l'a laissé tomber dans la Forêt des Ténèbres. « Allons ! dit Stubb avec une grande fermeté, nous devons le retrouver. Grosmollet, nous partons immédiatement ! » Il se lève alors, puis il vous tend la main, en vous disant : « Mes amis, je suis désolé. Mais je ne peux plus vous offrir l'hospitalité maintenant. J'espère que vous comprenez ». Et, en compagnie de Grosmollet, Stubb sort de l'auberge. Jamais plus vous ne reverrez votre joyeux compagnon. Meynaf soupire, et vous suggère de partir sur l'heure pour les Collines des Pierres de Lune. Il ajoute qu'il a quelque chose de très important à vous dire, et qu'il est sans doute préférable que Stubb ne soit pas là pour écouter. Intrigué par l'air mystérieux de Meynaf, vous le suivez hors du village, et vous poursuivez votre route le long de la Rivière Rouge dans la direction de l'est. Tout en restant aux aguets pour ne pas être surpris par une patrouille de Trolls des Collines, vous ne pouvez vous empêcher de penser à ce que Meynaf vient de vous dire. Soudain, votre compagnon s'arrête. Et sans prononcer un mot, il vous montre trois Trolls des Collines qui, à moitié cachés par les arbres, aiguisent leurs armes contre une pierre. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 218. Si vous êtes Malchanceux, rendez-vous au 296.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le vent commence à se lever, vous projetant des paquets de neige au visage. Vous baissez la tête en avançant encore plus lentement. Un autre bruit se fait entendre alors entre les rafales de vent : le hurlement des loups ! Vous tirez votre épée, en essayant de distinguer quelque chose dans les tourbillons de neige. Comme s'ils venaient de nulle part, deux LOUPS DES NEIGES surgissent alors en face de vous. Ils sont totalement blancs, à l'exception de leurs yeux qui sont rouge sang. Soudain, l'un d'eux bondit sur vous. Vous les combattez chacun à son tour. HABILETÉ ENDURANCE Premier LOUP DES NEIGES 7 8 Deuxième LOUP DES NEIGES 7 7 Si vous êtes vainqueur, rendez-vous au 202.</t>
+    <t xml:space="preserve">Le vent commence à se lever, vous projetant des paquets de neige au visage. Vous baissez la tête en avançant encore plus lentement. Un autre bruit se fait entendre alors entre les rafales de vent : le hurlement des loups ! Vous tirez votre épée, en essayant de distinguer quelque chose dans les tourbillons de neige. Comme s'ils venaient de nulle part, deux LOUPS DES NEIGES surgissent alors en face de vous. Ils sont totalement blancs, à l'exception de leurs yeux qui sont rouge sang. Soudain, l'un d'eux bondit sur vous. Vous les combattez chacun à son tour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:Premier LOUP DES NEIGES,7,8,Deuxième LOUP DES NEIGES,7,7:-1:SUCCESSIVE;
+;
+CHOICE:202;</t>
   </si>
   <si>
     <t xml:space="preserve">Vous reprenez connaissance, et vous apercevez Stubb et Meynaf qui gisent, inanimés, non loin de vous. Vous essayez de vous asseoir, mais en gémissant, tant la douleur qui vous martèle le crâne est intolérable. Bientôt vos deux compagnons ouvrent les yeux, et, de toute évidence, ils souffrent autant que vous. Ils vous disent que le Suceur de Cerveaux les a attirés dans la grotte sans qu'il leur soit possible de résister. Vous examinez alors la pièce, et vous apercevez dans le mur opposé une autre porte. Il y a également deux pots d'argile, dans une petite niche du mur, l'un rouge et l'autre gris. Allez-vous : Essayer d'ouvrir la porte ? Rendez-vous au 176 Regardez à l'intérieur du pot rouge ? Rendez-vous au 101 Regarder à l'intérieur du pot gris ? Rendez-vous au 344</t>
@@ -950,7 +1092,12 @@
     <t xml:space="preserve">Les Trolls des Collines ne vous aperçoivent pas, et vous passez près d'eux sans vous faire remarquer, rendez-vous au 38.</t>
   </si>
   <si>
-    <t xml:space="preserve">La lance s'élève, et va se planter dans la poitrine velue du Yéti. Vous saisissez rapidement votre épée pour achever le monstre qui écume de fureur. YÉTI HABILETÉ: 10 ENDURANCE: 9 Si vous êtes vainqueur, rendez-vous au 67.</t>
+    <t xml:space="preserve">La lance s'élève, et va se planter dans la poitrine velue du Yéti. Vous saisissez rapidement votre épée pour achever le monstre qui écume de fureur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:YÉTI,10,9:-1:;
+;
+CHOICE:67;</t>
   </si>
   <si>
     <t xml:space="preserve">Vous marchez avec précaution entre les empreintes, vous attendant à tout moment à un événement funeste. Mais rien ne se produit cependant, jusqu'à ce qu'un éternuement bruyant de Stubb vous fasse sursauter. Jetez un dé. Si vous faites 1 ou 2, rendez-vous au 94. Si vous faites 3 ou 4, rendez-vous au 326. Si vous faites 5 ou 6, rendez-vous au 107.</t>
@@ -968,10 +1115,15 @@
     <t xml:space="preserve">A peine avez-vous commencé à lire, que les mots commencent à s'effacer. Jetez deux dés. Si le nombre que vous obtenez est égal ou inférieur à votre total d'HABILETÉ, rendez-vous au 147. Si ce nombre est supérieur à ce même total, rendez-vous au 396.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le blizzard vous a causé de sérieuses meurtrissures. La main qui vous sert à manier l'épée est gelée, et vous devrez maintenant vous servir de votre autre main lorsque vous combattrez. Vous perdez 3 points d'HABILETÉ, et 4 points d'ENDURANCE. Si vous êtes toujours vivant, rendez-vous au 174.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La dague et le fouet manquent leur but, et vous continuez à courir dans le tunnel (rendez-vous au 137).</t>
+    <t xml:space="preserve">Le blizzard vous a causé de sérieuses meurtrissures. La main qui vous sert à manier l'épée est gelée, et vous devrez maintenant vous servir de votre autre main lorsque vous combattrez.
+Vous perdez 3 points d'HABILETÉ, et 4 points d'ENDURANCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Ability:-3;
+ADD:Hero.Current.Strenght:-4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La dague et le fouet manquent leur but, et vous continuez à courir dans le tunnel.</t>
   </si>
   <si>
     <t xml:space="preserve">L'Elfe Noir est un archer remarquable. La flèche vous frappe en pleine épaule, et vous laissez échapper un cri de douleur. Vous perdez 2 points d'ENDURANCE. Stubb s'empare alors des avirons et continue à ramer vers la rive opposée. Mais vous êtes toujours à portée de l'Elfe Noir et vous le voyez saisir une nouvelle flèche qu'il décoche sur vous. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 32. Si vous êtes Malchanceux, rendez- vous au 239.</t>
@@ -1136,16 +1288,22 @@
     <t xml:space="preserve">Vous apercevez une branche pendante au-dessus de l'eau, mais vous ne parvenez pas à la saisir, et vous êtes emporté par le courant dans lequel vous vous débattez. Par chance, vous dérivez vers un bras mort, et vous pouvez reprendre votre souffle. Si vous aviez un bouclier, vous l'avez perdu dans la rivière (vous ôtez alors 1 point de votre total d'HABILETÉ). Vous avez avalé des quantités d'eau, et vous êtes complètement épuisé. Il ne vous reste que la force nécessaire pour vous hisser sur la berge sud du cours d'eau. Vous perdez 4 points d'ENDURANCE. Si vous êtes toujours vivant, vous reprenez votre route vers l'est, revenant sur vos pas vers l'endroit ou brûlait le feu, en maudissant votre malchance. Rendez-vous au 50.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous taillez en toute hâte des blocs de glace grossiers, et vous vous construisez un igloo dans lequel vous vous abritez. Dehors, le blizzard redouble de violence, mais les murs de glace vous protègent, et retiennent votre chaleur. Néanmoins, vous devez manger deux portions de vos provisions pour reprendre vos forces après la marche épuisante que vous venez d'accomplir, et à cause de l'énergie que vous avez dépensée en bâtissant l'igloo (vous n'ajoutez donc aucun point à votre total d'endurance). Une heure plus tard, le blizzard tombe, et vous pouvez sortir de votre abri pour poursuivre votre route (rendez-vous au 169).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La bille de fer siffle vers son but, et frappe le globe. Une décharge d'énergie en fuse alors, et vole dans votre direction. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 193. Si vous êtes Malchanceux, rendez-vous au 84.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous retenez votre respiration, et vous passez furtivement derrière l'idole en vous dirigeant vers le tunnel opposé. Rendez- vous au 370.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre chute est brève, et vous atterrissez sur une petite corniche recouverte d'une herbe épaisse. Vous reprenez votre ascension, et vous finissez par atteindre le sommet de la montagne, qui est couvert d'une étrange végétation rougeâtre. Épuisé par le long effort que vous venez de fournir, vous vous asseyez pour vous reposer en attendant le lever du soleil (rendez-vous au 217).</t>
+    <t xml:space="preserve">Vous taillez en toute hâte des blocs de glace grossiers, et vous vous construisez un igloo dans lequel vous vous abritez. Dehors, le blizzard redouble de violence, mais les murs de glace vous protègent, et retiennent votre chaleur. Néanmoins, vous devez manger deux portions de vos provisions pour reprendre vos forces après la marche épuisante que vous venez d'accomplir, et à cause de l'énergie que vous avez dépensée en bâtissant l'igloo (vous n'ajoutez donc aucun point à votre total d'endurance). Une heure plus tard, le blizzard tombe, et vous pouvez sortir de votre abri pour poursuivre votre route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.food:-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La bille de fer siffle vers son but, et frappe le globe. Une décharge d'énergie en fuse alors, et vole dans votre direction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:193;CHOICE:84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous retenez votre respiration, et vous passez furtivement derrière l'idole en vous dirigeant vers le tunnel opposé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre chute est brève, et vous atterrissez sur une petite corniche recouverte d'une herbe épaisse. Vous reprenez votre ascension, et vous finissez par atteindre le sommet de la montagne, qui est couvert d'une étrange végétation rougeâtre. Épuisé par le long effort que vous venez de fournir, vous vous asseyez pour vous reposer en attendant le lever du soleil.</t>
   </si>
   <si>
     <t xml:space="preserve">La porte s'ouvre sur un nouveau tunnel qui se perd au loin. Meynaf ronchonne, disant qu'il est fatigué et affamé. Aussi décidez-vous de vous asseoir, et de vous reposer un peu. Si vous avez encore trois Portions de vos Provisions, vous les partagez entre vous. Au bout d'une demi-heure, vous reprenez votre marche, et finalement vous parvenez à une intersection. Allez- vous prendre le tunnel de droite (rendez-vous au 135), ou le tunnel de gauche (rendez-vous au 298) ?</t>
@@ -1224,8 +1382,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alors que vous longez le bord de la crevasse, le vent commence à souffler avec violence, vous projetant des paquets de neige au visage. La tête enfoncée dans les épaules, vous poursuivez péniblement votre marche, quand soudain, une forme sombre semble jaillir de la tourmente. Face à vous, ses redoutables défenses recourbées, pointées dans votre direction, se tient un gigantesque MAMMOUTH. En poussant un énorme barrissement, il s'avance d'un pas pesant, et vous allez devoir le combattre.
-MAMMOUTH HABILETÉ: 10 ENDURANCE: 11
-Si vous êtes vainqueur, rendez-vous au 47.</t>
+MAMMOUTH HABILETÉ: 10 ENDURANCE: 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:MAMMOUTH,10,11:-1:;
+;
+CHOICE:47;</t>
   </si>
   <si>
     <t xml:space="preserve">Le tunnel se termine bientôt au bord d'un puits, hors duquel un Nain essaye vainement de sortir : à chacune de ses tentatives, il glisse, et se retrouve inéluctablement au fond du puits encombré de blocs de glace provenant très certainement d'une espèce de cheminée creusée juste au-dessus de lui. Un bloc de glace surgit alors de cette cheminée et tombe sur l'épaule du nain. Vous entendez des hurlements de joie venant d'en haut. En vous apercevant, le Nain crie : « Sois maudit, étranger, si tu ne me viens pas en aide. Car je vois que tu ne portes pas le Collier. » Si vous voulez aidez le Nain à sortir du puits, rendez-vous au 376. Mais si vous préférez ne pas lui prêter attention, et revenir à la bifurcation, rendez-vous au 57.</t>
@@ -1307,13 +1469,20 @@
     <t xml:space="preserve">L'homme vous déclare qu'il est un herboriste, et qu'il vient tout juste d'arriver dans cette cabane. Avec méfiance, vous lui demandez s'il a entendu parler d'un homme connu sous le nom du Guérisseur. Il se caresse le menton en vous observant, et finit par vous répondre en secouant la tête : « Non, je ne peux vraiment pas dire que j'en ai entendu parler. » Vous décidez alors de quitter les lieux. Vous y avez déjà perdu trop de temps. Vous ôtez 1 point à votre total d'ENDURANCE, et après avoir redescendu le chemin, vous reprenez votre route le long de la rivière (rendez-vous au 205).</t>
   </si>
   <si>
-    <t xml:space="preserve">Le pont de neige est très étroit, et de plus, très glissant. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 41. Si vous êtes Malchanceux, rendez-vous au 389.</t>
+    <t xml:space="preserve">Le pont de neige est très étroit, et de plus, très glissant. Tentez votre Chance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:41;CHOICE:389</t>
   </si>
   <si>
     <t xml:space="preserve">Vous vous mettez à quatre pattes, et vous constatez que le Globe de la Sorcière des Neiges est fêlé ; mais la Sorcière, quant à elle, semble n'avoir subi aucun dommage ! Elle vous regarde avec attention, guettant vos moindres mouvements. Rendez-vous au 262.</t>
   </si>
   <si>
-    <t xml:space="preserve">La neige tombe maintenant à flocons serrés, et le blizzard se lève. Vous pouvez essayer de vous bâtir un abri à l'aide de votre épée (rendez-vous au 281). Mais si vous préférez ne pas perdre de temps, rendez-vous au 229.</t>
+    <t xml:space="preserve">La neige tombe maintenant à flocons serrés, et le blizzard se lève.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281:Essayer de vous bâtir un abri à l'aide de votre épée.;
+229:Ne pas perdre de temps.</t>
   </si>
   <si>
     <t xml:space="preserve">Le tunnel vous mène bientôt à un croisement. Mais vous n'avez pas le temps d'examiner les tunnels de gauche et de droite, car un humanoïde à l'aspect étrange se dirige lentement vers vous, venant du tunnel qui vous fait face. Rendez-vous au 59.</t>
@@ -1612,7 +1781,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1643,6 +1812,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1897,22 +2070,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B338" activeCellId="0" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="128.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,18 +2357,18 @@
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>41</v>
@@ -2208,25 +2381,25 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="n">
@@ -2247,11 +2420,11 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -2260,10 +2433,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2273,11 +2446,11 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -2286,10 +2459,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2299,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2312,10 +2485,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2325,11 +2498,11 @@
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -2338,7 +2511,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>41</v>
@@ -2346,28 +2519,28 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2377,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="n">
@@ -2390,10 +2563,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2403,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="n">
@@ -2416,33 +2589,33 @@
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="n">
@@ -2455,7 +2628,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="n">
@@ -2468,7 +2641,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="n">
@@ -2481,11 +2654,11 @@
         <v>30</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E43" s="5"/>
     </row>
@@ -2493,21 +2666,19 @@
       <c r="A44" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="n">
@@ -2520,38 +2691,38 @@
         <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,609 +2730,701 @@
         <v>36</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="75.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="E50" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5" t="n">
-        <v>244</v>
-      </c>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+      <c r="B56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
-        <v>44</v>
-      </c>
       <c r="B57" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="D57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="n">
+      <c r="B59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="n">
         <v>338</v>
       </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+      <c r="B60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="n">
+      <c r="B61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="n">
         <v>337</v>
       </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
-        <v>49</v>
-      </c>
       <c r="B62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="87.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="5" t="n">
+        <v>336</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="n">
-        <v>54</v>
-      </c>
       <c r="B67" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5" t="n">
+        <v>395</v>
+      </c>
       <c r="E70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5" t="n">
+        <v>125</v>
+      </c>
       <c r="E71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5" t="n">
+        <v>278</v>
+      </c>
       <c r="E72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <v>63</v>
-      </c>
       <c r="B76" s="5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="D77" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="E79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="E81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="E82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5" t="n">
+        <v>348</v>
+      </c>
       <c r="E83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
+      <c r="B85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+      <c r="B86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
+      <c r="B87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" s="5"/>
+      <c r="B88" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>258</v>
+      </c>
       <c r="E89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="D93" s="5" t="n">
+        <v>383</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="D94" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="5" t="n">
+        <v>363</v>
+      </c>
       <c r="E95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="E97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <v>87</v>
-      </c>
       <c r="B100" s="5" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="D100" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3169,10 +3432,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3180,10 +3443,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3191,10 +3454,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3202,10 +3465,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3213,10 +3476,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3224,10 +3487,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3235,10 +3498,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3246,10 +3509,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3257,10 +3520,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3268,10 +3531,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3279,10 +3542,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3290,10 +3553,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3301,10 +3564,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3312,10 +3575,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3323,10 +3586,10 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3334,10 +3597,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3345,10 +3608,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3356,10 +3619,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3367,10 +3630,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3378,10 +3641,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3389,10 +3652,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3400,10 +3663,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3411,10 +3674,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3422,10 +3685,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3433,10 +3696,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3444,10 +3707,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3455,10 +3718,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3466,10 +3729,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3477,10 +3740,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3488,10 +3751,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3499,10 +3762,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3510,10 +3773,10 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3521,10 +3784,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3532,10 +3795,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -3543,10 +3806,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3554,10 +3817,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3565,10 +3828,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3576,10 +3839,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3587,10 +3850,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3598,10 +3861,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3609,10 +3872,10 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -3620,10 +3883,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3631,10 +3894,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -3642,10 +3905,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -3653,10 +3916,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -3664,10 +3927,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3675,10 +3938,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -3686,10 +3949,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3697,10 +3960,10 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3708,10 +3971,10 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3719,10 +3982,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3730,10 +3993,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3741,10 +4004,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -3752,10 +4015,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -3763,10 +4026,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3774,10 +4037,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3785,10 +4048,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -3796,10 +4059,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -3807,10 +4070,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3818,10 +4081,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3829,10 +4092,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3840,10 +4103,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3851,10 +4114,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -3862,10 +4125,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3873,10 +4136,10 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3884,10 +4147,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3895,10 +4158,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3906,10 +4169,10 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -3917,10 +4180,10 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3928,10 +4191,10 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -3939,10 +4202,10 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -3950,10 +4213,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3961,10 +4224,10 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -3972,10 +4235,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -3983,10 +4246,10 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -3994,21 +4257,23 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="n">
+        <v>363</v>
+      </c>
       <c r="E177" s="5"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -4016,10 +4281,10 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -4027,10 +4292,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -4038,10 +4303,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -4049,10 +4314,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -4060,10 +4325,10 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -4071,10 +4336,10 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -4082,10 +4347,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -4093,10 +4358,10 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -4104,10 +4369,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -4115,10 +4380,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -4126,10 +4391,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -4137,10 +4402,10 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -4148,21 +4413,23 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="5" t="n">
+        <v>137</v>
+      </c>
       <c r="E191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -4170,10 +4437,10 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -4181,10 +4448,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -4192,10 +4459,10 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -4203,10 +4470,10 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -4214,10 +4481,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -4225,10 +4492,10 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -4236,10 +4503,10 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -4247,10 +4514,10 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -4258,10 +4525,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -4269,10 +4536,10 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -4280,10 +4547,10 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -4291,10 +4558,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -4302,10 +4569,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -4313,10 +4580,10 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -4324,10 +4591,10 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -4335,10 +4602,10 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -4346,10 +4613,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4357,10 +4624,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -4368,10 +4635,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -4379,10 +4646,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -4390,21 +4657,23 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="E213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -4412,10 +4681,10 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -4423,21 +4692,23 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+      <c r="D216" s="5" t="n">
+        <v>337</v>
+      </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -4445,10 +4716,10 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -4456,10 +4727,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -4467,10 +4738,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -4478,10 +4749,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -4489,10 +4760,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -4500,10 +4771,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -4511,10 +4782,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -4522,32 +4793,34 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="62.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
+      <c r="E226" s="6" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -4555,10 +4828,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -4566,10 +4839,10 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -4577,21 +4850,23 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C230" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -4599,32 +4874,34 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
+      <c r="E233" s="6" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -4632,10 +4909,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -4643,10 +4920,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -4654,10 +4931,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -4665,43 +4942,49 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
-        <v>226</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>281</v>
+        <v>225</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="D239" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
+      <c r="D240" s="5" t="n">
+        <v>137</v>
+      </c>
       <c r="E240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -4709,10 +4992,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -4720,10 +5003,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -4731,10 +5014,10 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -4742,10 +5025,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -4753,10 +5036,10 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -4764,10 +5047,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -4775,10 +5058,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -4786,10 +5069,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -4797,10 +5080,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -4808,10 +5091,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -4819,10 +5102,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -4830,10 +5113,10 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -4841,10 +5124,10 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -4852,10 +5135,10 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -4863,10 +5146,10 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -4874,10 +5157,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -4885,10 +5168,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -4896,10 +5179,10 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -4907,10 +5190,10 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
@@ -4918,10 +5201,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -4929,10 +5212,10 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
@@ -4940,10 +5223,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
@@ -4951,10 +5234,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
@@ -4962,10 +5245,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
@@ -4973,10 +5256,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -4984,10 +5267,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -4995,10 +5278,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
@@ -5006,10 +5289,10 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
@@ -5017,10 +5300,10 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
@@ -5028,10 +5311,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
@@ -5039,10 +5322,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -5050,10 +5333,10 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
@@ -5061,10 +5344,10 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -5072,10 +5355,10 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
@@ -5083,10 +5366,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
@@ -5094,10 +5377,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
@@ -5105,10 +5388,10 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -5116,10 +5399,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -5127,10 +5410,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -5138,10 +5421,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -5149,10 +5432,10 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -5160,10 +5443,10 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -5171,10 +5454,10 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -5182,10 +5465,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -5193,10 +5476,10 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -5204,10 +5487,10 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
@@ -5215,10 +5498,10 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
@@ -5226,10 +5509,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
@@ -5237,10 +5520,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -5248,10 +5531,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -5259,10 +5542,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -5270,10 +5553,10 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
@@ -5281,10 +5564,10 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -5292,54 +5575,64 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
+      <c r="D295" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
+      <c r="E296" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
+      <c r="D297" s="5" t="n">
+        <v>370</v>
+      </c>
       <c r="E297" s="5"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
+      <c r="D298" s="5" t="n">
+        <v>217</v>
+      </c>
       <c r="E298" s="5"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -5347,10 +5640,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
@@ -5358,10 +5651,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
@@ -5369,10 +5662,10 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
@@ -5380,10 +5673,10 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
@@ -5391,10 +5684,10 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -5402,10 +5695,10 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
@@ -5413,10 +5706,10 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
@@ -5424,10 +5717,10 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -5435,10 +5728,10 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
@@ -5446,10 +5739,10 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
@@ -5457,10 +5750,10 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
@@ -5468,10 +5761,10 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -5479,10 +5772,10 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
@@ -5490,10 +5783,10 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
@@ -5501,10 +5794,10 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
@@ -5512,10 +5805,10 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
@@ -5523,10 +5816,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -5534,10 +5827,10 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -5545,10 +5838,10 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -5556,10 +5849,10 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
@@ -5567,10 +5860,10 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -5578,10 +5871,10 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -5589,67 +5882,67 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
-        <v>310</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="62.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
-        <v>311</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>366</v>
+        <v>310</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
+      <c r="E324" s="6" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
-        <v>313</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>368</v>
+        <v>312</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
-        <v>314</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>369</v>
+        <v>313</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
@@ -5657,10 +5950,10 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
@@ -5668,10 +5961,10 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -5679,10 +5972,10 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
@@ -5690,10 +5983,10 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -5701,10 +5994,10 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
@@ -5712,10 +6005,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
@@ -5723,10 +6016,10 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
@@ -5734,10 +6027,10 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
@@ -5745,10 +6038,10 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
@@ -5756,10 +6049,10 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
@@ -5767,10 +6060,10 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -5778,10 +6071,10 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
@@ -5789,10 +6082,10 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -5800,10 +6093,10 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
@@ -5811,10 +6104,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
@@ -5822,10 +6115,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -5833,10 +6126,10 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
@@ -5844,10 +6137,10 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
@@ -5855,10 +6148,10 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
@@ -5866,10 +6159,10 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
@@ -5877,56 +6170,57 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C349" s="5"/>
+        <v>432</v>
+      </c>
       <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="E349" s="5" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
+      <c r="D351" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="E351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
@@ -5934,10 +6228,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -5945,10 +6239,10 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
@@ -5956,10 +6250,10 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
@@ -5967,10 +6261,10 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -5978,10 +6272,10 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -5989,10 +6283,10 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -6000,10 +6294,10 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
@@ -6011,10 +6305,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
@@ -6022,10 +6316,10 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
@@ -6033,10 +6327,10 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
@@ -6044,10 +6338,10 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
@@ -6055,10 +6349,10 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
@@ -6066,10 +6360,10 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
@@ -6077,10 +6371,10 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
@@ -6088,10 +6382,10 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
@@ -6099,10 +6393,10 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
@@ -6110,10 +6404,10 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
@@ -6121,10 +6415,10 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
@@ -6132,10 +6426,10 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
@@ -6143,10 +6437,10 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
@@ -6154,10 +6448,10 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
@@ -6165,10 +6459,10 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
@@ -6176,10 +6470,10 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
@@ -6187,10 +6481,10 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
@@ -6198,10 +6492,10 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
@@ -6209,10 +6503,10 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -6220,10 +6514,10 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
@@ -6231,10 +6525,10 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
@@ -6242,10 +6536,10 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
@@ -6253,10 +6547,10 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
@@ -6264,10 +6558,10 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -6275,10 +6569,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
@@ -6286,10 +6580,10 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
@@ -6297,10 +6591,10 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
@@ -6308,10 +6602,10 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
@@ -6319,10 +6613,10 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
@@ -6330,10 +6624,10 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
@@ -6341,10 +6635,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
@@ -6352,10 +6646,10 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
@@ -6363,10 +6657,10 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
@@ -6374,10 +6668,10 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
@@ -6385,10 +6679,10 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -6396,10 +6690,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
@@ -6407,10 +6701,10 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
@@ -6418,10 +6712,10 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -6429,10 +6723,10 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
@@ -6440,10 +6734,10 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
@@ -6451,10 +6745,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
@@ -6462,10 +6756,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
@@ -6473,10 +6767,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
@@ -6484,10 +6778,10 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
@@ -6495,10 +6789,10 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
@@ -6506,10 +6800,10 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
@@ -6517,10 +6811,10 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
@@ -6528,10 +6822,10 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
@@ -6539,10 +6833,10 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -6550,10 +6844,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -6561,10 +6855,10 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -6572,10 +6866,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
@@ -6583,10 +6877,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
@@ -6594,14 +6888,25 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Ressources/LaSorciereDesNeiges/Story.xlsx
+++ b/Ressources/LaSorciereDesNeiges/Story.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="RefNotes" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="556">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -238,10 +239,12 @@
     <t xml:space="preserve">TEXTONLY</t>
   </si>
   <si>
-    <t xml:space="preserve">Si vous avez délivré le Génie du prisme, vous pouvez maintenant faire appel à lui (rendez-vous au 14). Mais si vous ne l'avez pas délivré, vous ne pouvez rien faire pour vous protéger des coups violents que vous assène le Guerrier de Crystal, et votre aventure se termine ici.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO conditions</t>
+    <t xml:space="preserve">Si vous avez délivré le Génie du prisme, vous pouvez maintenant faire appel à lui. Mais si vous ne l'avez pas délivré, vous ne pouvez rien faire pour vous protéger des coups violents que vous assène le Guerrier de Crystal, et votre aventure se termine ici.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINS:W.Flags:DelDjinn;
+CHOICE:14:Faire appel genie du prisme;
+GAME_OVER</t>
   </si>
   <si>
     <t xml:space="preserve">Par une chance incroyable, vous êtes épargnés par la chute des lourds blocs de glace. Bientôt l'avalanche cesse, et vous êtes heureusement surpris d'apercevoir le ciel bleu au-dessus de vos têtes. Vite, vous escaladez tous les trois une paroi de la caverne, et vous vous retrouvez sur le flanc de la montagne. La neige a cessé de tomber, et tout semble calme autour de vous. Alors que vous vous éloignez du lieu maudit, vous parlez de Big Jim à vos amis, et vous les mettez au courant des événements qui vous ont poussé à pénétrer dans les cavernes de la Sorcière des Neiges. Vous pensez alors que Big Jim doit vous croire mort, mais vous jugez que cela ne vaut plus la peine de vous mettre à sa recherche, pour toucher la récompense que vous avez gagnée en tuant le Yéti. Vous décidez donc d'accompagner Meynaf et Stubb à Pont de Pierre.</t>
@@ -250,10 +253,10 @@
     <t xml:space="preserve">Le bâton s'enfonce dans le cœur de la Sorcière des Neiges, qui pousse un hurlement qui vous fait frissonner. Son corps commence alors à se décomposer, et bientôt il n'est plus qu'un petit tas de poussière qui se disperse sur le sol. A l'extrémité de la chambre, il vous semble apercevoir une forme floue dans le mur de glace, et vous décidez d'aller voir de quoi il s'agit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Instinctivement, vous saisissez la poignée de votre épée, mais vous vous souvenez soudain des conseils de prudence que vous a donnés le Guérisseur. Jetez deux dés : si le nombre que vous obtenez est égal ou inférieur à votre total d'HABILETÉ, rendez- vous au 68. Si ce nombre est supérieur à ce même total, rendez- vous au 185.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO skillTest</t>
+    <t xml:space="preserve">Instinctivement, vous saisissez la poignée de votre épée, mais vous vous souvenez soudain des conseils de prudence que vous a donnés le Guérisseur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF:[2d6]&lt;=Hero.Current.Ability;CHOICE:68;CHOICE:185</t>
   </si>
   <si>
     <t xml:space="preserve">En vous aidant autant qu'ils le peuvent, vos amis essayent de pousser votre main contre la porte. La pointe de la dague pénètre dans le bois, et bientôt vous pouvez en lâcher le manche. En poussant un soupir de soulagement, vous ouvrez la porte.</t>
@@ -265,7 +268,12 @@
     <t xml:space="preserve">IF:Hero.Current.Ability&gt;10;CHOICE:4;CHOICE:380</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous reprenez rapidement vos esprits, et vous vous souvenez qu'un Vampire ne peut être tué que si on lui enfonce un pieu dans le cœur. Si vous possédez un bâton gravé de caractères runiques, rendez-vous au 7. Sinon, rendez-vous au 121.</t>
+    <t xml:space="preserve">Vous reprenez rapidement vos esprits, et vous vous souvenez qu'un Vampire ne peut être tué que si on lui enfonce un pieu dans le cœur. Si vous possédez un bâton gravé de caractères runiques, vous pouvez l’utiliser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINS:Hero.Equipment:Baton Gravé;
+CHOICE:7:Utiliser le bâton gravé de caractères runiques.;
+CHOICE:121</t>
   </si>
   <si>
     <t xml:space="preserve">Avec un bruit sourd, la flèche se plante dans le flanc de la barque. Vous ramez aussi vite que vous le pouvez vers la rive opposée, mais vous êtes encore à portée des flèches de l'Elfe Noir, et vous le voyez qui bande son arc de nouveau.</t>
@@ -290,10 +298,12 @@
 338:Vous diriger vers le prochain tunnel.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vers le milieu de la matinée, Stubb fait preuve d'une grande fébrilité à la pensée que, bientôt, il sera de retour chez lui. Mais une autre pensée assombrit aussitôt son visage : celle de Chardo, le Troll des Collines qu'il ne verra plus jamais. Une heure plus tard, vous apercevez des colonnes de fumée qui montent vers le ciel. « C'est Pont de Pierre », hurle Stubb. Et il commence à courir dans leur direction, mais s'arrête net à la vue de six TROLLS DES COLLINES qui se dirigent vers son village. En poussant le cri de guerre des Nains, il brandit sa hache, et se précipite sur eux. Vous ne pouvez laisser Stubb se mesurer, seul, à ces six ennemis, et vous courez à ses côtés. Deux Trolls des Collines se tournent alors vers vous, et vous allez devoir les combattre. HABILETÉ ENDURANCE Premier TROLL DES COLLINES 9 10 Deuxième TROLL DES COLLINES 9 9 Vous les combattez tous les deux en même temps. A chaque Assaut, ils vous attaqueront l'un après l'autre, et vous devrez choisir lequel des deux vous combattrez en premier. Vous vous battez alors avec lui à la manière habituelle. Contre l'autre Troll, vous calculez votre Force d'Attaque : mais si votre Force d'Attaque est plus grande que la sienne, vous ne l'aurez pas blessé pour autant. Vous aurez simplement évité le coup qu'il vous aura porté. En revanche, si sa Force d'Attaque est supérieure à la vôtre, c'est lui qui vous aura blessé. Lorsque vous aurez tué votre premier adversaire, vous combattrez le second comme dans un combat normal. Si vous êtes vainqueur, rendez- vous au 211.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO Combat</t>
+    <t xml:space="preserve">Vers le milieu de la matinée, Stubb fait preuve d'une grande fébrilité à la pensée que, bientôt, il sera de retour chez lui. Mais une autre pensée assombrit aussitôt son visage : celle de Chardo, le Troll des Collines qu'il ne verra plus jamais. Une heure plus tard, vous apercevez des colonnes de fumée qui montent vers le ciel. « C'est Pont de Pierre », hurle Stubb. Et il commence à courir dans leur direction, mais s'arrête net à la vue de six TROLLS DES COLLINES qui se dirigent vers son village. En poussant le cri de guerre des Nains, il brandit sa hache, et se précipite sur eux. Vous ne pouvez laisser Stubb se mesurer, seul, à ces six ennemis, et vous courez à ses côtés. Deux Trolls des Collines se tournent alors vers vous, et vous allez devoir les combattre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:Premier TROLL DES COLLINES,9,10,Deuxième TROLL DES COLLINES,9,9:-1:TOGETHER;
+;
+CHOICE:211;</t>
   </si>
   <si>
     <t xml:space="preserve">Le Génie apparaît, glissant dans les airs au-dessus du Guerrier de Crystal. Il claque des doigts, et aussitôt, vous devenez invisible. Le Géant de Crystal lance ses poings de quartz dans toutes les directions, mais vous pouvez lui échapper sans difficulté, et vous êtes à bonne distance lorsque l'effet de la magie disparaît. Un peu plus loin, vous arrivez à une intersection.</t>
@@ -303,16 +313,24 @@
 368:Prendre à droite.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Sorcière des Neiges vous fixe pendant un long moment, puis elle dit « rond ». Vous souriez en ouvrant votre poing dans lequel vous cachiez le disque carré. Vous vous êtes joué d'elle, et elle comprend ce que cela va lui coûter. Une fumée blanche envahit le globe qui brusquement vole en éclats ; et l'image de la Sorcière disparaît. Son hurlement aigu résonne dans la grotte, mais elle est vaincue. Vous vous jetez alors dans les bras de vos deux compagnons, et vous vous laissez aller à votre joie. Mais cette joie est de courte durée, car vous entendez soudain un grondement de mauvais augure. Le sol se met à trembler sous vos pieds, et de larges fissures apparaissent dans les murs de glace de la grotte alors que son plafond commence à s'effondrer. Est-ce là la promesse de vous laisser partir que vous avait faite la Sorcière ? Tentez votre Chance. Si vous êtes Chanceux, rendez- vous au 3. Si vous êtes Malchanceux, rendez-vous au 358.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous visez soigneusement, et vous lancez la dague vers le bouton. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 120. Si vous êtes Malchanceux, rendez-vous au 153.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alors que vous tirez votre épée, l'Elfe des Montagnes pousse un cri de guerre et, après s'être débarrassé de son manteau, il se saisit de son épée. ELFE DES MONTAGNES HABILETÉ: 6 ENDURANCE: 6 Dès que vous aurez réduit le total d'endurance de l'Elfe des Montagnes à 2 points, rendez-vous au 305.</t>
+    <t xml:space="preserve">La Sorcière des Neiges vous fixe pendant un long moment, puis elle dit « rond ». Vous souriez en ouvrant votre poing dans lequel vous cachiez le disque carré. Vous vous êtes joué d'elle, et elle comprend ce que cela va lui coûter. Une fumée blanche envahit le globe qui brusquement vole en éclats ; et l'image de la Sorcière disparaît. Son hurlement aigu résonne dans la grotte, mais elle est vaincue. Vous vous jetez alors dans les bras de vos deux compagnons, et vous vous laissez aller à votre joie. Mais cette joie est de courte durée, car vous entendez soudain un grondement de mauvais augure. Le sol se met à trembler sous vos pieds, et de larges fissures apparaissent dans les murs de glace de la grotte alors que son plafond commence à s'effondrer. Est-ce là la promesse de vous laisser partir que vous avait faite la Sorcière ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:3;CHOICE:358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous visez soigneusement, et vous lancez la dague vers le bouton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:120;CHOICE:153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alors que vous tirez votre épée, l'Elfe des Montagnes pousse un cri de guerre et, après s'être débarrassé de son manteau, il se saisit de son épée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:ELFE DES MONTAGNES,6,4:-1:;
+;
+CHOICE:305</t>
   </si>
   <si>
     <t xml:space="preserve">Voyant leur compagnon mort, les autres Hommes-Oiseaux qui vous entouraient s'éloignent à tire-d'aile, en direction de l'est. Craignant qu'ils ne reviennent avec des renforts, vous décidez de traverser la plaine en courant. Le soleil est maintenant haut dans le ciel, et vous transpirez abondamment. Bientôt, vous avez la gorge sèche, la soif vous torture, et vous vous maudissez de ne pas avoir emporté une gourde d'eau avec vous. Enfin, vous finissez par atteindre un point d'eau, mais vous poussez un juron en découvrant le corps d'un ogre flottant à sa surface.</t>
@@ -322,7 +340,10 @@
 63:Vous préférez ne pas prendre ce risque.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le Guérisseur est derrière vous, et vous presse afin que vous traversiez la grotte le plus rapidement possible. Vous marchez en silence, et vous finissez par apercevoir un rayon de soleil qui pénètre par une fissure, au fond de la grotte. Cette fissure est suffisamment large pour que vous puissiez vous y glisser. « Qu'allons nous faire maintenant ? » demandez-vous au Guérisseur. Avec calme, il vous répond : « Je vous ai conduit aussi loin que je le pouvais. Maintenant, vous seul devez mener votre épreuve à son terme. Sans quitter votre masque, vous devez atteindre le sommet de la Montagne de Feu avant l'aube, afin de voir le soleil se lever. Vous devrez vous asseoir les jambes croisées, en faisant face à l'est, et vous serez complètement guéri lorsque les premiers rayons du soleil éclaireront l'horizon. Si vous avez un objet en argent, nous pouvons attirer un CHEVAL VOLANT ici ; il vous mènera alors au sommet de la Montagne ». Si vous possédez un objet en argent, rendez-vous au 328. Si vous n'en possédez pas, rendez-vous au 206.</t>
+    <t xml:space="preserve">Le Guérisseur est derrière vous, et vous presse afin que vous traversiez la grotte le plus rapidement possible. Vous marchez en silence, et vous finissez par apercevoir un rayon de soleil qui pénètre par une fissure, au fond de la grotte. Cette fissure est suffisamment large pour que vous puissiez vous y glisser. « Qu'allons nous faire maintenant ? » demandez-vous au Guérisseur. Avec calme, il vous répond : « Je vous ai conduit aussi loin que je le pouvais. Maintenant, vous seul devez mener votre épreuve à son terme. Sans quitter votre masque, vous devez atteindre le sommet de la Montagne de Feu avant l'aube, afin de voir le soleil se lever. Vous devrez vous asseoir les jambes croisées, en faisant face à l'est, et vous serez complètement guéri lorsque les premiers rayons du soleil éclaireront l'horizon. Si vous avez un objet en argent, nous pouvons attirer un CHEVAL VOLANT ici ; il vous mènera alors au sommet de la Montagne ».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINS:Hero.Equipment:Objet en Argent; CHOICE:328:Donner Objet en Argent; CHOICE:206</t>
   </si>
   <si>
     <t xml:space="preserve">Le tunnel aboutit bientôt à une intersection, et alors que vous allez vous y engager, vous vous heurtez presque à une espèce de primate revêtu de fourrure, et tenant dans sa main une massue de pierre. Vous saisissez votre épée et, après avoir ordonné à Meynaf et à Stubb de disparaître rapidement dans le tunnel de droite, vous vous préparez à combattre un HOMME DES CAVERNES.</t>
@@ -431,6 +452,9 @@
     <t xml:space="preserve">Bien qu'il fasse assez froid, vous commencez à transpirer, et vous êtes sujet à des étourdissements. Vous jetez un coup d'œil vers Meynaf qui ne semble pas, lui non plus, en très grande forme. Son visage est livide, et ses yeux sont profondément enfoncés dans leurs orbites. « Asseyons-nous » murmure Meynaf d'une voix étouffée. Vous vous arrêtez bien volontiers, et vous vous laissez glisser sur l'herbe, vraiment inquiet, cette fois, car votre cœur bat à tout rompre dans votre poitrine. Meynaf se tourne alors vers vous : « Lorsque nous étions dans la montagne, après avoir parcouru nombre de tunnels et de grottes, nous sommes arrivés devant une porte sur laquelle était fixé un morceau de parchemin. Vous vous en souvenez, n'est-ce-pas ? Vous ne pouviez comprendre ce qui était écrit sur le parchemin, et vous m'avez demandé de vous le lire. C'était un Sortilège de Mort. Et nous sommes à présent tous deux en grand danger. Le Sortilège a commencé d'agir plus tôt que je ne l'avais prévu, et il nous faut trouver le plus vite possible le vieil homme des collines, celui que l'on nomme le Guérisseur. Lui seul peut nous sauver, maintenant. Mais j'ai bien peur qu'il ne soit trop tard. Mes jambes sont si faibles qu'il est peu probable qu'elles puissent encore me porter. » Si vous avez bu la Potion de Santé qui appartenait à l'Elfe Noir, rendez-vous au 30. Sinon, rendez-vous au 367.</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO conditions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vous lancez avec force votre jambe sur le côté, et vous atteignez le Gobelin le plus proche en plein estomac. Il se plie en deux sous la douleur, et vous en profitez pour lui donner un violent coup de poing sous le menton, ce qui l'expédie à terre totalement inconscient. L'autre Gobelin s'approche alors de vous avec méfiance, et essaye de vous porter un coup de sa dague.</t>
   </si>
   <si>
@@ -471,7 +495,7 @@
 119:Poursuivre votre route le long de la rivière.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADD:Hero.Current.Strenght:-1;</t>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:-1;</t>
   </si>
   <si>
     <t xml:space="preserve">Vous atteignez l'extrémité de la crevasse après une demi-heure d'une marche épuisante. Vous pouvez maintenant poursuivre votre escalade. Mais la pente raide ainsi que la neige tourbillonnante ralentissent votre progression.</t>
@@ -501,7 +525,7 @@
   </si>
   <si>
     <t xml:space="preserve">ADD:Hero.Current.Ability:-1;
-ADD:Hero.Current.Strenght:-4;</t>
+ADD:Hero.Current.Stamina:-4;</t>
   </si>
   <si>
     <t xml:space="preserve">Une vieille légende affirmant que seule la poudre de sabot de minotaure peut arrêter les effets d'une Formule de Métamorphose, vous revient à l'esprit. Vous en jetez rapidement quelques pincées sur la créature dont le volume a maintenant plus que doublé, et vous poussez un soupir de soulagement en la voyant reprendre peu à peu sa forme de rat blanc. La légende était donc vraie ! Mais ce sarcophage ouvert vous intrigue, et vous vous dirigez vers lui pour l'examiner.</t>
@@ -616,7 +640,7 @@
   <si>
     <t xml:space="preserve">ADD:Hero.Current.Luck:-1;
 ADD:Hero.Current.Ability:-1;
-ADD:Hero.Current.Strenght:-4</t>
+ADD:Hero.Current.Stamina:-4</t>
   </si>
   <si>
     <t xml:space="preserve">Vous soufflez dans la flûte, et une agréable mélodie s'en échappe sans que vous ayez besoin d'essayer d'en jouer. Vous décidez d'emporter l'instrument avec vous, et vous le rangez dans votre Sac à Dos.
@@ -647,13 +671,13 @@
     <t xml:space="preserve">L'eau paraît sans danger, mais l'idée d'être trempé et d'avoir froid ne vous réjouit pas. Cependant, vous n'avez pas le choix, et vous devez vous engager sous l'averse. Après avoir parcouru quelques mètres, vous remarquez tout à coup que vos vêtements commencent à fumer, comme s'ils se consumaient. Vous vous mettez à courir car vous réalisez soudain que ce n'est pas de l'eau qui tombe, mais de l'acide ; un piège imaginé sans aucun doute par la diabolique Sorcière des Neiges, pour empêcher ses serviteurs et ses esclaves de s'enfuir. La douleur provoquée par l'acide qui attaque votre peau vous fait pousser des hurlements, et vous perdez 4 points d'endurance.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADD:Hero.Current.Strenght:-4</t>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:-4</t>
   </si>
   <si>
     <t xml:space="preserve">Le Ménestrel semble étonné de vous voir vous intéresser à sa musique. Il cesse de jouer, et vous dit : « Vous devez être nouveau par ici, car, à l'exception de notre Sorcière bien aimée, la racaille qui végète en ces lieux se soucie peu de ma musique. Les idiots ! S'ils pouvaient seulement comprendre ce que ma musique est capable de leur apporter... Étranger, je peux chanter une chanson qui vous guérira de toutes vos blessures. Écoutez attentivement, et faites attention. » Ensuite, vous pourrez raconter à ces espèces de larves ce qui vous est arrivé ; et peut-être nous respecteront-ils un peu plus, moi et ma musique. » Le Ménestrel commence alors à jouer une douce mélodie, et vous constatez avec étonnement que l'une de vos blessures disparaît. Ajoutez 4 points à votre total d'ENDURANCE. « Revenez me voir un jour pour un autre traitement », vous dit le Ménestrel apparemment très satisfait de lui. Vous le remerciez, et vous quittez la grotte.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADD:Hero.Current.Strenght:4</t>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:4</t>
   </si>
   <si>
     <t xml:space="preserve">Vous plongez sous la saillie du rocher, alors que la masse énorme de la neige allait vous balayer. Vous vous pressez contre le mur de glace de votre abri, en attendant que l'avalanche soit passée. Puis, avec un soupir de soulagement, vous repartez à la recherche des Grottes de Crystal.</t>
@@ -672,7 +696,7 @@
     <t xml:space="preserve">La décharge d'énergie vous frappe en pleine poitrine.</t>
   </si>
   <si>
-    <t xml:space="preserve">IF:Hero.Current.Strenght&lt;=10;CHOICE:44;CHOICE:51</t>
+    <t xml:space="preserve">IF:Hero.Current.Stamina&lt;=10;CHOICE:44;CHOICE:51</t>
   </si>
   <si>
     <t xml:space="preserve">Vous êtes hors d'haleine lorsque vous atteignez le sommet de la colline. Vous perdez 1 point d'ENDURANCE. Vous êtes si épuisé que vous ne prêtez aucune attention à ce qui vous entoure, et c'est seulement en entendant Raym hurler que vous comprenez qu'un FAUCON DE LA MORT fond sur vous pour vous attaquer. Raym décoche une flèche contre l'oiseau. Le total d'HABILETÉ de Raym est de 9. Jetez deux dés. Si le nombre obtenu est égal ou inférieur au total d'HABILETÉ de votre compagnon, rendez-vous au 175. Si ce nombre est supérieur à ce même total, rendez-vous au 238.</t>
@@ -691,91 +715,175 @@
     <t xml:space="preserve">ADD:Hero.Current.Luck:-2;</t>
   </si>
   <si>
-    <t xml:space="preserve">Dès que vous avez mis les pieds sur les empreintes de pas noires, vous éprouvez une sensation bizarre. Votre corps se met à vibrer, et vous vous sentez les jambes si faibles que vous pensez être sur le point de perdre connaissance. Vous vous forcez cependant, à marcher plus vite, et lorsque vous avez dépassé la dernière empreinte, vous avez l'impression que votre corps s'est vidé de toute son énergie. Vous perdez 1 point d'HABILETÉ, et 3 points d'ENDURANCE. En maudissant ces grottes du diable, vous continuez votre chemin le long du tunnel. Rendez-vous au 207.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le tunnel se poursuit sur une certaine distance, avant de déboucher dans une grotte circulaire. A l'opposé de l'endroit où vous vous trouvez est située l'entrée d'un nouveau tunnel. Votre attention est soudain attirée par un étrange spectacle. Sur le sol se trouvent deux petites mares d'où s'échappe une légère vapeur. De l'une des mares émerge la poignée d'une épée, alors que de l'autre dépasse la hampe d'une lance. Le corps gelé d'un Orque est appuyé contre un mur, et son bras rigide est dirigé vers l'épée. Comme vous vous approchez des flaques d'eau, vous apercevez quatre vers gravés dans le sol de glace : Épée ou lance, Force ou terreur. Là est la différence : Être vaincu ? Être vainqueur ? Vous vous arrêtez, et vous répétez les quatre vers à plusieurs reprises, en vous demandant ce qu'ils peuvent signifier. Allez- vous : Tirer l'épée de la mare ? Rendez-vous au 237 Saisir la hampe de la lance ? Rendez-vous au 250 Traverser la grotte, et pénétrer dans le tunnel ? Rendez-vous au 221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 331. Si vous êtes Malchanceux, rendez-vous au 103.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meynaf et Stubb sont sortis indemnes de l'avalanche de glace, et ils vous aident à vous remettre sur vos pieds. Vous êtes surpris d'apercevoir le ciel bleu au-dessus de vous ; vite, vous escaladez tous les trois une paroi de la grotte et vous vous retrouvez au flanc de la montagne. La neige a cessé de tomber, et tout semble calme autour de vous. Alors que vous vous éloignez du lieu maudit, vous parlez de Big Jim à vos amis, et vous les mettez au courant des événements qui vous ont poussé à pénétrer dans les grottes de la Sorcière des Neiges. Vous pensez alors que Big Jim doit vous croire mort, mais vous jugez que cela ne vaut plus la peine de vous mettre à sa recherche pour toucher la récompense que vous avez gagnée en tuant le Yéti. Vous décidez donc d'accompagner Meynaf et Stubb à Pont de Pierre (rendez-vous au 104).</t>
+    <t xml:space="preserve">Dès que vous avez mis les pieds sur les empreintes de pas noires, vous éprouvez une sensation bizarre. Votre corps se met à vibrer, et vous vous sentez les jambes si faibles que vous pensez être sur le point de perdre connaissance. Vous vous forcez cependant, à marcher plus vite, et lorsque vous avez dépassé la dernière empreinte, vous avez l'impression que votre corps s'est vidé de toute son énergie. Vous perdez 1 point d'HABILETÉ, et 3 points d'ENDURANCE. En maudissant ces grottes du diable, vous continuez votre chemin le long du tunnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Ability:-1;
+ADD:Hero.Current.Stamina:-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le tunnel se poursuit sur une certaine distance, avant de déboucher dans une grotte circulaire. A l'opposé de l'endroit où vous vous trouvez est située l'entrée d'un nouveau tunnel. Votre attention est soudain attirée par un étrange spectacle. Sur le sol se trouvent deux petites mares d'où s'échappe une légère vapeur. De l'une des mares émerge la poignée d'une épée, alors que de l'autre dépasse la hampe d'une lance. Le corps gelé d'un Orque est appuyé contre un mur, et son bras rigide est dirigé vers l'épée. Comme vous vous approchez des flaques d'eau, vous apercevez quatre vers gravés dans le sol de glace : Épée ou lance, Force ou terreur. Là est la différence : Être vaincu ? Être vainqueur ? Vous vous arrêtez, et vous répétez les quatre vers à plusieurs reprises, en vous demandant ce qu'ils peuvent signifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237:Tirer l'épée de la mare ?;
+250:Saisir la hampe de la lance ?;
+221:Traverser la grotte, et pénétrer dans le tunnel ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentez votre Chance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;Choice:331;Choice:103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meynaf et Stubb sont sortis indemnes de l'avalanche de glace, et ils vous aident à vous remettre sur vos pieds. Vous êtes surpris d'apercevoir le ciel bleu au-dessus de vous ; vite, vous escaladez tous les trois une paroi de la grotte et vous vous retrouvez au flanc de la montagne. La neige a cessé de tomber, et tout semble calme autour de vous. Alors que vous vous éloignez du lieu maudit, vous parlez de Big Jim à vos amis, et vous les mettez au courant des événements qui vous ont poussé à pénétrer dans les grottes de la Sorcière des Neiges. Vous pensez alors que Big Jim doit vous croire mort, mais vous jugez que cela ne vaut plus la peine de vous mettre à sa recherche pour toucher la récompense que vous avez gagnée en tuant le Yéti. Vous décidez donc d'accompagner Meynaf et Stubb à Pont de Pierre.</t>
   </si>
   <si>
     <t xml:space="preserve">En progressant lentement et avec précaution, vous finissez à votre grand soulagement, par atteindre le bord opposé du puits. Quant au Guérisseur, il marche avec insouciance sur la planche, comme si le puits n'existait pas ! « Bien, dit-il. Passons maintenant à l'épreuve suivante. Pour rester en vie, vous devez être le plus détendu possible. Si vous avez un œuf de Dragon, je vais vous préparer une potion qui vous procurera une totale relaxation. Possédez-vous un œuf de Dragon ? Si oui, rendez- vous au 359. Mais si vous n'avez pas d'œuf avec vous, rendez- vous au 271.</t>
   </si>
   <si>
+    <t xml:space="preserve">equipment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vous contournez un gros rocher, et vous apercevez derrière, un homme de forte stature qui dort dans l'ombre. Il est étendu sur un tas de peaux d'animaux, et il ronfle bruyamment. Sa hache de combat repose à ses côtés. Vous êtes en face d'un BARBARE, et il serait vraiment stupide de votre part de l'éveiller ; aussi décidez- vous de vous éloigner sur la pointe des pieds. Si vous portez des bottes d'Elfe, rendez-vous au 128. Mais si vous avez des bottes ordinaires, rendez-vous au 374.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous faites un pas de côté, et vous évitez de justesse le coffre qui arrivait sur vous. Il s'écrase contre le mur en répandant son contenu à terre. Le Géant des Glaces s'avance alors vers vous d'un pas pesant, avec la ferme intention de vous tuer. Mais votre épée à la main, vous l'attendez de pied ferme. GEANT DES GLACES HABILETÉ: 10 ENDURANCE: 10 Après le deuxième Assaut, vous pourrez prendre la Fuite en courant à travers sa tanière vers le tunnel (rendez-vous au 338). Si vous préférez mener le combat à son terme, et si vous êtes vainqueur, rendez-vous au 182.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous faites un faux pas, et, sans le vouloir, vous mettez le pied sur l'une des empreintes blanches. Rendez-vous au 11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Gnome se précipite vers vous en glapissant : « Allez-vous-en ! Le repas ne sera pas prêt avant deux heures. La cloche vous préviendra. Mais vous me paraissez bien faible ! Prenez ce morceau de gâteau rassis si vous voulez ». Et il vous montre la table sur laquelle est en effet posé un morceau de gâteau. Si vous désirez le prendre et vous éloigner, rendez-vous au 290. Mais si vous préférez attaquer ce serviteur de la Sorcière des Neiges, rendez-vous au 187.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alors que vous vous dirigez tous les trois vers le sud, le manque d'eau commence à vous préoccuper. Stubb essaye de vous changer les idées en disant que vous vous trouvez maintenant à moins d'une journée de marche de Pont de Pierre. Puis il ajoute qu'il est très surpris de ne pas encore avoir rencontré l'un ou l'autre de ses amis. « Nous pouvons en apercevoir un, lui répond Meynaf avec gravité, mais je pense que ce n'est pas dans cet état que vous souhaitez les rencontrer. » Et il pointe le doigt en direction d'un rocher qui se trouve à une cinquantaine de mètres à l'ouest. Le corps ensanglanté d'un Nain gît contre la pierre, la tête pendant sur sa poitrine. Il a encore sa hache à la main, et l'homme, ou la chose, qui l'a attaqué ne doit pas se trouver bien loin. Stubb se précipite vers le Nain en gémissant de chagrin. « C'est Chardo, le forgeron, dit-il, et cela ressemble fort au travail des Trolls des Collines. Il faut enterrer Chardo, et atteindre le plus vite possible Pont de Pierre pour mettre tout le monde au courant de cet horrible malheur. Tenez, prenez la gourde d'eau de Chardo. Il n'en aura plus besoin dorénavant. » Vous avalez quelques gorgées d'eau qui étanchent votre soif. Ajoutez 1 point à votre total d'ENDURANCE. Puis, après avoir creusé une tombe pour le Nain, vous reprenez votre route vers Pont de Pierre. Rendez-vous au 110.</t>
+    <t xml:space="preserve">equip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous faites un pas de côté, et vous évitez de justesse le coffre qui arrivait sur vous. Il s'écrase contre le mur en répandant son contenu à terre. Le Géant des Glaces s'avance alors vers vous d'un pas pesant, avec la ferme intention de vous tuer. Mais votre épée à la main, vous l'attendez de pied ferme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT:GEANT DES GLACES,10,10:2,Prendre la Fuite en courant à travers sa tanière vers le tunnel.:;
+;CHOICE:182;CHOICE:338;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous faites un faux pas, et, sans le vouloir, vous mettez le pied sur l'une des empreintes blanches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Gnome se précipite vers vous en glapissant : « Allez-vous-en ! Le repas ne sera pas prêt avant deux heures. La cloche vous préviendra. Mais vous me paraissez bien faible ! Prenez ce morceau de gâteau rassis si vous voulez ». Et il vous montre la table sur laquelle est en effet posé un morceau de gâteau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290:Le prendre et vous éloigner.;
+187:Attaquer ce serviteur de la Sorcière des Neiges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alors que vous vous dirigez tous les trois vers le sud, le manque d'eau commence à vous préoccuper. Stubb essaye de vous changer les idées en disant que vous vous trouvez maintenant à moins d'une journée de marche de Pont de Pierre. Puis il ajoute qu'il est très surpris de ne pas encore avoir rencontré l'un ou l'autre de ses amis. « Nous pouvons en apercevoir un, lui répond Meynaf avec gravité, mais je pense que ce n'est pas dans cet état que vous souhaitez les rencontrer. » Et il pointe le doigt en direction d'un rocher qui se trouve à une cinquantaine de mètres à l'ouest. Le corps ensanglanté d'un Nain gît contre la pierre, la tête pendant sur sa poitrine. Il a encore sa hache à la main, et l'homme, ou la chose, qui l'a attaqué ne doit pas se trouver bien loin. Stubb se précipite vers le Nain en gémissant de chagrin. « C'est Chardo, le forgeron, dit-il, et cela ressemble fort au travail des Trolls des Collines. Il faut enterrer Chardo, et atteindre le plus vite possible Pont de Pierre pour mettre tout le monde au courant de cet horrible malheur. Tenez, prenez la gourde d'eau de Chardo. Il n'en aura plus besoin dorénavant. » Vous avalez quelques gorgées d'eau qui étanchent votre soif. Ajoutez 1 point à votre total d'ENDURANCE. Puis, après avoir creusé une tombe pour le Nain, vous reprenez votre route vers Pont de Pierre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:1;</t>
   </si>
   <si>
     <t xml:space="preserve">Il n'y a rien d'écrit dans le livre, mais une petite cavité a été découpée dans ses pages. Elle contient un talisman pendu à une chaîne. Ce talisman est une grenouille en jade, et vous pouvez le passer autour de votre cou, si vous le désirez (rendez-vous au 327). Mais vous pouvez également le laisser dans le livre. Si vous ne l'avez déjà fait, vous pouvez : Souffler dans la flûte Rendez-vous au 74 Déchiffrer les caractères runiques gravés sur le bâton Rendez- vous au 345 Sentir la rose Rendez-vous au 317 Mais vous pouvez également décider de quitter la grotte, et tourner à gauche dans le tunnel (rendez-vous au 198).</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous souffrez encore des effets de la décharge d'énergie, mais vous devez décider rapidement de ce que vous allez faire. Si vous voulez tenter de vous enfuir, rendez-vous au 262. Si vous préférez essayer de briser le globe à l'aide de votre épée, rendez- vous au 244.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Illusionniste éclate de rire en vous voyant pourfendre l'une de ses images, et il vous plonge sa dague dans l'épaule. Vous perdez 2 points d'ENDURANCE, et, si vous êtes toujours vivant, rendez- vous au 279.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Elfe vous demande pourquoi vous êtes à la recherche du Guérisseur, et vous lui racontez vos combats dans les Grottes de Glace, comment vous êtes tombé sous le pouvoir du Sortilège de Mort, et la fin tragique du pauvre Meynaf. « Meynaf ! dit l'Elfe en sursautant, mais c'est... c'était mon frère ! » Il vous apprend alors que son nom est Raym, et qu'il ignorait que son frère avait été fait prisonnier par la Sorcière des Neiges. Puis, attristé par la mort de Meynaf, il fait quelques pas et demeure un long moment en plein soleil sans prononcer un mot. « Je vais vous aider à trouver le Guérisseur, dit Raym en revenant vers vous. Mais vous devrez le rencontrer seul, car il n'accepte de recevoir que les malades. Il a été défiguré et mutilé par les tourments et les souffrances que lui ont fait subir les Êtres Obscurs - ces maléfiques démons de la nuit - pour avoir délivré un sorcier du nom de Nicomède d'un Sortilège de Mort qu'ils avaient jeté sur lui. Maintenant, il exerce son art dans la solitude des collines. Suivez-moi, car il semble que nous n'avons pas une minute à perdre. » Raym vous précède, en regardant sans cesse autour de lui pour prévenir tout danger. Après avoir escaladé la colline pendant une heure environ, vous parvenez à un pont de corde qui traverse la rivière. Votre compagnon se retourne vers vous, et vous annonce que vous allez devoir traverser le pont. Vous lui répondez que le Sortilège vous épuise, et que vous avez besoin d'un peu de repos. Vous perdez 1 point d'ENDURANCE. Un peu plus tard, vous vous sentez suffisamment reposé pour poursuivre votre marche, et vous vous engagez sur le pont. Vous avez à peine parcouru la moitié de la distance qui vous sépare de l'autre rive quand, tout à coup, vous entendez des cris. Vous vous retournez, et vous voyez alors deux TROLLS DES COLLINES en train de couper les cordes qui supportent le pont. Affolés, vous vous précipitez vers la berge. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 273. Si vous êtes Malchanceux, rendez-vous au 181.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au fond du pot rouge, vous trouvez un disque de métal de forme carrée que vous rangez dans votre Sac à Dos (n'oubliez pas de le noter sur votre Feuille d'Aventure). Si vous désirez maintenant regarder à l'intérieur du pot gris, rendez-vous au 344. Mais vous pouvez également quitter la grotte par l'autre porte (rendez-vous au 176).</t>
+    <t xml:space="preserve">“DejaFait”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous souffrez encore des effets de la décharge d'énergie, mais vous devez décider rapidement de ce que vous allez faire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262:Tenter de vous enfuir.;
+244:Essayer de briser le globe à l'aide de votre épée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Illusionniste éclate de rire en vous voyant pourfendre l'une de ses images, et il vous plonge sa dague dans l'épaule. Vous perdez 2 points d'ENDURANCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Elfe vous demande pourquoi vous êtes à la recherche du Guérisseur, et vous lui racontez vos combats dans les Grottes de Glace, comment vous êtes tombé sous le pouvoir du Sortilège de Mort, et la fin tragique du pauvre Meynaf. « Meynaf ! dit l'Elfe en sursautant, mais c'est... c'était mon frère ! » Il vous apprend alors que son nom est Raym, et qu'il ignorait que son frère avait été fait prisonnier par la Sorcière des Neiges. Puis, attristé par la mort de Meynaf, il fait quelques pas et demeure un long moment en plein soleil sans prononcer un mot. « Je vais vous aider à trouver le Guérisseur, dit Raym en revenant vers vous. Mais vous devrez le rencontrer seul, car il n'accepte de recevoir que les malades. Il a été défiguré et mutilé par les tourments et les souffrances que lui ont fait subir les Êtres Obscurs - ces maléfiques démons de la nuit - pour avoir délivré un sorcier du nom de Nicomède d'un Sortilège de Mort qu'ils avaient jeté sur lui. Maintenant, il exerce son art dans la solitude des collines. Suivez-moi, car il semble que nous n'avons pas une minute à perdre. » Raym vous précède, en regardant sans cesse autour de lui pour prévenir tout danger. Après avoir escaladé la colline pendant une heure environ, vous parvenez à un pont de corde qui traverse la rivière. Votre compagnon se retourne vers vous, et vous annonce que vous allez devoir traverser le pont. Vous lui répondez que le Sortilège vous épuise, et que vous avez besoin d'un peu de repos. Vous perdez 1 point d'ENDURANCE. Un peu plus tard, vous vous sentez suffisamment reposé pour poursuivre votre marche, et vous vous engagez sur le pont. Vous avez à peine parcouru la moitié de la distance qui vous sépare de l'autre rive quand, tout à coup, vous entendez des cris. Vous vous retournez, et vous voyez alors deux TROLLS DES COLLINES en train de couper les cordes qui supportent le pont. Affolés, vous vous précipitez vers la berge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Stamina:-1;
+LUCK;CHOICE:273;CHOICE:181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au fond du pot rouge, vous trouvez un disque de métal de forme carrée que vous rangez dans votre Sac à Dos (n'oubliez pas de le noter sur votre Feuille d'Aventure).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344:Regarder à l'intérieur du pot gris.;
+176:Quitter la grotte par l'autre porte.</t>
   </si>
   <si>
     <t xml:space="preserve">« Halte ! » vous crient les Gobelins. Mais vous courez de plus belle. Alors, après vous avoir visé, ils lancent leurs dagues sur vous. Jetez un dé. Si vous faites 1 ou 2, rendez-vous au 140. Si vous faites un 3 ou un 4, rendez-vous au 330. Si vous faites un 5 ou un 6, rendez-vous au 245.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'Elfe des Montagnes paraît surpris, et vous demande pourquoi vous ne portez pas de Collier d'Obéissance. Vous remarquez alors que lui-même porte un collier autour du cou, qui rayonne dans la demi-obscurité. Sans doute est-ce là le collier dont il parle. Si vous voulez lui répondre que vous avez quelque peu grossi ces derniers temps, et que vous avez dû donner votre collier à élargir, rendez-vous au 70. Mais vous pouvez aussi attaquer sans retard l'Elfe, avant qu'il ne donne l'alarme. Rendez-vous au 382.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le voyage que vous avez entrepris en direction du sud est long et dangereux. Mais vous êtes stimulé par la pensée de laisser les Pics de Glace derrière vous. Deux jours se sont écoulés depuis votre départ lorsque vous atteignez la rivière Kok. A quatre- vingts kilomètres en amont, se trouve la ville de Fang, célèbre par le Labyrinthe de la Mort qu'y a fait construire le Baron Sukumvit, qui accueille chaque année les aventuriers voulant participer au Tournoi des Champions. A cette période de l'année, cependant, Fang n'est probablement pas plus intéressante que la plupart des autres villes qui bordent la rivière. Aussi décidez-vous, plutôt que de vous y rendre, de suivre la rivière en aval, dans l'espoir de trouver un pont ou un passeur pour la traverser. Après une demi- heure de marche le long des eaux brunâtres, vous apercevez un homme assoupi sur un radeau tiré sur la rive. Vous l'interpellez, et vous lui demandez de vous faire traverser la rivière. Il vous répond de passer votre chemin car, dit-il, il est trop fatigué pour travailler aujourd'hui. Si vous voulez lui proposer 10 Pièces d'Or pour le faire changer d'avis, rendez-vous au 315. Mais vous pouvez aussi, comme il vient de vous le conseiller, poursuivre votre chemin (rendez-vous au 131) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avec sang froid, Raym attend que le Faucon se rapproche pour lui décocher une nouvelle flèche à bout portant. Et cette fois, il ne manque pas sa cible. Une flèche plantée en pleine poitrine, le Faucon de la Mort s'abat au sol. L'autre versant de la colline s'incline doucement jusqu'à une gorge ; Raym vous déclare que vous devez maintenant poursuivre votre route seul. Il ajoute que vous devez vous diriger vers l'est en remontant la gorge, jusqu'à ce que vous aperceviez la tête d'un Phénix sculpté dans un rocher. L'entrée de la caverne du Guérisseur se trouve juste au- dessus de ce rocher, à flanc de colline. Vous remerciez Raym pour son aide, et lentement vous descendez la colline en direction de la gorge. Arrivé au bas de la colline, vous suivez les instructions de Raym, et vous remontez la gorge après avoir obliqué sur la gauche. Rendez-vous au 252.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un peu plus avant, dans la paroi gauche du tunnel, vous apercevez une cavité, et vous vous dirigez vers elle. Vous y jetez un coup d'œil et vous découvrez une caverne dans laquelle un NEANDERTHALIEN est en train de dépouiller un élan et de le préparer devant une immense marmite posée près de lui. Ses gestes sont lents, et il est aidé par un GNOME cuisinier, qui porte un tablier blanc et qui agite frénétiquement une cuiller en bois. Allez-vous pénétrer dans cette cuisine grossière (rendez-vous au 95), ou préférez-vous vous en éloigner le plus discrètement possible (rendez-vous au 267) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous trébuchez, mais vous parvenez à ne pas mettre le pied sur les empreintes blanches ni sur les empreintes noires. Vous reprenez votre équilibre, et vous poursuivez votre chemin en marchant entre les deux traces de pas (rendez-vous au 207).</t>
+    <t xml:space="preserve">roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Elfe des Montagnes paraît surpris, et vous demande pourquoi vous ne portez pas de Collier d'Obéissance. Vous remarquez alors que lui-même porte un collier autour du cou, qui rayonne dans la demi-obscurité. Sans doute est-ce là le collier dont il parle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70:Répondre que vous avez quelque peu grossi ces derniers temps, et que vous avez dû donner votre collier à élargir.;
+382:Attaquer sans retard l'Elfe, avant qu'il ne donne l'alarme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le voyage que vous avez entrepris en direction du sud est long et dangereux. Mais vous êtes stimulé par la pensée de laisser les Pics de Glace derrière vous. Deux jours se sont écoulés depuis votre départ lorsque vous atteignez la rivière Kok. A quatre- vingts kilomètres en amont, se trouve la ville de Fang, célèbre par le Labyrinthe de la Mort qu'y a fait construire le Baron Sukumvit, qui accueille chaque année les aventuriers voulant participer au Tournoi des Champions. A cette période de l'année, cependant, Fang n'est probablement pas plus intéressante que la plupart des autres villes qui bordent la rivière. Aussi décidez-vous, plutôt que de vous y rendre, de suivre la rivière en aval, dans l'espoir de trouver un pont ou un passeur pour la traverser. Après une demi- heure de marche le long des eaux brunâtres, vous apercevez un homme assoupi sur un radeau tiré sur la rive. Vous l'interpellez, et vous lui demandez de vous faire traverser la rivière. Il vous répond de passer votre chemin car, dit-il, il est trop fatigué pour travailler aujourd'hui.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315:Lui proposer 10 Pièces d'Or pour le faire changer d'avis.;
+131:Comme il vient de vous le conseiller, poursuivre votre chemin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec sang froid, Raym attend que le Faucon se rapproche pour lui décocher une nouvelle flèche à bout portant. Et cette fois, il ne manque pas sa cible. Une flèche plantée en pleine poitrine, le Faucon de la Mort s'abat au sol. L'autre versant de la colline s'incline doucement jusqu'à une gorge ; Raym vous déclare que vous devez maintenant poursuivre votre route seul. Il ajoute que vous devez vous diriger vers l'est en remontant la gorge, jusqu'à ce que vous aperceviez la tête d'un Phénix sculpté dans un rocher. L'entrée de la caverne du Guérisseur se trouve juste au- dessus de ce rocher, à flanc de colline. Vous remerciez Raym pour son aide, et lentement vous descendez la colline en direction de la gorge. Arrivé au bas de la colline, vous suivez les instructions de Raym, et vous remontez la gorge après avoir obliqué sur la gauche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un peu plus avant, dans la paroi gauche du tunnel, vous apercevez une cavité, et vous vous dirigez vers elle. Vous y jetez un coup d'œil et vous découvrez une caverne dans laquelle un NEANDERTHALIEN est en train de dépouiller un élan et de le préparer devant une immense marmite posée près de lui. Ses gestes sont lents, et il est aidé par un GNOME cuisinier, qui porte un tablier blanc et qui agite frénétiquement une cuiller en bois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95:Pénétrer dans cette cuisine grossière.;
+267:Vous en éloigner le plus discrètement possible ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous trébuchez, mais vous parvenez à ne pas mettre le pied sur les empreintes blanches ni sur les empreintes noires. Vous reprenez votre équilibre, et vous poursuivez votre chemin en marchant entre les deux traces de pas.</t>
   </si>
   <si>
     <t xml:space="preserve">Les serviteurs se saisissent de vous, et vous portent jusqu'à un cercle de glace qui a été teint en bleu, et au centre duquel est posée l'idole. En poussant des hurlements et des cris sauvages, ils vous jettent dans un cercle bleu, et immédiatement l'idole commence à faire des gestes saccadés de ses membres de glace : vous avez éveillé les pouvoirs d'un DEMON DES GLACES. DEMON DES GLACES HABILETÉ: 9 ENDURANCE: 11 Vous le combattez à la manière habituelle, mais de plus, vous devrez jeter un dé à chaque Assaut pour le jet de gaz congelant qui fuse des narines de la créature. Si vous faites 1, 2 ou 3, vous êtes atteint par le jet de gaz, et vous perdez 1 point d'ENDURANCE. Mais si vous faites 4, 5 ou 6, vous évitez le jet de gaz. Si vous êtes vainqueur, rendez-vous au 184 .</t>
   </si>
   <si>
+    <t xml:space="preserve">combat with env&amp;random</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vous vous tournez vers le sommet de la montagne, et vous voyez d'énormes masses de neige qui en dévalent les pentes. Soudain vous réalisez avec horreur que vous vous trouvez en plein milieu du chemin de l'avalanche. Affolé, vous regardez autour de vous, et vous finissez par apercevoir une saillie de rocher sous laquelle vous pourriez vous abriter à condition de ne pas perdre un instant, car la neige n'est plus qu'à une centaine de mètres maintenant. Vous vous précipitez aussi vite que vous le pouvez vers le rocher. Jetez deux dés. Si le nombre obtenu est égal ou inférieur à votre total d'HABILETÉ, rendez-vous au 81. Si ce nombre est supérieur à ce même total, rendez-vous au 371.</t>
   </si>
   <si>
-    <t xml:space="preserve">La nuit ne va pas tarder à tomber et vous décidez de dresser votre campement à l'abri de rochers et de buissons, en dépit des supplications de Stubb qui voudrait continuer jusqu'à Pont de Pierre. Vous allumez un feu et, tandis que Meynaf prend le premier tour de garde, vous vous installez pour dormir. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 399. Si vous êtes Malchanceux, rendez-vous au 251.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bientôt, vous entendez des chants provenant d'un point situé à quelque distance de l'endroit où vous vous trouvez. Avec précaution, vous poursuivez votre chemin le long du tunnel qui finit par déboucher dans une immense caverne. Là, agenouillés devant une idole à la forme de démon et le visage pressé contre le sol de glace, se trouvent une dizaine de serviteurs de la Sorcière des Neiges. La caverne possède deux issues : l'une à l'opposé de vous, et l'autre sur votre droite. Vous pouvez essayez de vous faire passer pour un adorateur de l'idole, en pénétrant dans la caverne d'un pas assuré (rendez-vous au 300). Mais vous pouvez également vous glisser le plus discrètement possible dans ce lieu (rendez-vous au 283).</t>
+    <t xml:space="preserve">La nuit ne va pas tarder à tomber et vous décidez de dresser votre campement à l'abri de rochers et de buissons, en dépit des supplications de Stubb qui voudrait continuer jusqu'à Pont de Pierre. Vous allumez un feu et, tandis que Meynaf prend le premier tour de garde, vous vous installez pour dormir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:399;CHOICE:251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bientôt, vous entendez des chants provenant d'un point situé à quelque distance de l'endroit où vous vous trouvez. Avec précaution, vous poursuivez votre chemin le long du tunnel qui finit par déboucher dans une immense caverne. Là, agenouillés devant une idole à la forme de démon et le visage pressé contre le sol de glace, se trouvent une dizaine de serviteurs de la Sorcière des Neiges. La caverne possède deux issues : l'une à l'opposé de vous, et l'autre sur votre droite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300:Vous faire passer pour un adorateur de l'idole, en pénétrant dans la caverne d'un pas assuré.;
+283:Vous glisser le plus discrètement possible dans ce lieu.</t>
   </si>
   <si>
     <t xml:space="preserve">Si vous possédez une fronde, vous pouvez l'utiliser contre le Géant des Glaces en vous rendant au 373. Mais si vous préférez l'attaquer avec votre seule épée, rendez-vous au 292.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Sorcière des Neiges vous explique brièvement les règles de son jeu. Vous choisissez un disque, et vous le cachez dans votre poing. Puis elle essaye d'en deviner la forme. Un carré bat un rond ; un rond bat une étoile ; une étoile bat un carré. Si vous gagnez, vous aurez une chance de vous enfuir des grottes. Mais si vous perdez, vous mourrez. Enfin, si vous choisissez tous deux le même disque, la partie est nulle, et vous devrez jouer à nouveau. Maintenant, faites votre choix. Bien entendu, si vous ne possédez pas les trois disques, ce choix sera limité. Allez-vous : Cacher le disque carré ? Rendez-vous au 15 Cacher le disque rond ? Rendez-vous au 152 Cacher le disque en forme d'étoile ? Rendez-vous au 392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous reprenez le contrôle de vos sens, et vous saisissez de nouveau le bâton. Cette fois, vous le dirigez vers le cœur de la Sorcière des Neiges avec détermination. Rendez-vous au 4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A travers les arbres, sur votre gauche, vous apercevez un homme de haute taille dont les oreilles pointues émergent d'une chevelure hirsute. Il porte un manteau vert, et il est très occupé à tailler des pointes de flèches avec sa dague. C'est un Elfe qui semble être la réplique exacte de Meynaf. Si vous voulez lui demander où habite le Guérisseur, rendez-vous au 100. Mais vous pouvez aussi l'attaquer avec votre épée (rendez-vous au 397).</t>
+    <t xml:space="preserve">La Sorcière des Neiges vous explique brièvement les règles de son jeu. Vous choisissez un disque, et vous le cachez dans votre poing. Puis elle essaye d'en deviner la forme. Un carré bat un rond ; un rond bat une étoile ; une étoile bat un carré. Si vous gagnez, vous aurez une chance de vous enfuir des grottes. Mais si vous perdez, vous mourrez. Enfin, si vous choisissez tous deux le même disque, la partie est nulle, et vous devrez jouer à nouveau. Maintenant, faites votre choix. Bien entendu, si vous ne possédez pas les trois disques, ce choix sera limité. Allez-vous : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eqip cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:Cacher le disque carré ?;
+152:Cacher le disque rond ?;
+392:Cacher le disque en forme d'étoile ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous reprenez le contrôle de vos sens, et vous saisissez de nouveau le bâton. Cette fois, vous le dirigez vers le cœur de la Sorcière des Neiges avec détermination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A travers les arbres, sur votre gauche, vous apercevez un homme de haute taille dont les oreilles pointues émergent d'une chevelure hirsute. Il porte un manteau vert, et il est très occupé à tailler des pointes de flèches avec sa dague. C'est un Elfe qui semble être la réplique exacte de Meynaf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:Lui demander où habite le Guérisseur.;
+397:L'attaquer avec votre épée.</t>
   </si>
   <si>
     <t xml:space="preserve">Vous ne pouvez faire autrement que d'obéir à ses ordres. Vous desserrez votre collier, et vous lui tendez le cou pour qu'elle y plonge ses dents et boive votre sang. Dorénavant, vous serez à tout jamais son esclave dans le monde des morts vivants.</t>
@@ -940,13 +1048,20 @@
     <t xml:space="preserve">Sous la saillie d'un rocher, vous apercevez une petite cabane en bois bâtie contre le flanc de la montagne. Son toit est recouvert d'une épaisse couche de neige, et des stalactites de glace pendent au haut de sa fenêtre. Profondément marquées dans la neige, des traces de pas partent de la cabane et se dirigent vers le flanc de la montagne. Allez-vous pénétrer dans la cabane (rendez-vous au 36), ou préférez-vous suivre les traces dans la neige (rendez-vous au 190) ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous escaladez la pente de la gorge et vous atteignez l'entrée de la caverne. Mais il fait trop sombre à l'intérieur pour que vous puissiez distinguer quelque chose, et vous n'avez pas de lanterne. Si vous voulez appeler, en espérant que le Guérisseur habite ici, rendez-vous au 53. Mais vous pouvez également pénétrer dans la caverne (rendez-vous au 246).</t>
+    <t xml:space="preserve">Vous escaladez la pente de la gorge et vous atteignez l'entrée de la caverne. Mais il fait trop sombre à l'intérieur pour que vous puissiez distinguer quelque chose, et vous n'avez pas de lanterne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53:Appeler, en espérant que le Guérisseur habite ici.;
+246:Pénétrer dans la caverne.</t>
   </si>
   <si>
     <t xml:space="preserve">Le gardien du trésor de la Sorcière des Neiges est mort, et toutes les richesses qui sont sous vos yeux vous appartiennent maintenant. Néanmoins, comme vous ne pouvez tout emporter avec vous, vous décidez de remplir votre sac à dos de Pièces d'Or. Votre sac peut contenir 600 Pièces ; cependant, chaque fois que vous aurez compté 50 Pièces d'Or, il faudra abandonner l'un des objets que vous possédez. Mettez soigneusement à jour votre Feuille d'Aventure au fur et à mesure que vous compterez les Pièces. A peine avez-vous refermé votre Sac à Dos, que vous entendez des bruits de pas précipités venant du tunnel, qui se rapprochent de la pièce dans laquelle vous vous trouvez. Vous vous redressez en saisissant votre épée, mais aurez-vous la force de supporter un combat de plus ? Deux hommes apparaissent soudain à la porte : un Nain, et un Elfe ; mais ils ne semblent pas animés de sentiments belliqueux, car ils sourient en essayant tous deux de parler en même temps. Finalement, l'Elfe prend le dessus. « Vous l'avez tuée ! Nous sommes libres ! Nous allons pouvoir nous débarrasser des colliers d'obéissance ! Pour vous remercier de ce que vous avez fait pour nous, nous allons vous aider à quitter ces lieux. Vous ne pouvez reprendre le chemin qui vous a mené jusqu'ici, car les serviteurs de la Sorcière des Neiges vous y attendent et les tunnels grouillent de Gobelins. Nos amis les Nains et les Elfes les ont attaqués pour vous donner le temps de fuir, mais il ne faut pas perdre de temps. » Et à votre grande surprise, l'Elfe se dirige vers le mur opposé à la porte et le traverse ! Le Nain éclate de rire en voyant votre air abasourdi : « Une autre illusion de la Sorcière, dit-il. Un passage secret qu'elle n'a pas eu la possibilité d'utiliser. L'ennui, c'est que nous ne l'avons jamais utilisé nous-mêmes. » En riant toujours, le Nain marche vers le mur, et vous le suivez. A votre tour, vous traversez le mur, et vous vous retrouvez dans un tunnel étroit éclairé par des torches. Vous marchez en file indienne pendant quelque temps et vous arrivez bientôt à une intersection. Quelle direction allez-vous prendre ? Vous pouvez tourner à gauche (rendez-vous au 61), ou à droite (rendez-vous au 388).</t>
   </si>
   <si>
-    <t xml:space="preserve">Sans prêter attention à l'entrée d'une sombre caverne devant laquelle vous passez, vous commencez à escalader péniblement la paroi escarpée. Tout à coup, vous glissez, et le morceau de roc qui vous servait de prise vous reste dans la main. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 284. Si, en revanche, vous êtes Malchanceux, c'en est fini pour vous, car après une chute vertigineuse, vous vous écrasez au pied de la Montagne de Feu.</t>
+    <t xml:space="preserve">Sans prêter attention à l'entrée d'une sombre caverne devant laquelle vous passez, vous commencez à escalader péniblement la paroi escarpée. Tout à coup, vous glissez, et le morceau de roc qui vous servait de prise vous reste dans la main.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:284;GAME_OVER:C'en est fini pour vous, car après une chute vertigineuse, vous vous écrasez au pied de la Montagne de Feu.</t>
   </si>
   <si>
     <t xml:space="preserve">Stubb est bientôt de retour, les bras chargés de racines, de noix et d'un lièvre de bonne taille. Ayant découvert un récipient au fond du bateau, il commence à préparer un ragoût appétissant, pendant que Meynaf vous fait, avec quelque vantardise, le récit de son combat contre l'Elfe Noir. Bientôt, vous vous régalez tous trois et, pour chasser de vos pensées le souvenir de la Sorcière des Neiges, vous vous racontez mille histoires. Ajoutez 4 points à votre total d'endurance. Le repas terminé, vous montez à bord de l'embarcation de l'Elfe et vous vous éloignez de la berge. Il vous faut peu de temps pour atteindre l'autre rive où vous vous mettez en route pour traverser la Plaine des Païens vers Pont de Pierre. Rendez-vous au 278.</t>
@@ -973,7 +1088,10 @@
     <t xml:space="preserve">Le bruit de tonnerre de sabots piétinant le sol s'amplifie et, bientôt, quatre CENTAURES en plein galop apparaissent. Chacun d'eux est armé d'un arc, et porte un carquois de flèches. Arrivés à votre hauteur, ils s'arrêtent net, et vous observent d'un œil aigu, en guettant le moindre de vos mouvements. Leur chef est sans aucun doute celui dont le visage et la poitrine sont marqués d'une terrifiante cicatrice bleuâtre ; il est le seul à tenir un bouclier et une lance, le seul à porter un casque orné de cornes ! Vous pouvez essayez de leur offrir des Pièces d'Or pour qu'ils vous emmènent à Pont de Pierre (rendez-vous au 329). Mais vous pouvez également poursuivre votre chemin après leur avoir adressé quelques mots (rendez-vous au 144).</t>
   </si>
   <si>
-    <t xml:space="preserve">Avant que vous ayez pu atteindre la rive opposée, le pont se dérobe sous vos pieds, et s'effondre dans la rivière. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 142. Si vous êtes Malchanceux, rendez-vous au 277.</t>
+    <t xml:space="preserve">Avant que vous ayez pu atteindre la rive opposée, le pont se dérobe sous vos pieds, et s'effondre dans la rivière.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:142;CHOICE:277</t>
   </si>
   <si>
     <t xml:space="preserve">Vous vous dirigez vers le coffret éventré, et vous en examinez le contenu : trois bagues ciselées, ainsi qu'une bouteille brisée qui laisse échapper une odeur aromatique. Si vous voulez glisser à votre doigt l'un des anneaux, rendez-vous au 65. Mais si vous préférez vous diriger vers l'autre tunnel, rendez-vous au 338.</t>
@@ -1063,7 +1181,10 @@
     <t xml:space="preserve">A la vue de l'ail, la Sorcière des Neiges recule, ce qui vous laisse un peu de temps pour réfléchir. Vous savez qu'un Vampire ne peut être tué que si on lui enfonce un pieu dans le cœur. Si vous possédez un bâton gravé de signes runiques, rendez-vous au 34. Sinon, rendez-vous au 10.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stubb éprouve un tel désir de se venger qu'il se débarrasse en un instant des deux Trolls des Collines. Puis, sans perdre un instant, il va prêter main forte à Meynaf, et bientôt il ne reste plus un seul Troll en vie. Sans prendre le temps de fouiller vos ennemis, vous pénétrez dans le village où Stubb est accueilli en héros par ses amis. Cependant, malgré les cris de joie, vous découvrez vite que le visage des Nains est empreint de désespoir. En effet, bien que sachant que les Trolls des Collines vont les attaquer d'un moment à l'autre, les Nains ont perdu toute volonté de se battre depuis que leur fabuleux marteau de guerre a été volé au roi Gilli-bran. Stubb est atterré de les retrouver ainsi, et il vous entraîne vers l'auberge dans l'espoir d'y trouver son ami Grosmollet. Grosmollet est en effet assis à une table, et il vous raconte qu'un aigle s'est emparé du marteau et l'a laissé tomber dans la Forêt des Ténèbres. « Allons ! dit Stubb avec une grande fermeté, nous devons le retrouver. Grosmollet, nous partons immédiatement ! » Il se lève alors, puis il vous tend la main, en vous disant : « Mes amis, je suis désolé. Mais je ne peux plus vous offrir l'hospitalité maintenant. J'espère que vous comprenez ». Et, en compagnie de Grosmollet, Stubb sort de l'auberge. Jamais plus vous ne reverrez votre joyeux compagnon. Meynaf soupire, et vous suggère de partir sur l'heure pour les Collines des Pierres de Lune. Il ajoute qu'il a quelque chose de très important à vous dire, et qu'il est sans doute préférable que Stubb ne soit pas là pour écouter. Intrigué par l'air mystérieux de Meynaf, vous le suivez hors du village, et vous poursuivez votre route le long de la Rivière Rouge dans la direction de l'est. Tout en restant aux aguets pour ne pas être surpris par une patrouille de Trolls des Collines, vous ne pouvez vous empêcher de penser à ce que Meynaf vient de vous dire. Soudain, votre compagnon s'arrête. Et sans prononcer un mot, il vous montre trois Trolls des Collines qui, à moitié cachés par les arbres, aiguisent leurs armes contre une pierre. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 218. Si vous êtes Malchanceux, rendez-vous au 296.</t>
+    <t xml:space="preserve">Stubb éprouve un tel désir de se venger qu'il se débarrasse en un instant des deux Trolls des Collines. Puis, sans perdre un instant, il va prêter main forte à Meynaf, et bientôt il ne reste plus un seul Troll en vie. Sans prendre le temps de fouiller vos ennemis, vous pénétrez dans le village où Stubb est accueilli en héros par ses amis. Cependant, malgré les cris de joie, vous découvrez vite que le visage des Nains est empreint de désespoir. En effet, bien que sachant que les Trolls des Collines vont les attaquer d'un moment à l'autre, les Nains ont perdu toute volonté de se battre depuis que leur fabuleux marteau de guerre a été volé au roi Gilli-bran. Stubb est atterré de les retrouver ainsi, et il vous entraîne vers l'auberge dans l'espoir d'y trouver son ami Grosmollet. Grosmollet est en effet assis à une table, et il vous raconte qu'un aigle s'est emparé du marteau et l'a laissé tomber dans la Forêt des Ténèbres. « Allons ! dit Stubb avec une grande fermeté, nous devons le retrouver. Grosmollet, nous partons immédiatement ! » Il se lève alors, puis il vous tend la main, en vous disant : « Mes amis, je suis désolé. Mais je ne peux plus vous offrir l'hospitalité maintenant. J'espère que vous comprenez ». Et, en compagnie de Grosmollet, Stubb sort de l'auberge. Jamais plus vous ne reverrez votre joyeux compagnon. Meynaf soupire, et vous suggère de partir sur l'heure pour les Collines des Pierres de Lune. Il ajoute qu'il a quelque chose de très important à vous dire, et qu'il est sans doute préférable que Stubb ne soit pas là pour écouter. Intrigué par l'air mystérieux de Meynaf, vous le suivez hors du village, et vous poursuivez votre route le long de la Rivière Rouge dans la direction de l'est. Tout en restant aux aguets pour ne pas être surpris par une patrouille de Trolls des Collines, vous ne pouvez vous empêcher de penser à ce que Meynaf vient de vous dire. Soudain, votre compagnon s'arrête. Et sans prononcer un mot, il vous montre trois Trolls des Collines qui, à moitié cachés par les arbres, aiguisent leurs armes contre une pierre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:218;CHOICE:296</t>
   </si>
   <si>
     <t xml:space="preserve">Le vent commence à se lever, vous projetant des paquets de neige au visage. Vous baissez la tête en avançant encore plus lentement. Un autre bruit se fait entendre alors entre les rafales de vent : le hurlement des loups ! Vous tirez votre épée, en essayant de distinguer quelque chose dans les tourbillons de neige. Comme s'ils venaient de nulle part, deux LOUPS DES NEIGES surgissent alors en face de vous. Ils sont totalement blancs, à l'exception de leurs yeux qui sont rouge sang. Soudain, l'un d'eux bondit sur vous. Vous les combattez chacun à son tour.</t>
@@ -1115,18 +1236,17 @@
     <t xml:space="preserve">A peine avez-vous commencé à lire, que les mots commencent à s'effacer. Jetez deux dés. Si le nombre que vous obtenez est égal ou inférieur à votre total d'HABILETÉ, rendez-vous au 147. Si ce nombre est supérieur à ce même total, rendez-vous au 396.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le blizzard vous a causé de sérieuses meurtrissures. La main qui vous sert à manier l'épée est gelée, et vous devrez maintenant vous servir de votre autre main lorsque vous combattrez.
-Vous perdez 3 points d'HABILETÉ, et 4 points d'ENDURANCE.</t>
+    <t xml:space="preserve">Le blizzard vous a causé de sérieuses meurtrissures. La main qui vous sert à manier l'épée est gelée, et vous devrez maintenant vous servir de votre autre main lorsque vous combattrez. Vous perdez 3 points d'HABILETÉ, et 4 points d'ENDURANCE.</t>
   </si>
   <si>
     <t xml:space="preserve">ADD:Hero.Current.Ability:-3;
-ADD:Hero.Current.Strenght:-4;</t>
+ADD:Hero.Current.Stamina:-4;</t>
   </si>
   <si>
     <t xml:space="preserve">La dague et le fouet manquent leur but, et vous continuez à courir dans le tunnel.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'Elfe Noir est un archer remarquable. La flèche vous frappe en pleine épaule, et vous laissez échapper un cri de douleur. Vous perdez 2 points d'ENDURANCE. Stubb s'empare alors des avirons et continue à ramer vers la rive opposée. Mais vous êtes toujours à portée de l'Elfe Noir et vous le voyez saisir une nouvelle flèche qu'il décoche sur vous. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 32. Si vous êtes Malchanceux, rendez- vous au 239.</t>
+    <t xml:space="preserve">L'Elfe Noir est un archer remarquable. La flèche vous frappe en pleine épaule, et vous laissez échapper un cri de douleur. Vous perdez 2 points d'ENDURANCE. Stubb s'empare alors des avirons et continue à ramer vers la rive opposée. Mais vous êtes toujours à portée de l'Elfe Noir et vous le voyez saisir une nouvelle flèche qu'il décoche sur vous.</t>
   </si>
   <si>
     <t xml:space="preserve">L'image de l'oiseau s'évanouit peu à peu alors que de nouveaux rêves reprennent possession de votre esprit. Vous n'avez pas reconnu l'oiseau fabuleux que le Guérisseur admire tant, et ne vous jugeant pas digne de son aide, il vous laisse à vous-même. Le jour se lève, et vous dormez toujours. Vous avez laissé passer votre chance de vaincre le Sortilège de Mort. C'est le début d'une belle journée que vous ne verrez jamais. La Montagne de Feu a trouvé, une fois de plus, de quoi nourrir ses vautours affamés.</t>
@@ -1147,13 +1267,19 @@
     <t xml:space="preserve">Le chef des Centaures hoche la tête. Il vous croit. Il adresse un signe à ses compagnons et, reprenant leur galop, ils disparaissent bientôt. Vous poussez un soupir de soulagement, et vous reprenez votre voyage vers Pont de Pierre. Rendez-vous au 278.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous visez soigneusement à travers les barreaux, et vous lancez la dague vers le bouton. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 120. Si vous êtes Malchanceux, rendez-vous au 132.</t>
+    <t xml:space="preserve">Vous visez soigneusement à travers les barreaux, et vous lancez la dague vers le bouton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:120;CHOICE:132</t>
   </si>
   <si>
     <t xml:space="preserve">Pris dans la glace, vous découvrez un coffre sculpté ouvert, plein à ras bord d'or et de joyaux. Vous creusez la glace jusqu'au coffre et le premier objet que vous saisissez est une idole en or. Mais vous ne la tenez pas longtemps, car tout à coup elle vous saute des mains, et se métamorphose en un guerrier d'or. Vous allez devoir combattre le GARDIEN DU TRÉSOR. GARDIEN DU TRÉSOR HABILETÉ: 9 ENDURANCE: 9 Si vous êtes vainqueur, rendez-vous au 171.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bien qu'ils vous aident de toute leur force, vos amis sont incapables de vous forcer à planter l'arme dans la porte. Le pouvoir de la dague oblige encore votre main à se tourner vers vous, et cette fois, la lame pénètre profondément votre aine gauche. Vous perdez 1 point d'HABILETÉ, et 4 points d'ENDURANCE. Si vous êtes toujours vivant, Meynaf et Stubb vous agrippent de nouveau le poignet. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 6. Si vous êtes Malchanceux, rendez-vous au 35.</t>
+    <t xml:space="preserve">Bien qu'ils vous aident de toute leur force, vos amis sont incapables de vous forcer à planter l'arme dans la porte. Le pouvoir de la dague oblige encore votre main à se tourner vers vous, et cette fois, la lame pénètre profondément votre aine gauche. Vous perdez 1 point d'HABILETÉ, et 4 points d'ENDURANCE. Si vous êtes toujours vivant, Meynaf et Stubb vous agrippent de nouveau le poignet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:6;CHOICE:35</t>
   </si>
   <si>
     <t xml:space="preserve">Vous saisissez fermement la garde de l'épée, et vous la tirez d'un coup sec. A votre grande surprise, l'épée sort de la mare sans difficulté. Vous avez choisi l'Épée de Rapidité, une arme acérée et robuste, bien qu'elle soit aussi légère qu'une plume. Vous ajoutez 1 point à votre total d'HABILETÉ. Si vous désirez aller voir ce que contient le sac de l'Orque, rendez-vous au 354. Mais si vous préférez vous diriger sans plus attendre vers le tunnel opposé à celui par lequel vous êtes arrivé, rendez-vous au 221.</t>
@@ -1183,13 +1309,19 @@
     <t xml:space="preserve">Les deux dagues manquent leur but, et vous les entendez siffler à vos oreilles. Ajoutez 1 point à votre total de CHANCE. Vous continuez à courir, sans vous arrêter pour regarder derrière vous. Rendez-vous au 29.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il fait si sombre à l'intérieur de la caverne, que vous ne pouvez même pas distinguer votre main en la mettant devant vos yeux. Alors que vous marchez à l'aveuglette, vous faites un faux pas, et vous trébuchez. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 133. Si vous êtes Malchanceux, rendez-vous au 178.</t>
+    <t xml:space="preserve">Il fait si sombre à l'intérieur de la caverne, que vous ne pouvez même pas distinguer votre main en la mettant devant vos yeux. Alors que vous marchez à l'aveuglette, vous faites un faux pas, et vous trébuchez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:133;CHOICE:178</t>
   </si>
   <si>
     <t xml:space="preserve">Vous rompez la miche de pain en deux, et vous êtes stupéfait de découvrir une clef de fer qui y était cachée. Vous gagnez 1 point de CHANCE. Vous glissez la clef dans votre poche et, changeant d'avis, vous laissez là le pain, et vous vous dirigez vers le tunnel opposé. Rendez-vous au 221.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous reprenez connaissance pour voir Meynaf et Stubb soigner vos brûlures. « Cela ne me réjouit pas de vous dire que je vous avais prévenu. » vous déclare Meynaf en vous lançant un regard moqueur. Vous essayez de marcher, mais la douleur est trop intense. « Nous devons nous reposer un peu, dit Stubb d'un ton ennuyé. Mais il ne se passera pas longtemps avant que les Gobelins de la Sorcière des Neiges ne nous découvrent. » Vous ne pouvez rien faire d'autre que de vous étendre à nouveau. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 28. Si vous êtes Malchanceux, rendez-vous au 332.</t>
+    <t xml:space="preserve">Vous reprenez connaissance pour voir Meynaf et Stubb soigner vos brûlures. « Cela ne me réjouit pas de vous dire que je vous avais prévenu. » vous déclare Meynaf en vous lançant un regard moqueur. Vous essayez de marcher, mais la douleur est trop intense. « Nous devons nous reposer un peu, dit Stubb d'un ton ennuyé. Mais il ne se passera pas longtemps avant que les Gobelins de la Sorcière des Neiges ne nous découvrent. » Vous ne pouvez rien faire d'autre que de vous étendre à nouveau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:28;CHOICE:332</t>
   </si>
   <si>
     <t xml:space="preserve">Vous saisissez la hampe avec fermeté, et vous projetez l'arme vers le Yéti. Jetez un dé. Si vous faites un 1, rendez-vous au 157. Si vous faites 2 ou plus, rendez-vous au 219.</t>
@@ -1282,7 +1414,10 @@
     <t xml:space="preserve">Vous traversez rapidement la plaine sans y rencontrer la moindre créature. Vers l'est, vous pouvez distinguer dans le lointain la forme inquiétante de la Montagne de Feu, la Montagne interdite, qui dresse son sommet haut dans le ciel. « Savez-vous si le Sorcier vit toujours dans la Montagne ? » vous demande Stubb. Vous allez lui répondre lorsque vous apercevez personnage qui s'avance dans votre direction. Vous tirez votre épée, mais vous vous rendez vite compte que le nouveau venu est un vieillard portant un lourd sac sur l'épaule. Il s'arrête en face de vous, et dit : « Vous pouvez rengainer votre épée. Je ne vous donnerai aucune raison de vous en servir contre moi. La seule chose que je sois en état de vous donner est un renseignement - contre de l'argent, bien entendu. Allez, sortez 2 Pièces d'Or de votre sac, et vous ne le regretterez pas ! » Si vous désirez obtenir un renseignement du vieil homme, rendez-vous au 69. Mais vous pouvez également ne lui prêter aucune attention, et poursuivre votre chemin vers le sud (rendez-vous au 348).</t>
   </si>
   <si>
-    <t xml:space="preserve">L'Illusionniste arrache sa dague de votre épaule, et les trois images se préparent à vous attaquer de nouveau. Vous décidez alors de les pourfendre toutes, sans en choisir une en particulier. Ainsi le véritable illusionniste ne pourra pas vous échapper. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 232. Si vous êtes Malchanceux, rendez-vous au 127.</t>
+    <t xml:space="preserve">L'Illusionniste arrache sa dague de votre épaule, et les trois images se préparent à vous attaquer de nouveau. Vous décidez alors de les pourfendre toutes, sans en choisir une en particulier. Ainsi le véritable illusionniste ne pourra pas vous échapper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:232;CHOICE:127</t>
   </si>
   <si>
     <t xml:space="preserve">Vous apercevez une branche pendante au-dessus de l'eau, mais vous ne parvenez pas à la saisir, et vous êtes emporté par le courant dans lequel vous vous débattez. Par chance, vous dérivez vers un bras mort, et vous pouvez reprendre votre souffle. Si vous aviez un bouclier, vous l'avez perdu dans la rivière (vous ôtez alors 1 point de votre total d'HABILETÉ). Vous avez avalé des quantités d'eau, et vous êtes complètement épuisé. Il ne vous reste que la force nécessaire pour vous hisser sur la berge sud du cours d'eau. Vous perdez 4 points d'ENDURANCE. Si vous êtes toujours vivant, vous reprenez votre route vers l'est, revenant sur vos pas vers l'endroit ou brûlait le feu, en maudissant votre malchance. Rendez-vous au 50.</t>
@@ -1324,10 +1459,13 @@
     <t xml:space="preserve">Vous quittez la grotte, et vous prenez le tunnel sur votre gauche. En cheminant, vous mangez le gâteau : il est complètement rassis, et n'a aucun goût. Cependant, il vous redonne un peu d'énergie. Vous ajoutez 1 point à votre total d'ENDURANCE. Rendez-vous au 198.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Sorcière des Neiges vous regarde pendant un long moment, puis elle dit : « Etoile ». Vous souriez, et vous ouvrez votre poing dans lequel vous avez caché le disque rond. Vous l'avez battue, et elle va en subir les conséquences. Une fumée blanche envahit le globe qui, brusquement, vole en éclats ; et l'image de la Sorcière disparaît. Son hurlement résonne dans la grotte, mais elle est vaincue. Vous vous jetez alors dans les bras de vos deux compagnons, et vous vous laissez aller à votre joie. Mais cette joie est de courte durée, car vous entendez soudain un grondement de mauvais augure. Le sol se met à trembler sous vos pieds, et de larges fissures apparaissent dans les murs de glace de la grotte, alors que son plafond commence à s'effondrer. Est-ce là la promesse de vous laisser partir que vous avait faite la Sorcière ? Tentez votre Chance. Si vous êtes Chanceux, rendez- vous au 3. Si vous êtes Malchanceux, rendez-vous au 358.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Géant des Glaces se tourne vers vous en tenant le coffret des deux mains au-dessus de sa tête. En poussant un grognement sourd, il le jette sur vous. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 93. Si vous êtes Malchanceux, rendez- vous au 357.</t>
+    <t xml:space="preserve">La Sorcière des Neiges vous regarde pendant un long moment, puis elle dit : « Etoile ». Vous souriez, et vous ouvrez votre poing dans lequel vous avez caché le disque rond. Vous l'avez battue, et elle va en subir les conséquences. Une fumée blanche envahit le globe qui, brusquement, vole en éclats ; et l'image de la Sorcière disparaît. Son hurlement résonne dans la grotte, mais elle est vaincue. Vous vous jetez alors dans les bras de vos deux compagnons, et vous vous laissez aller à votre joie. Mais cette joie est de courte durée, car vous entendez soudain un grondement de mauvais augure. Le sol se met à trembler sous vos pieds, et de larges fissures apparaissent dans les murs de glace de la grotte, alors que son plafond commence à s'effondrer. Est-ce là la promesse de vous laisser partir que vous avait faite la Sorcière ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Géant des Glaces se tourne vers vous en tenant le coffret des deux mains au-dessus de sa tête. En poussant un grognement sourd, il le jette sur vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:93;CHOICE:357</t>
   </si>
   <si>
     <t xml:space="preserve">Le bracelet est doté de pouvoirs magiques, et vous gagnez 1 point d'HABILETÉ. Mais maintenant il faut vous dépêcher, car le Sortilège de Mort poursuit son lent travail de destruction. Rendez-vous au 319.</t>
@@ -1351,7 +1489,10 @@
     <t xml:space="preserve">L'homme hoche la tête, traverse la caverne et tendant son doigt vers le tunnel de gauche, il vous déclare que la Sorcière des Neiges se trouve dans une pièce située tout au bout de ce tunnel. Si vous voulez suivre ses indications, rendez-vous au 214. Mais si vous préférez tirer votre épée pour l'attaquer, rendez-vous au 156.</t>
   </si>
   <si>
-    <t xml:space="preserve">En retenant votre respiration, vous vous faufilez dans la grotte en espérant ne pas attirer l'attention. Vous passez derrière l'idole, et vous vous dirigez vers le tunnel opposé à celui par lequel vous êtes arrivé. Tentez votre Chance. Si vous êtes Chanceux, rendez- vous au 295. Si vous êtes Malchanceux, rendez-vous au 370.</t>
+    <t xml:space="preserve">En retenant votre respiration, vous vous faufilez dans la grotte en espérant ne pas attirer l'attention. Vous passez derrière l'idole, et vous vous dirigez vers le tunnel opposé à celui par lequel vous êtes arrivé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:295;CHOICE:370</t>
   </si>
   <si>
     <t xml:space="preserve">Vous vous agenouillez devant le trou d'eau et vous en avalez de grandes gorgées. Malheureusement pour vous, l'eau a été empoisonnée, et bientôt vous ressentez de violentes douleurs à l'estomac. Vous perdez 4 points d'ENDURANCE. Si vous êtes toujours vivant, rendez-vous au 96.</t>
@@ -1393,7 +1534,10 @@
     <t xml:space="preserve">Le tunnel se termine bientôt au bord d'un puits, hors duquel un Nain essaye vainement de sortir : à chacune de ses tentatives, il glisse, et se retrouve inéluctablement au fond du puits encombré de blocs de glace provenant très certainement d'une espèce de cheminée creusée juste au-dessus de lui. Un bloc de glace surgit alors de cette cheminée et tombe sur l'épaule du nain. Vous entendez des hurlements de joie venant d'en haut. En vous apercevant, le Nain crie : « Sois maudit, étranger, si tu ne me viens pas en aide. Car je vois que tu ne portes pas le Collier. » Si vous voulez aidez le Nain à sortir du puits, rendez-vous au 376. Mais si vous préférez ne pas lui prêter attention, et revenir à la bifurcation, rendez-vous au 57.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous tirez la corde, et vous découvrez avec effroi qu'elle est couverte de VERS CARNIVORES qui agitent en tous sens leur tête aveugle, à la recherche de chair vivante dans laquelle ils pourraient s'enfouir. Vous lâchez la corde, mais un des Vers a rampé sur le dos de votre main. Par chance, vous parvenez à vous en débarrasser, et vous l'écrasez sous votre talon. Ajoutez 1 point à votre total de CHANCE. De toute évidence, ce n'est pas dans cette souche que vous trouverez le Guérisseur, et vous décidez de poursuivre votre chemin le long de la rivière. Rendez-vous au 119.</t>
+    <t xml:space="preserve">Vous tirez la corde, et vous découvrez avec effroi qu'elle est couverte de VERS CARNIVORES qui agitent en tous sens leur tête aveugle, à la recherche de chair vivante dans laquelle ils pourraient s'enfouir. Vous lâchez la corde, mais un des Vers a rampé sur le dos de votre main. Par chance, vous parvenez à vous en débarrasser, et vous l'écrasez sous votre talon. Ajoutez 1 point à votre total de CHANCE. De toute évidence, ce n'est pas dans cette souche que vous trouverez le Guérisseur, et vous décidez de poursuivre votre chemin le long de la rivière.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD:Hero.Current.Luck:1</t>
   </si>
   <si>
     <t xml:space="preserve">Alors que le Dragon Blanc se prépare à bondir sur vous, vous frottez sans perdre un instant l'anneau en cuivre. Et devant vous, un guerrier commence à prendre forme. Jetez un dé pour savoir quel guerrier va apparaître. CHIFFRE GUERRIER HABILETÉ ENDURANCE OBTENU
@@ -1406,7 +1550,14 @@
 Le guerrier va combattre le DRAGON BLANC en premier. DRAGON BLANC HABILETÉ: 12 ENDURANCE: 14 Si le guerrier sort vainqueur du combat, il disparaîtra immédiatement (rendez-vous au 139). S'il est vaincu, vous poursuivrez vous-même le combat. Et si vous êtes vainqueur, rendez-vous au 139.</t>
   </si>
   <si>
-    <t xml:space="preserve">En espérant que les Gobelins soient aussi stupides qu'ils le paraissent, vous tirez violemment la corde. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 188. Si vous êtes Malchanceux, rendez-vous au 86.</t>
+    <t xml:space="preserve">LOL
+PROXY COMBAT&amp;ROLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En espérant que les Gobelins soient aussi stupides qu'ils le paraissent, vous tirez violemment la corde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:188;CHOICE:86</t>
   </si>
   <si>
     <t xml:space="preserve">Le passeur bondit sur ses pieds, et vous dit : « Pour 10 Pièces d'Or, je peux vous mener jusqu'à Fang ! Montez à bord ! » Vous payez à cet homme cupide la somme convenue, et il a tôt fait de vous faire traverser la rivière. Arrivés sur la rive opposée, vous reprenez votre route vers Pont de Pierre, en traversant la Plaine des Païens dans la direction du sud. Vous marchez depuis quelque temps lorsque vous apercevez un nuage de poussière qui s'élève à l'horizon. Meynaf s'agenouille, pose son oreille contre le sol, puis se relève en vous disant : « Des chevaux ou des Centaures se dirigent vers nous. Il ne m'est pas possible de le préciser. » Si vous voulez attendre pour voir qui vient vers vous, rendez-vous au 180. Mais vous pouvez également vous dissimuler dans les buissons (rendez-vous au 58).</t>
@@ -1515,7 +1666,10 @@
     <t xml:space="preserve">Vous fouillez les hardes des Gobelins dans lesquelles vous découvrez un peu de poisson séché, une chandelle et 2 Pièces d'Or, que vous décidez de prendre, avec les deux dagues (notez toutes ces trouvailles sur votre Feuille d'Aventure). Les colliers en métal qu'ils portaient autour du cou ont cessé de briller, mais malgré tous vos efforts, il vous est impossible de les détacher. Aussi, sans vous attarder davantage, vous reprenez votre chemin le long du tunnel (rendez-vous au 106).</t>
   </si>
   <si>
-    <t xml:space="preserve">La monotonie de la plaine que vous traversez vous fait peu à peu relâcher votre attention, et vous ne remarquez pas que les reflets du soleil sur votre armure attirent d'inquiétants volatiles qui décrivent des cercles de plus en plus serrés autour de vous. Ils sont d'une couleur verdâtre, leurs ailes sont membraneuses et leurs griffes acérées doivent leur donner suffisamment confiance pour fondre sur leurs proies sans la moindre hésitation. Quatre HOMMES-OISEAUX vous entourent, et piquent subitement sur vous en poussant des cris aigus. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 256. Si vous êtes Malchanceux, rendez-vous au 369.</t>
+    <t xml:space="preserve">La monotonie de la plaine que vous traversez vous fait peu à peu relâcher votre attention, et vous ne remarquez pas que les reflets du soleil sur votre armure attirent d'inquiétants volatiles qui décrivent des cercles de plus en plus serrés autour de vous. Ils sont d'une couleur verdâtre, leurs ailes sont membraneuses et leurs griffes acérées doivent leur donner suffisamment confiance pour fondre sur leurs proies sans la moindre hésitation. Quatre HOMMES-OISEAUX vous entourent, et piquent subitement sur vous en poussant des cris aigus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:256;CHOICE:369</t>
   </si>
   <si>
     <t xml:space="preserve">Vous ne tombez que de quelques mètres sur une saillie de glace surplombant la crevasse. Par chance, vous vous tirez de ce mauvais pas avec une cheville endolorie seulement. Vous perdez 1 point d'ENDURANCE. A l'aide de votre épée, vous creusez des encoches dans la glace et, en progressant lentement, vous finissez par sortir de la crevasse. En vous enfonçant profondément dans la neige, vous poursuivez votre chemin. Rendez-vous au 212.</t>
@@ -1584,7 +1738,10 @@
     <t xml:space="preserve">Vous avez presque atteint l'entrée du tunnel, lorsque les adorateurs de l'idole cessent leur chant. Ils se relèvent, et l'un d'entre eux vous interpelle, vous demandant pourquoi vous n'avez pas prié, vous aussi, le Grand Gelé. Si vous possédez une flûte magique, vous pouvez répondre que la Sorcière vous a ordonné de venir jouer pour elle (rendez-vous au 31). Mais vous pouvez également vous saisir de votre épée, et vous précipiter sur eux pour les attaquer (rendez-vous au 143), ou essayer de vous enfuir en vous engouffrant dans le tunnel (rendez-vous au 33).</t>
   </si>
   <si>
-    <t xml:space="preserve">L'avalanche est plus rapide que vous et il vous est impossible d'atteindre le rocher car vous êtes emporté par l'océan de neige qui dévale la montagne. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 257. Si vous êtes Malchanceux, rendez-vous au 64.</t>
+    <t xml:space="preserve">L'avalanche est plus rapide que vous et il vous est impossible d'atteindre le rocher car vous êtes emporté par l'océan de neige qui dévale la montagne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:257;CHOICE:64</t>
   </si>
   <si>
     <t xml:space="preserve">Le Génie de l'Air disparaît aussi vite qu'il était apparu, et tout redevient calme. Meynaf et Stubb ont été sérieusement blessés, mais ils sont malgré tout, toujours en vie. Stubb trouve même la force, en dépit de la douleur qu'il ressent, de vous faire d'un ton sarcastique quelques remarques sur cette rage qui est la vôtre à vouloir toucher à tout ! Sans prêter attention à ses railleries, vous passez le bouclier à votre bras (vous ajoutez 1 point à votre total d'HABILETÉ), et, en compagnie de vos deux amis, vous revenez à la bifurcation, et vous poursuivez votre chemin droit devant vous (rendez-vous au 135).</t>
@@ -1602,7 +1759,10 @@
     <t xml:space="preserve">Vous vous allongez au bord du puits, et vous tendez la main vers le Nain pour l'aider à en sortir, au grand mécontentement des spectateurs qui se trouvent au faîte de la cheminée. En courant, vous revenez ensemble vers la bifurcation. Là, le Nain s'engage dans le tunnel de droite. Vous lui dites alors que vous avez l'intention de continuer tout droit pour essayer de découvrir le repaire de la Sorcière des Neiges, et qu'il ne vous servirait à rien de le suivre pour vous retrouver dans la caverne de l'idole. Le Nain vous répond, que maintenant qu'il est libre, il va s'enfuir des montagnes, et retourner dans son village. Il vous remercie de votre aide et, avant de reprendre sa course dans le tunnel, il vous tend un petit sac en cuir. Quelques mètres plus loin, il se retourne et vous crie : « Prenez garde au rat blanc ! » Puis, il disparaît. Vous ouvrez le sac, et vous y découvrez une fronde et trois billes de fer que vous rangez dans votre sac à dos (n'oubliez pas d'inscrire ces objets sur votre Feuille d'Aventure). Vous reprenez ensuite votre chemin dans le tunnel (rendez-vous au 125).</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre marche vous épuise, et vous ne prêtez pas une grande attention à ce qui se trouve sur le chemin que vous suivez. Par malchance, vous mettez le pied sur un SERPENT A SONNETTES qui vous attaque, ses crocs venimeux dardés vers vous. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 350. Si vous êtes Malchanceux, rendez-vous au 167.</t>
+    <t xml:space="preserve">Votre marche vous épuise, et vous ne prêtez pas une grande attention à ce qui se trouve sur le chemin que vous suivez. Par malchance, vous mettez le pied sur un SERPENT A SONNETTES qui vous attaque, ses crocs venimeux dardés vers vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:350;CHOICE:167</t>
   </si>
   <si>
     <t xml:space="preserve">Vous tirez votre épée, et vous vous précipitez sur le monstre. YETI HABILETÉ: 11 ENDURANCE: 12 Si vous êtes vainqueur, rendez-vous au 67.</t>
@@ -1623,7 +1783,7 @@
     <t xml:space="preserve">Vous avez maintenant tous trois traversé l'averse d'acide, mais vous êtes quelque peu démoralisés. Vous perdez 1 point de CHANCE. Néanmoins, vous poursuivez votre chemin avec détermination (rendez-vous au 339).</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous rabaissez le capuchon le plus que vous le pouvez sur votre visage, et vous vous dirigez vers l'entrée du tunnel, sur votre droite. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 295. Si vous êtes Malchanceux, rendez-vous au 370.</t>
+    <t xml:space="preserve">Vous rabaissez le capuchon le plus que vous le pouvez sur votre visage, et vous vous dirigez vers l'entrée du tunnel, sur votre droite.</t>
   </si>
   <si>
     <t xml:space="preserve">Vous vous sentez de plus en plus faible. Vous perdez 1 point d'ENDURANCE. Devant vous, vous apercevez une gorge qui court vers l'est entre deux collines, et vous décidez que vous pouvez aussi bien vous diriger dans cette direction pour trouver le Guérisseur. A mi-pente sur le flanc gauche de la gorge, vous apercevez l'entrée d'une caverne. Vous pouvez grimper jusqu'à cette caverne (rendez-vous au 170), mais vous pouvez également ne pas y prêter attention, et poursuivre votre chemin (rendez- vous au 377).</t>
@@ -1632,7 +1792,10 @@
     <t xml:space="preserve">Vous ne pouvez éviter la dague qui s'enfonce profondément dans votre aine. Vous perdez 2 points d'ENDURANCE. Avant que vous ayez eu le temps de reprendre vos esprits, le Gobelin lève le bras pour vous porter un nouveau coup. Vous allez devoir le combattre à mains nues. GOBELIN HABILETÉ : 5 ENDURANCE : 5 Comme vous combattez sans épée, vous devrez soustraire 3 points de votre Force d'Attaque à chaque Assaut. Si vous êtes vainqueur, rendez-vous au 43.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le froid devient intolérable, et vos mains et vos pieds sont complètement engourdis. Avec inquiétude, vous vous demandez s'il vous serait possible de saisir votre épée si un danger quelconque se présentait. Cependant, au bout de peu de temps, le blizzard tombe. Vous regrettez alors de ne pas vous être mis à l'abri, car l'une de vos mains est gelée. Tentez votre Chance. Si vous êtes Chanceux, rendez-vous au 308. Si vous êtes Malchanceux, rendez-vous au 225.</t>
+    <t xml:space="preserve">Le froid devient intolérable, et vos mains et vos pieds sont complètement engourdis. Avec inquiétude, vous vous demandez s'il vous serait possible de saisir votre épée si un danger quelconque se présentait. Cependant, au bout de peu de temps, le blizzard tombe. Vous regrettez alors de ne pas vous être mis à l'abri, car l'une de vos mains est gelée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK;CHOICE:308;CHOICE:225</t>
   </si>
   <si>
     <t xml:space="preserve">« Mon nom est Meynaf, vous déclare l'Elfe, tandis que vous vous mettez tous trois en route, et lui s'appelle Stubb. Nous nous sommes rencontrés ici, alors que nous étions tous deux les esclaves de la Sorcière. Tout ce que nous désirons, maintenant, c'est retourner dans nos villages. Je vis dans les collines de la Pierre de Lune et Stubb habite Pont de Pierre. Si nous parvenons à nous enfuir de ces grottes infernales venez avec nous ; vous serez le bienvenu. Pont de Pierre est sur la route de mon village. C'es un long voyage. » Vous interrompez alors Meynaf, car vous venez de remarquer quelque chose d'étrange sur le sol : deux paires d'empreintes de pas courent en effet parallèlement dans le tunnel, sur une vingtaine de mètres. La première est peinte en blanc. Quant à 1 seconde, elle est peinte en noir. Vous vous demandez ce que cela peut signifier, mais il vous est impossible de trouver la moindre explication logique. Allez-vous : Marcher sur les empreintes blanches ? Rendez-vous au 11 Marcher sur les empreintes noires ? Rendez-vous au 87 Marcher entre les empreintes ? Rendez-vous au 220</t>
@@ -1672,6 +1835,36 @@
   </si>
   <si>
     <t xml:space="preserve">C'est l'aube d'une agréable journée ; une journée qui sera certainement parmi les plus belles de votre vie. La Sorcière des Neiges a disparu à tout jamais, et vous avez vaincu la malédiction qu'elle vous avait jetée. En vous éloignant de la Montagne de Feu, vous pensez au bienveillant Guérisseur, et à vos amis Meynaf et Stubb. Soudain, le désir vous prend de retrouver le joyeux Nain, et vous vous mettez en route dans la direction de Pont de Pierre sans perdre un instant, en espérant qu'il sera de retour de la Forêt es Ténèbres. Vous avez bien mérité un peu de repos. Quant à savoir s'il vous sera possible d'en profiter ou non, c'est une autre histoire...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DelDjinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivre le genie du prisme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VarName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baton Gravé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objet en Argent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoire des evenements passes</t>
   </si>
 </sst>
 </file>
@@ -2072,10 +2265,10 @@
   </sheetPr>
   <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B338" activeCellId="0" sqref="B338"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,18 +2478,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -2331,11 +2524,11 @@
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -2363,30 +2556,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,12 +2587,12 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="n">
@@ -2420,37 +2613,37 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -2459,50 +2652,50 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -2511,25 +2704,25 @@
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2730,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2550,7 +2743,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="n">
@@ -2563,10 +2756,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2576,7 +2769,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="n">
@@ -2589,12 +2782,12 @@
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,12 +2795,12 @@
         <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,7 +2808,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="n">
@@ -2628,7 +2821,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="n">
@@ -2641,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="n">
@@ -2654,11 +2847,11 @@
         <v>30</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="5"/>
     </row>
@@ -2670,7 +2863,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="n">
@@ -2691,12 +2884,12 @@
         <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2902,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,12 +2910,12 @@
         <v>35</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,11 +2923,11 @@
         <v>36</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2743,25 +2936,25 @@
         <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2962,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2782,12 +2975,12 @@
         <v>39</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="n">
@@ -2808,7 +3001,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="n">
@@ -2821,12 +3014,12 @@
         <v>42</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,11 +3027,11 @@
         <v>43</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" s="5"/>
     </row>
@@ -2847,12 +3040,12 @@
         <v>44</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,7 +3053,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="n">
@@ -2873,14 +3066,14 @@
         <v>46</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +3081,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="n">
@@ -2901,11 +3094,11 @@
         <v>48</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2914,10 +3107,10 @@
         <v>49</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2927,12 +3120,12 @@
         <v>50</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,14 +3133,14 @@
         <v>51</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="n">
         <v>336</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,7 +3148,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="n">
@@ -2968,11 +3161,11 @@
         <v>53</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -2981,10 +3174,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2994,12 +3187,12 @@
         <v>55</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3200,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="n">
@@ -3020,7 +3213,7 @@
         <v>57</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="n">
@@ -3033,7 +3226,7 @@
         <v>58</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="n">
@@ -3046,10 +3239,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3059,10 +3252,10 @@
         <v>60</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3072,11 +3265,11 @@
         <v>61</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E75" s="5"/>
     </row>
@@ -3085,12 +3278,12 @@
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,14 +3291,14 @@
         <v>63</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="n">
         <v>96</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,12 +3306,12 @@
         <v>64</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,11 +3319,11 @@
         <v>65</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E79" s="5"/>
     </row>
@@ -3139,12 +3332,12 @@
         <v>66</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3345,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="n">
@@ -3165,7 +3358,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="n">
@@ -3178,7 +3371,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="n">
@@ -3191,14 +3384,14 @@
         <v>70</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="n">
         <v>241</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,11 +3399,11 @@
         <v>71</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E85" s="5"/>
     </row>
@@ -3219,11 +3412,11 @@
         <v>72</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E86" s="5"/>
     </row>
@@ -3232,14 +3425,14 @@
         <v>73</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="n">
         <v>20</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3440,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3260,10 +3453,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>258</v>
@@ -3275,10 +3468,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3288,10 +3481,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3301,12 +3494,12 @@
         <v>78</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,14 +3507,14 @@
         <v>79</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="n">
         <v>383</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,14 +3522,14 @@
         <v>80</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="n">
         <v>111</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3537,7 @@
         <v>81</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="n">
@@ -3357,7 +3550,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3368,11 +3561,11 @@
         <v>83</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E97" s="5"/>
     </row>
@@ -3381,12 +3574,12 @@
         <v>84</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,14 +3587,14 @@
         <v>85</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,36 +3602,42 @@
         <v>86</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>87</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>88</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,21 +3645,25 @@
         <v>89</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>90</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="5" t="n">
+        <v>104</v>
+      </c>
       <c r="E104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,9 +3671,11 @@
         <v>91</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="5"/>
+        <v>190</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
@@ -3479,43 +3684,51 @@
         <v>92</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C106" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>93</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>94</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>95</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="E109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,32 +3736,40 @@
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+      <c r="D110" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>97</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>98</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="E112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,32 +3777,42 @@
         <v>99</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>100</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>101</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="E115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,32 +3820,38 @@
         <v>102</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>103</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>104</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="E118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,21 +3859,25 @@
         <v>105</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="5" t="n">
+        <v>252</v>
+      </c>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
         <v>106</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="E120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,10 +3885,12 @@
         <v>107</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="5" t="n">
+        <v>207</v>
+      </c>
       <c r="E121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,9 +3898,11 @@
         <v>108</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
@@ -3666,9 +3911,11 @@
         <v>109</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
@@ -3677,21 +3924,25 @@
         <v>110</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
         <v>111</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="E125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,21 +3950,27 @@
         <v>112</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
         <v>113</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="E127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,21 +3978,25 @@
         <v>114</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
         <v>115</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="E129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,18 +4004,20 @@
         <v>116</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
         <v>117</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3765,7 +4028,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3776,7 +4039,7 @@
         <v>119</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3787,7 +4050,7 @@
         <v>120</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3798,7 +4061,7 @@
         <v>121</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -3809,7 +4072,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3820,7 +4083,7 @@
         <v>123</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3831,7 +4094,7 @@
         <v>124</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3842,7 +4105,7 @@
         <v>125</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3853,7 +4116,7 @@
         <v>126</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3864,7 +4127,7 @@
         <v>127</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3875,7 +4138,7 @@
         <v>128</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -3886,7 +4149,7 @@
         <v>129</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3897,7 +4160,7 @@
         <v>130</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -3908,7 +4171,7 @@
         <v>131</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -3919,7 +4182,7 @@
         <v>132</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -3930,7 +4193,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3941,7 +4204,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -3952,7 +4215,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3963,7 +4226,7 @@
         <v>136</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3974,7 +4237,7 @@
         <v>137</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3985,7 +4248,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3996,7 +4259,7 @@
         <v>139</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -4007,7 +4270,7 @@
         <v>140</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4018,7 +4281,7 @@
         <v>141</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4029,7 +4292,7 @@
         <v>142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4040,7 +4303,7 @@
         <v>143</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -4051,7 +4314,7 @@
         <v>144</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -4062,7 +4325,7 @@
         <v>145</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -4073,7 +4336,7 @@
         <v>146</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -4084,7 +4347,7 @@
         <v>147</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -4095,7 +4358,7 @@
         <v>148</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -4106,7 +4369,7 @@
         <v>149</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -4117,7 +4380,7 @@
         <v>150</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4128,7 +4391,7 @@
         <v>151</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4139,7 +4402,7 @@
         <v>152</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -4150,7 +4413,7 @@
         <v>153</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -4161,7 +4424,7 @@
         <v>154</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -4172,7 +4435,7 @@
         <v>155</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -4183,7 +4446,7 @@
         <v>156</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4194,7 +4457,7 @@
         <v>157</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -4205,7 +4468,7 @@
         <v>158</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -4216,7 +4479,7 @@
         <v>159</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -4227,7 +4490,7 @@
         <v>160</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -4238,7 +4501,7 @@
         <v>161</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -4249,7 +4512,7 @@
         <v>162</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -4260,7 +4523,7 @@
         <v>163</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5" t="n">
@@ -4273,7 +4536,7 @@
         <v>164</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -4284,7 +4547,7 @@
         <v>165</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -4295,7 +4558,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -4306,7 +4569,7 @@
         <v>167</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -4317,7 +4580,7 @@
         <v>168</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -4328,21 +4591,23 @@
         <v>169</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="E184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +4615,7 @@
         <v>171</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -4361,18 +4626,20 @@
         <v>172</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
         <v>173</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -4383,7 +4650,7 @@
         <v>174</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -4394,7 +4661,7 @@
         <v>175</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -4405,7 +4672,7 @@
         <v>176</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -4416,7 +4683,7 @@
         <v>177</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="n">
@@ -4429,7 +4696,7 @@
         <v>178</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -4440,7 +4707,7 @@
         <v>179</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -4451,7 +4718,7 @@
         <v>180</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -4462,18 +4729,20 @@
         <v>181</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
         <v>182</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -4484,7 +4753,7 @@
         <v>183</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -4495,7 +4764,7 @@
         <v>184</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -4506,7 +4775,7 @@
         <v>185</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -4517,7 +4786,7 @@
         <v>186</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -4528,7 +4797,7 @@
         <v>187</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -4539,7 +4808,7 @@
         <v>188</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -4550,7 +4819,7 @@
         <v>189</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -4561,7 +4830,7 @@
         <v>190</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -4572,7 +4841,7 @@
         <v>191</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -4583,7 +4852,7 @@
         <v>192</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -4594,7 +4863,7 @@
         <v>193</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -4605,7 +4874,7 @@
         <v>194</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -4616,7 +4885,7 @@
         <v>195</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4627,7 +4896,7 @@
         <v>196</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -4638,7 +4907,7 @@
         <v>197</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -4649,7 +4918,7 @@
         <v>198</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -4660,7 +4929,7 @@
         <v>199</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="n">
@@ -4673,7 +4942,7 @@
         <v>200</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -4684,7 +4953,7 @@
         <v>201</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -4695,7 +4964,7 @@
         <v>202</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="n">
@@ -4708,7 +4977,7 @@
         <v>203</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -4719,7 +4988,7 @@
         <v>204</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -4730,7 +4999,7 @@
         <v>205</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -4741,7 +5010,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -4752,7 +5021,7 @@
         <v>207</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -4763,7 +5032,7 @@
         <v>208</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -4774,7 +5043,7 @@
         <v>209</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -4785,7 +5054,7 @@
         <v>210</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -4796,23 +5065,25 @@
         <v>211</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
+      <c r="E225" s="5" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="62.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
         <v>212</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="6" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +5091,7 @@
         <v>213</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -4831,7 +5102,7 @@
         <v>214</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -4842,7 +5113,7 @@
         <v>215</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -4853,10 +5124,10 @@
         <v>216</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -4866,7 +5137,7 @@
         <v>217</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -4877,7 +5148,7 @@
         <v>218</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -4888,12 +5159,12 @@
         <v>219</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="6" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,7 +5172,7 @@
         <v>220</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -4912,7 +5183,7 @@
         <v>221</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -4923,7 +5194,7 @@
         <v>222</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -4934,7 +5205,7 @@
         <v>223</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -4945,7 +5216,7 @@
         <v>224</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -4956,14 +5227,14 @@
         <v>225</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="n">
         <v>174</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +5242,7 @@
         <v>226</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="n">
@@ -4984,18 +5255,20 @@
         <v>227</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
+      <c r="E241" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
         <v>228</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -5006,7 +5279,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -5017,7 +5290,7 @@
         <v>230</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -5028,7 +5301,7 @@
         <v>231</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -5039,7 +5312,7 @@
         <v>232</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -5050,7 +5323,7 @@
         <v>233</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -5061,18 +5334,20 @@
         <v>234</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
+      <c r="E248" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
         <v>235</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -5083,18 +5358,20 @@
         <v>236</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
+      <c r="E250" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
         <v>237</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -5105,7 +5382,7 @@
         <v>238</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -5116,7 +5393,7 @@
         <v>239</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -5127,7 +5404,7 @@
         <v>240</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -5138,7 +5415,7 @@
         <v>241</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -5149,7 +5426,7 @@
         <v>242</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -5160,7 +5437,7 @@
         <v>243</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -5171,7 +5448,7 @@
         <v>244</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -5182,7 +5459,7 @@
         <v>245</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -5193,18 +5470,20 @@
         <v>246</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
+      <c r="E260" s="5" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
         <v>247</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -5215,18 +5494,20 @@
         <v>248</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
+      <c r="E262" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
         <v>249</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
@@ -5237,7 +5518,7 @@
         <v>250</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
@@ -5248,7 +5529,7 @@
         <v>251</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
@@ -5259,7 +5540,7 @@
         <v>252</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -5270,7 +5551,7 @@
         <v>253</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -5281,7 +5562,7 @@
         <v>254</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
@@ -5292,7 +5573,7 @@
         <v>255</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
@@ -5303,7 +5584,7 @@
         <v>256</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
@@ -5314,7 +5595,7 @@
         <v>257</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
@@ -5325,7 +5606,7 @@
         <v>258</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -5336,7 +5617,7 @@
         <v>259</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
@@ -5347,7 +5628,7 @@
         <v>260</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -5358,7 +5639,7 @@
         <v>261</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
@@ -5369,7 +5650,7 @@
         <v>262</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
@@ -5380,7 +5661,7 @@
         <v>263</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
@@ -5391,7 +5672,7 @@
         <v>264</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -5402,7 +5683,7 @@
         <v>265</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -5413,7 +5694,7 @@
         <v>266</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -5424,7 +5705,7 @@
         <v>267</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -5435,7 +5716,7 @@
         <v>268</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -5446,7 +5727,7 @@
         <v>269</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -5457,7 +5738,7 @@
         <v>270</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -5468,7 +5749,7 @@
         <v>271</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -5479,7 +5760,7 @@
         <v>272</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -5490,7 +5771,7 @@
         <v>273</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
@@ -5501,7 +5782,7 @@
         <v>274</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
@@ -5512,7 +5793,7 @@
         <v>275</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
@@ -5523,7 +5804,7 @@
         <v>276</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -5534,7 +5815,7 @@
         <v>277</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -5545,7 +5826,7 @@
         <v>278</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -5556,18 +5837,20 @@
         <v>279</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
+      <c r="E293" s="5" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
         <v>280</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -5578,14 +5861,14 @@
         <v>281</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5" t="n">
         <v>169</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,12 +5876,12 @@
         <v>282</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +5889,7 @@
         <v>283</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5" t="n">
@@ -5619,7 +5902,7 @@
         <v>284</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="5" t="n">
@@ -5632,7 +5915,7 @@
         <v>285</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -5643,7 +5926,7 @@
         <v>286</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
@@ -5654,7 +5937,7 @@
         <v>287</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
@@ -5665,7 +5948,7 @@
         <v>288</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
@@ -5676,7 +5959,7 @@
         <v>289</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
@@ -5687,7 +5970,7 @@
         <v>290</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -5698,29 +5981,33 @@
         <v>291</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
-      <c r="E305" s="5"/>
+      <c r="E305" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
         <v>292</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
+      <c r="E306" s="5" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
         <v>293</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -5731,7 +6018,7 @@
         <v>294</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
@@ -5742,7 +6029,7 @@
         <v>295</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
@@ -5753,7 +6040,7 @@
         <v>296</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
@@ -5764,7 +6051,7 @@
         <v>297</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -5775,7 +6062,7 @@
         <v>298</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
@@ -5786,7 +6073,7 @@
         <v>299</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
@@ -5797,18 +6084,20 @@
         <v>300</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
+      <c r="E314" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
         <v>301</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
@@ -5819,7 +6108,7 @@
         <v>302</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -5830,7 +6119,7 @@
         <v>303</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -5841,7 +6130,7 @@
         <v>304</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -5852,7 +6141,7 @@
         <v>305</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
@@ -5863,7 +6152,7 @@
         <v>306</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -5874,7 +6163,7 @@
         <v>307</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -5885,7 +6174,7 @@
         <v>308</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -5896,7 +6185,7 @@
         <v>309</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
@@ -5907,12 +6196,12 @@
         <v>310</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="6" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +6209,7 @@
         <v>311</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
@@ -5931,20 +6220,25 @@
         <v>312</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C326" s="5"/>
-      <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
-    </row>
-    <row r="327" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+      <c r="D326" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="137.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
         <v>313</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C327" s="5"/>
+        <v>450</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>451</v>
+      </c>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
     </row>
@@ -5953,18 +6247,20 @@
         <v>314</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
-      <c r="E328" s="5"/>
+      <c r="E328" s="5" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
         <v>315</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -5975,7 +6271,7 @@
         <v>316</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
@@ -5986,7 +6282,7 @@
         <v>317</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -5997,7 +6293,7 @@
         <v>318</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
@@ -6008,7 +6304,7 @@
         <v>319</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
@@ -6019,7 +6315,7 @@
         <v>320</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
@@ -6030,7 +6326,7 @@
         <v>321</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
@@ -6041,7 +6337,7 @@
         <v>322</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
@@ -6052,7 +6348,7 @@
         <v>323</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
@@ -6063,7 +6359,7 @@
         <v>324</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -6074,7 +6370,7 @@
         <v>325</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
@@ -6085,7 +6381,7 @@
         <v>326</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -6096,7 +6392,7 @@
         <v>327</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
@@ -6107,7 +6403,7 @@
         <v>328</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
@@ -6118,7 +6414,7 @@
         <v>329</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -6129,7 +6425,7 @@
         <v>330</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
@@ -6140,7 +6436,7 @@
         <v>331</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
@@ -6151,7 +6447,7 @@
         <v>332</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
@@ -6162,7 +6458,7 @@
         <v>333</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
@@ -6173,7 +6469,7 @@
         <v>334</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -6184,11 +6480,11 @@
         <v>335</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="5" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,22 +6492,22 @@
         <v>336</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
         <v>337</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="C351" s="5"/>
       <c r="D351" s="6" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="E351" s="5"/>
     </row>
@@ -6220,7 +6516,7 @@
         <v>338</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
@@ -6231,7 +6527,7 @@
         <v>339</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -6242,7 +6538,7 @@
         <v>340</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
@@ -6253,7 +6549,7 @@
         <v>341</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
@@ -6264,7 +6560,7 @@
         <v>342</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -6275,7 +6571,7 @@
         <v>343</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -6286,7 +6582,7 @@
         <v>344</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -6297,7 +6593,7 @@
         <v>345</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
@@ -6308,7 +6604,7 @@
         <v>346</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
@@ -6319,7 +6615,7 @@
         <v>347</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
@@ -6330,18 +6626,20 @@
         <v>348</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
+      <c r="E362" s="5" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
         <v>349</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
@@ -6352,7 +6650,7 @@
         <v>350</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
@@ -6363,7 +6661,7 @@
         <v>351</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
@@ -6374,7 +6672,7 @@
         <v>352</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
@@ -6385,7 +6683,7 @@
         <v>353</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
@@ -6396,7 +6694,7 @@
         <v>354</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
@@ -6407,7 +6705,7 @@
         <v>355</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
@@ -6418,7 +6716,7 @@
         <v>356</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
@@ -6429,7 +6727,7 @@
         <v>357</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
@@ -6440,7 +6738,7 @@
         <v>358</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
@@ -6451,7 +6749,7 @@
         <v>359</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
@@ -6462,7 +6760,7 @@
         <v>360</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
@@ -6473,7 +6771,7 @@
         <v>361</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
@@ -6484,7 +6782,7 @@
         <v>362</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
@@ -6495,7 +6793,7 @@
         <v>363</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
@@ -6506,7 +6804,7 @@
         <v>364</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -6517,7 +6815,7 @@
         <v>365</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
@@ -6528,7 +6826,7 @@
         <v>366</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
@@ -6539,7 +6837,7 @@
         <v>367</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
@@ -6550,7 +6848,7 @@
         <v>368</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
@@ -6561,7 +6859,7 @@
         <v>369</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -6572,7 +6870,7 @@
         <v>370</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
@@ -6583,18 +6881,20 @@
         <v>371</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
+      <c r="E385" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
         <v>372</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
@@ -6605,7 +6905,7 @@
         <v>373</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
@@ -6616,7 +6916,7 @@
         <v>374</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
@@ -6627,7 +6927,7 @@
         <v>375</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
@@ -6638,7 +6938,7 @@
         <v>376</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
@@ -6649,18 +6949,20 @@
         <v>377</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
+      <c r="E391" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
         <v>378</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
@@ -6671,7 +6973,7 @@
         <v>379</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
@@ -6682,7 +6984,7 @@
         <v>380</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -6693,7 +6995,7 @@
         <v>381</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
@@ -6704,7 +7006,7 @@
         <v>382</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
@@ -6715,7 +7017,7 @@
         <v>383</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -6726,18 +7028,20 @@
         <v>384</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
+      <c r="E398" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
         <v>385</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
@@ -6748,7 +7052,7 @@
         <v>386</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
@@ -6759,18 +7063,20 @@
         <v>387</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
+      <c r="E401" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
         <v>388</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
@@ -6781,7 +7087,7 @@
         <v>389</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
@@ -6792,7 +7098,7 @@
         <v>390</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
@@ -6803,7 +7109,7 @@
         <v>391</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
@@ -6814,7 +7120,7 @@
         <v>392</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
@@ -6825,7 +7131,7 @@
         <v>393</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
@@ -6836,7 +7142,7 @@
         <v>394</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -6847,7 +7153,7 @@
         <v>395</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -6858,7 +7164,7 @@
         <v>396</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -6869,7 +7175,7 @@
         <v>397</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
@@ -6880,7 +7186,7 @@
         <v>398</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
@@ -6891,7 +7197,7 @@
         <v>399</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
@@ -6902,7 +7208,7 @@
         <v>400</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
@@ -6917,4 +7223,93 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>